--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1176653-C74C-4FD2-B31E-33B2D4554743}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B8F32DB-1D5E-402A-B88A-5948B528E089}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" activeTab="2" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="5" activeTab="11" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="53" r:id="rId2"/>
     <sheet name="PopValues" sheetId="102" r:id="rId3"/>
-    <sheet name="CountryPop" sheetId="54" r:id="rId4"/>
+    <sheet name="TotalPop" sheetId="54" r:id="rId4"/>
     <sheet name="RuralPop" sheetId="110" r:id="rId5"/>
     <sheet name="StochasticParameters" sheetId="72" r:id="rId6"/>
     <sheet name="SeasonalityCurves" sheetId="58" r:id="rId7"/>
@@ -24,7 +24,7 @@
     <sheet name="TaskValues_basic" sheetId="83" r:id="rId9"/>
     <sheet name="TaskValues_expanded" sheetId="109" r:id="rId10"/>
     <sheet name="Cadres" sheetId="97" r:id="rId11"/>
-    <sheet name="Overhead_filter" sheetId="108" r:id="rId12"/>
+    <sheet name="CadreRoles" sheetId="108" r:id="rId12"/>
     <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId13"/>
     <sheet name="Lookup" sheetId="84" r:id="rId14"/>
   </sheets>
@@ -36,8 +36,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_expanded!$B$1:$P$22</definedName>
     <definedName name="hours">#REF!</definedName>
     <definedName name="select_pop">#REF!</definedName>
-    <definedName name="total_pop" localSheetId="3">CountryPop!#REF!</definedName>
     <definedName name="total_pop" localSheetId="4">RuralPop!#REF!</definedName>
+    <definedName name="total_pop" localSheetId="3">TotalPop!#REF!</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
     <definedName name="weeks">#REF!</definedName>
@@ -74,7 +74,6 @@
     <author>tc={81CABEFC-7899-4C7A-B9AE-4E2D5F662376}</author>
     <author>tc={014F1C08-667B-46ED-851F-81B8588E32D0}</author>
     <author>tc={4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}</author>
-    <author>tc={5D0499E4-FAEE-4E26-A6E3-157E298E578D}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
@@ -165,20 +164,12 @@
     The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="11" shapeId="0" xr:uid="{5D0499E4-FAEE-4E26-A6E3-157E298E578D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Reference value.</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="319">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -228,9 +219,6 @@
     <t>o_ChildDis_decr</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Column Name</t>
   </si>
   <si>
@@ -693,45 +681,6 @@
     <t>adults 15-19</t>
   </si>
   <si>
-    <t>20_HEW</t>
-  </si>
-  <si>
-    <t>20_TOTAL</t>
-  </si>
-  <si>
-    <t>20_Unassigned</t>
-  </si>
-  <si>
-    <t>25_HEW</t>
-  </si>
-  <si>
-    <t>30_FamilyHealth</t>
-  </si>
-  <si>
-    <t>25_Unassigned</t>
-  </si>
-  <si>
-    <t>25_TOTAL</t>
-  </si>
-  <si>
-    <t>30_HEW</t>
-  </si>
-  <si>
-    <t>30_Unassigned</t>
-  </si>
-  <si>
-    <t>30_TOTAL</t>
-  </si>
-  <si>
-    <t>35_FamilyHealth</t>
-  </si>
-  <si>
-    <t>35_Unassigned</t>
-  </si>
-  <si>
-    <t>35_TOTAL</t>
-  </si>
-  <si>
     <t>sheet_Cadre</t>
   </si>
   <si>
@@ -990,9 +939,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Works with code versions up through at least 1.0</t>
-  </si>
-  <si>
     <t>TaskValues_basic</t>
   </si>
   <si>
@@ -1116,73 +1062,70 @@
     <t>Hyper5564</t>
   </si>
   <si>
-    <t>Fixed weekly</t>
-  </si>
-  <si>
-    <t>Overhead_1</t>
-  </si>
-  <si>
-    <t>Overhead_2</t>
-  </si>
-  <si>
-    <t>Overhead 1</t>
-  </si>
-  <si>
-    <t>Overhead 2</t>
-  </si>
-  <si>
-    <t>You can optionally add columns for your own reference that are not used in the model.</t>
-  </si>
-  <si>
     <t>SensitivityAnalysis</t>
   </si>
   <si>
     <t>SmokingCessation</t>
   </si>
   <si>
-    <t>AddColumnsAsNeeded</t>
-  </si>
-  <si>
-    <t>Add rows as needed</t>
-  </si>
-  <si>
-    <t>AltDemographic</t>
-  </si>
-  <si>
     <t>BasicServices</t>
   </si>
   <si>
     <t>PopValues</t>
   </si>
   <si>
-    <t>Health extension worker 1</t>
-  </si>
-  <si>
-    <t>Overhead_HEW1</t>
-  </si>
-  <si>
-    <t>Unassigned staff 1</t>
-  </si>
-  <si>
-    <t>Overhead_UNASSIGN1</t>
-  </si>
-  <si>
-    <t>Overhead_FH1</t>
-  </si>
-  <si>
-    <t>Overhead_FH2</t>
-  </si>
-  <si>
     <t>Family health professional 1</t>
   </si>
   <si>
     <t>Family health professional 2</t>
   </si>
   <si>
-    <t>Format update date: 3/3/2023.</t>
-  </si>
-  <si>
-    <t>Version 2.1 of the R Model Inputs.xlsx file.</t>
+    <t>ScenarioID</t>
+  </si>
+  <si>
+    <t>RoleID</t>
+  </si>
+  <si>
+    <t>RoleDescription</t>
+  </si>
+  <si>
+    <t>FH1</t>
+  </si>
+  <si>
+    <t>FH2</t>
+  </si>
+  <si>
+    <t>CadreRoles</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Health extension worker</t>
+  </si>
+  <si>
+    <t>HEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health extension worker </t>
+  </si>
+  <si>
+    <t>ID_col</t>
+  </si>
+  <si>
+    <t>DESC_col</t>
+  </si>
+  <si>
+    <t>Format update date: 5/25/2023.</t>
+  </si>
+  <si>
+    <t>Version 2.1 of the model_inputs_demo.xlsx file.</t>
+  </si>
+  <si>
+    <t>Works with code versions up through at least 2.0? Not compatible with pacehrh versions 1.0.6 and earlier.</t>
+  </si>
+  <si>
+    <t>OverheadHoursPerWeek</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,8 +1306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1472,43 +1421,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1571,17 +1483,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1641,15 +1546,6 @@
     <xf numFmtId="43" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="60" wrapText="1"/>
@@ -1657,9 +1553,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="60" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="60" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2228,9 +2134,6 @@
   <threadedComment ref="L1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2022-11-12T18:37:51.70" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{5D0499E4-FAEE-4E26-A6E3-157E298E578D}">
-    <text>Reference value.</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2242,47 +2145,47 @@
   <dimension ref="B2:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="P3" s="28" t="b">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="P4" s="28" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" t="s">
         <v>103</v>
-      </c>
-      <c r="R4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2291,22 +2194,22 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H11" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2322,448 +2225,448 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.08984375" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27.54296875" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="16" customFormat="1" ht="87.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="L1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="N1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="O1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="P1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="Q1" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="C2" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="E2" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="60">
-        <v>1</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="L2" s="61">
-        <v>1</v>
-      </c>
-      <c r="M2" s="62">
+      <c r="H2" s="57">
+        <v>1</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="L2" s="58">
+        <v>1</v>
+      </c>
+      <c r="M2" s="59">
         <v>4</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62">
+      <c r="N2" s="59"/>
+      <c r="O2" s="59">
         <v>10</v>
       </c>
-      <c r="P2" s="62"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="63">
-        <v>1</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>71</v>
+      <c r="H3" s="60">
+        <v>1</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>70</v>
       </c>
       <c r="J3" s="24"/>
       <c r="L3" s="24">
         <v>1</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="62">
         <v>2</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65">
+      <c r="N3" s="62"/>
+      <c r="O3" s="62">
         <v>30</v>
       </c>
-      <c r="P3" s="65"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="63">
+        <v>55</v>
+      </c>
+      <c r="H4" s="60">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="24"/>
-      <c r="K4" s="64"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="24">
         <v>1</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="62">
         <v>3</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="66">
+      <c r="N4" s="62"/>
+      <c r="O4" s="63">
         <v>5</v>
       </c>
-      <c r="P4" s="66"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="60">
+        <v>1</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="24">
+        <v>1</v>
+      </c>
+      <c r="M5" s="62">
+        <v>4</v>
+      </c>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62">
+        <v>5</v>
+      </c>
+      <c r="P5" s="62"/>
+    </row>
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="63">
-        <v>1</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="24">
-        <v>1</v>
-      </c>
-      <c r="M5" s="65">
-        <v>4</v>
-      </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65">
+      <c r="D6" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="69">
+        <v>1</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71">
+        <v>1</v>
+      </c>
+      <c r="M6" s="72">
+        <v>1</v>
+      </c>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72">
         <v>5</v>
       </c>
-      <c r="P5" s="65"/>
-    </row>
-    <row r="6" spans="1:17" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="72">
-        <v>1</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74">
-        <v>1</v>
-      </c>
-      <c r="M6" s="75">
-        <v>1</v>
-      </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75">
-        <v>5</v>
-      </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="40">
+        <v>55</v>
+      </c>
+      <c r="H7" s="39">
         <v>3.0680000000000001</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43">
+      <c r="K7" s="41"/>
+      <c r="L7" s="42">
         <v>0.98</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="40">
         <v>1</v>
       </c>
       <c r="N7" s="8"/>
-      <c r="O7" s="41">
+      <c r="O7" s="40">
         <v>5</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="40">
+        <v>55</v>
+      </c>
+      <c r="H8" s="39">
         <v>0.46090000000000003</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43">
+      <c r="K8" s="41"/>
+      <c r="L8" s="42">
         <v>0.98</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="40">
         <v>2</v>
       </c>
       <c r="N8" s="8"/>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <v>5</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="40">
+        <v>55</v>
+      </c>
+      <c r="H9" s="39">
         <v>0.36799999999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43">
+      <c r="K9" s="41"/>
+      <c r="L9" s="42">
         <v>0.98</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="40">
         <v>2</v>
       </c>
       <c r="N9" s="8"/>
-      <c r="O9" s="41">
+      <c r="O9" s="40">
         <v>5</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="40">
+        <v>78</v>
+      </c>
+      <c r="H10" s="39">
         <v>0.27813253012048195</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>114</v>
+      <c r="I10" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="9">
         <v>1</v>
       </c>
@@ -2776,131 +2679,131 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="60">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="57">
         <v>2.0927000000000001E-4</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="J11" s="61">
+      <c r="I11" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="58">
         <v>4</v>
       </c>
-      <c r="K11" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="L11" s="61">
+      <c r="K11" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="58">
         <v>0.90986310592664843</v>
       </c>
-      <c r="M11" s="62">
-        <v>1</v>
-      </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62">
+      <c r="M11" s="59">
+        <v>1</v>
+      </c>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59">
         <v>5</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="59"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="76">
+        <v>70</v>
+      </c>
+      <c r="H12" s="73">
         <v>3.6788000000000001E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="24">
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="L12" s="24">
         <v>1</v>
       </c>
-      <c r="M12" s="65">
-        <v>1</v>
-      </c>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65">
+      <c r="M12" s="62">
+        <v>1</v>
+      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62">
         <v>5</v>
       </c>
-      <c r="P12" s="65"/>
+      <c r="P12" s="62"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="40">
+        <v>165</v>
+      </c>
+      <c r="H13" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>162</v>
+      <c r="I13" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="J13" s="9">
         <v>0.05</v>
       </c>
-      <c r="K13" s="42" t="s">
-        <v>292</v>
+      <c r="K13" s="41" t="s">
+        <v>277</v>
       </c>
       <c r="L13" s="9">
         <v>1</v>
@@ -2914,501 +2817,454 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="B14" s="56" t="s">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="58" t="s">
+      <c r="B14" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="60">
+      <c r="G14" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="57">
         <v>3.3109200000000005E-2</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="61">
+      <c r="I14" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="58">
         <v>0.87556301899925537</v>
       </c>
-      <c r="M14" s="62">
-        <v>1</v>
-      </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62">
+      <c r="M14" s="59">
+        <v>1</v>
+      </c>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59">
         <v>10</v>
       </c>
-      <c r="P14" s="62"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="63">
+        <v>69</v>
+      </c>
+      <c r="H15" s="60">
         <v>3.3109200000000005E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="24"/>
-      <c r="K15" s="64"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="24">
         <v>0.87556301899925537</v>
       </c>
-      <c r="M15" s="65">
-        <v>1</v>
-      </c>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65">
+      <c r="M15" s="62">
+        <v>1</v>
+      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62">
         <v>10</v>
       </c>
-      <c r="P15" s="65"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="H16" s="76">
+        <v>231</v>
+      </c>
+      <c r="H16" s="73">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="I16" s="64" t="s">
-        <v>114</v>
+      <c r="I16" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="J16" s="24"/>
-      <c r="K16" s="64"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="24">
         <v>1</v>
       </c>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65">
-        <v>1</v>
-      </c>
-      <c r="O16" s="65">
+      <c r="M16" s="62"/>
+      <c r="N16" s="62">
+        <v>1</v>
+      </c>
+      <c r="O16" s="62">
         <v>5</v>
       </c>
-      <c r="P16" s="65"/>
+      <c r="P16" s="62"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" s="76">
+        <v>232</v>
+      </c>
+      <c r="H17" s="73">
         <v>0.15</v>
       </c>
-      <c r="I17" s="64" t="s">
-        <v>114</v>
+      <c r="I17" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="J17" s="24"/>
-      <c r="K17" s="64"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="24">
         <v>1</v>
       </c>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65">
-        <v>1</v>
-      </c>
-      <c r="O17" s="65">
+      <c r="M17" s="62"/>
+      <c r="N17" s="62">
+        <v>1</v>
+      </c>
+      <c r="O17" s="62">
         <v>5</v>
       </c>
-      <c r="P17" s="65"/>
+      <c r="P17" s="62"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="H18" s="76">
+        <v>227</v>
+      </c>
+      <c r="H18" s="73">
         <v>0.192</v>
       </c>
-      <c r="I18" s="64" t="s">
-        <v>114</v>
+      <c r="I18" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="J18" s="24"/>
-      <c r="K18" s="64"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="24">
         <v>1</v>
       </c>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65">
-        <v>1</v>
-      </c>
-      <c r="O18" s="65">
+      <c r="M18" s="62"/>
+      <c r="N18" s="62">
+        <v>1</v>
+      </c>
+      <c r="O18" s="62">
         <v>5</v>
       </c>
-      <c r="P18" s="65"/>
+      <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="H19" s="76">
+        <v>228</v>
+      </c>
+      <c r="H19" s="73">
         <v>0.222</v>
       </c>
-      <c r="I19" s="64" t="s">
-        <v>114</v>
+      <c r="I19" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="J19" s="24"/>
-      <c r="K19" s="64"/>
+      <c r="K19" s="61"/>
       <c r="L19" s="24">
         <v>1</v>
       </c>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65">
-        <v>1</v>
-      </c>
-      <c r="O19" s="65">
+      <c r="M19" s="62"/>
+      <c r="N19" s="62">
+        <v>1</v>
+      </c>
+      <c r="O19" s="62">
         <v>5</v>
       </c>
-      <c r="P19" s="65"/>
+      <c r="P19" s="62"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="H20" s="76">
+        <v>229</v>
+      </c>
+      <c r="H20" s="73">
         <v>0.33600000000000002</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="24">
+        <v>1</v>
+      </c>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62">
+        <v>1</v>
+      </c>
+      <c r="O20" s="62">
+        <v>5</v>
+      </c>
+      <c r="P20" s="62"/>
+    </row>
+    <row r="21" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="74">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="I21" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="71"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71">
+        <v>1</v>
+      </c>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72">
+        <v>1</v>
+      </c>
+      <c r="O21" s="72">
+        <v>5</v>
+      </c>
+      <c r="P21" s="72"/>
+    </row>
+    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="24">
-        <v>1</v>
-      </c>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65">
-        <v>1</v>
-      </c>
-      <c r="O20" s="65">
+      <c r="D22" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="77">
+        <v>1</v>
+      </c>
+      <c r="I22" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="79"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="79">
+        <v>1</v>
+      </c>
+      <c r="M22" s="81">
+        <v>1</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59">
+        <v>4.5844447190612616</v>
+      </c>
+      <c r="P22" s="59"/>
+    </row>
+    <row r="23" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="69">
+        <v>1E-3</v>
+      </c>
+      <c r="I23" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="J23" s="71"/>
+      <c r="L23" s="71">
+        <v>1</v>
+      </c>
+      <c r="M23" s="72">
+        <v>1</v>
+      </c>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72">
         <v>5</v>
       </c>
-      <c r="P20" s="65"/>
-    </row>
-    <row r="21" spans="1:16" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="H21" s="77">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="74">
-        <v>1</v>
-      </c>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75">
-        <v>1</v>
-      </c>
-      <c r="O21" s="75">
-        <v>5</v>
-      </c>
-      <c r="P21" s="75"/>
-    </row>
-    <row r="22" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="80">
-        <v>1</v>
-      </c>
-      <c r="I22" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="82">
-        <v>1</v>
-      </c>
-      <c r="M22" s="84">
-        <v>1</v>
-      </c>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62">
-        <v>4.5844447190612616</v>
-      </c>
-      <c r="P22" s="62"/>
-    </row>
-    <row r="23" spans="1:16" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="72">
-        <v>1E-3</v>
-      </c>
-      <c r="I23" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="J23" s="74"/>
-      <c r="L23" s="74">
-        <v>1</v>
-      </c>
-      <c r="M23" s="75">
-        <v>1</v>
-      </c>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75">
-        <v>5</v>
-      </c>
-      <c r="P23" s="75"/>
+      <c r="P23" s="72"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="L24" s="9">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8">
-        <v>5</v>
-      </c>
+      <c r="B24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="J24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="C25" t="s">
-        <v>316</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="L25" s="9">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8">
-        <v>5</v>
-      </c>
+      <c r="B25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="J25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>321</v>
-      </c>
+      <c r="B26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="J26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3420,19 +3276,19 @@
           <x14:formula1>
             <xm:f>Lookup!$F$2:$F$45</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>G2:G23 G27:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6B5B2B4-27BF-47FC-86CA-3CF8B8BF8EB9}">
           <x14:formula1>
             <xm:f>Lookup!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E243</xm:sqref>
+          <xm:sqref>E2:E23 E27:E243</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF4159DA-F3D5-4A4C-9909-888F1A97D44A}">
           <x14:formula1>
             <xm:f>Lookup!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F11:F342 F2:F9</xm:sqref>
+          <xm:sqref>F2:F9 F11:F23 F27:F342</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3445,137 +3301,149 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.08984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="81" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="88" t="str">
+        <f>_xlfn.CONCAT("StartYear", 2020)</f>
+        <v>StartYear2020</v>
+      </c>
+      <c r="D1" s="88" t="str">
+        <f t="shared" ref="D1:E1" si="0">_xlfn.CONCAT("StartYear", 2020)</f>
+        <v>StartYear2020</v>
+      </c>
+      <c r="E1" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>StartYear2020</v>
+      </c>
+      <c r="F1" s="88" t="str">
+        <f>_xlfn.CONCAT("StartYear", 2025)</f>
+        <v>StartYear2025</v>
+      </c>
+      <c r="G1" s="88" t="str">
+        <f t="shared" ref="G1:H1" si="1">_xlfn.CONCAT("StartYear", 2025)</f>
+        <v>StartYear2025</v>
+      </c>
+      <c r="H1" s="89" t="str">
+        <f t="shared" si="1"/>
+        <v>StartYear2025</v>
+      </c>
+      <c r="I1" s="88" t="str">
+        <f>_xlfn.CONCAT("StartYear", 2030)</f>
+        <v>StartYear2030</v>
+      </c>
+      <c r="J1" s="88" t="str">
+        <f t="shared" ref="J1:L1" si="2">_xlfn.CONCAT("StartYear", 2030)</f>
+        <v>StartYear2030</v>
+      </c>
+      <c r="K1" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v>StartYear2030</v>
+      </c>
+      <c r="L1" s="89" t="str">
+        <f t="shared" si="2"/>
+        <v>StartYear2030</v>
+      </c>
+      <c r="M1" s="88" t="str">
+        <f>_xlfn.CONCAT("StartYear", 2035)</f>
+        <v>StartYear2035</v>
+      </c>
+      <c r="N1" s="88" t="str">
+        <f>_xlfn.CONCAT("StartYear", 2035)</f>
+        <v>StartYear2035</v>
+      </c>
+      <c r="O1" s="88" t="str">
+        <f t="shared" ref="O1:P1" si="3">_xlfn.CONCAT("StartYear", 2035)</f>
+        <v>StartYear2035</v>
+      </c>
+      <c r="P1" s="89" t="str">
+        <f t="shared" si="3"/>
+        <v>StartYear2035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="86" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP(A2,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>ANC visits</v>
-      </c>
-      <c r="C2" s="37">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <f t="shared" ref="E2:E25" si="0">SUM(C2:C2)</f>
-        <v>100</v>
-      </c>
-      <c r="F2" s="5">
-        <v>100</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23">
-        <f t="shared" ref="H2:H25" si="1">SUM(F2:F2)</f>
-        <v>100</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>100</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="23">
-        <f t="shared" ref="L2:L25" si="2">SUM(I2:K2)</f>
-        <v>100</v>
-      </c>
-      <c r="M2" s="5">
-        <v>100</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="23">
-        <f t="shared" ref="O2:O25" si="3">SUM(M2:N2)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C2" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="N2" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="P2" s="91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(A3,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Newborn care</v>
+        <v>ANC visits</v>
       </c>
       <c r="C3" s="37">
         <v>100</v>
@@ -3584,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E24" si="4">SUM(C3:C3)</f>
         <v>100</v>
       </c>
       <c r="F3" s="5">
@@ -3594,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H3:H24" si="5">SUM(F3:F3)</f>
         <v>100</v>
       </c>
       <c r="I3" s="5">
@@ -3607,27 +3475,30 @@
         <v>0</v>
       </c>
       <c r="L3" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L3:L24" si="6">SUM(I3:K3)</f>
         <v>100</v>
       </c>
       <c r="M3" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="23">
+        <f t="shared" ref="P3:P24" si="7">SUM(M3:O3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>279</v>
+        <v>54</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(A4,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Well child check &amp; growth monitoring</v>
+        <v>Newborn care</v>
       </c>
       <c r="C4" s="37">
         <v>100</v>
@@ -3636,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F4" s="5">
@@ -3646,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I4" s="5">
@@ -3659,27 +3530,30 @@
         <v>0</v>
       </c>
       <c r="L4" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M4" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(A5,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>RI 1st year</v>
+        <v>Well child check &amp; growth monitoring</v>
       </c>
       <c r="C5" s="37">
         <v>100</v>
@@ -3688,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F5" s="5">
@@ -3698,40 +3572,43 @@
         <v>0</v>
       </c>
       <c r="H5" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>100</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M5" s="5">
         <v>50</v>
       </c>
-      <c r="J5" s="5">
+      <c r="N5" s="5">
         <v>50</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M5" s="5">
-        <v>100</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(A6,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>RI 2nd year</v>
+        <v>RI 1st year</v>
       </c>
       <c r="C6" s="37">
         <v>100</v>
@@ -3740,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F6" s="5">
@@ -3750,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I6" s="5">
@@ -3763,27 +3640,30 @@
         <v>0</v>
       </c>
       <c r="L6" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M6" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(A7,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Diarrhea</v>
+        <v>RI 2nd year</v>
       </c>
       <c r="C7" s="37">
         <v>100</v>
@@ -3792,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F7" s="5">
@@ -3802,40 +3682,43 @@
         <v>0</v>
       </c>
       <c r="H7" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I7" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
       </c>
       <c r="L7" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M7" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(A8,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Parasites</v>
+        <v>Diarrhea</v>
       </c>
       <c r="C8" s="37">
         <v>100</v>
@@ -3844,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F8" s="5">
@@ -3854,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I8" s="5">
@@ -3867,27 +3750,30 @@
         <v>0</v>
       </c>
       <c r="L8" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M8" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(A9,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Treat moderate malnutrition in under-5s</v>
+        <v>Parasites</v>
       </c>
       <c r="C9" s="37">
         <v>100</v>
@@ -3896,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F9" s="5">
@@ -3906,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I9" s="5">
@@ -3919,27 +3805,30 @@
         <v>0</v>
       </c>
       <c r="L9" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M9" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(A10,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Provision of contraceptives</v>
+        <v>Treat moderate malnutrition in under-5s</v>
       </c>
       <c r="C10" s="37">
         <v>100</v>
@@ -3948,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F10" s="5">
@@ -3958,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I10" s="5">
@@ -3971,27 +3860,30 @@
         <v>0</v>
       </c>
       <c r="L10" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M10" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(A11,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Testing for HIV</v>
+        <v>Provision of contraceptives</v>
       </c>
       <c r="C11" s="37">
         <v>100</v>
@@ -4000,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F11" s="5">
@@ -4010,40 +3902,43 @@
         <v>0</v>
       </c>
       <c r="H11" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I11" s="5">
+        <v>100</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="M11" s="5">
         <v>50</v>
       </c>
-      <c r="J11" s="5">
+      <c r="N11" s="5">
         <v>50</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M11" s="5">
-        <v>100</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(A12,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Testing for malaria</v>
+        <v>Testing for HIV</v>
       </c>
       <c r="C12" s="37">
         <v>100</v>
@@ -4052,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F12" s="5">
@@ -4062,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I12" s="5">
@@ -4075,27 +3970,30 @@
         <v>0</v>
       </c>
       <c r="L12" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M12" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(A13,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Smoking cessation</v>
+        <v>Testing for malaria</v>
       </c>
       <c r="C13" s="37">
         <v>100</v>
@@ -4104,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F13" s="5">
@@ -4114,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I13" s="5">
@@ -4127,27 +4025,30 @@
         <v>0</v>
       </c>
       <c r="L13" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M13" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(A14,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Uncomplicated malaria in adults</v>
+        <v>Smoking cessation</v>
       </c>
       <c r="C14" s="37">
         <v>100</v>
@@ -4156,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F14" s="5">
@@ -4166,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I14" s="5">
@@ -4179,27 +4080,30 @@
         <v>0</v>
       </c>
       <c r="L14" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M14" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(A15,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Uncomplicated malaria in children</v>
+        <v>Uncomplicated malaria in adults</v>
       </c>
       <c r="C15" s="37">
         <v>100</v>
@@ -4208,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F15" s="5">
@@ -4218,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I15" s="5">
@@ -4231,27 +4135,30 @@
         <v>0</v>
       </c>
       <c r="L15" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M15" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>306</v>
+        <v>50</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>273</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(A16,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Hypertension routine care, ages 15-24</v>
+        <v>Uncomplicated malaria in children</v>
       </c>
       <c r="C16" s="37">
         <v>100</v>
@@ -4260,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F16" s="5">
@@ -4270,40 +4177,43 @@
         <v>0</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J16" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M16" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(A17,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Hypertension routine care, ages 25-34</v>
+        <v>Hypertension routine care, ages 15-24</v>
       </c>
       <c r="C17" s="37">
         <v>100</v>
@@ -4312,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F17" s="5">
@@ -4322,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I17" s="5">
@@ -4335,27 +4245,30 @@
         <v>0</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M17" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(A18,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Hypertension routine care, ages 35-44</v>
+        <v>Hypertension routine care, ages 25-34</v>
       </c>
       <c r="C18" s="37">
         <v>100</v>
@@ -4364,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F18" s="5">
@@ -4374,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I18" s="5">
@@ -4387,27 +4300,30 @@
         <v>0</v>
       </c>
       <c r="L18" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M18" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(A19,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Hypertension routine care, ages 45-54</v>
+        <v>Hypertension routine care, ages 35-44</v>
       </c>
       <c r="C19" s="37">
         <v>100</v>
@@ -4416,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F19" s="5">
@@ -4426,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I19" s="5">
@@ -4439,27 +4355,30 @@
         <v>0</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M19" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(A20,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Hypertension routine care, ages 55-64</v>
+        <v>Hypertension routine care, ages 45-54</v>
       </c>
       <c r="C20" s="37">
         <v>100</v>
@@ -4468,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F20" s="5">
@@ -4478,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I20" s="5">
@@ -4491,27 +4410,30 @@
         <v>0</v>
       </c>
       <c r="L20" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M20" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(A21,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Hypertension routine care, ages 65+</v>
+        <v>Hypertension routine care, ages 55-64</v>
       </c>
       <c r="C21" s="37">
         <v>100</v>
@@ -4520,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F21" s="5">
@@ -4530,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I21" s="5">
@@ -4543,27 +4465,30 @@
         <v>0</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M21" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(A22,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Record keeping</v>
+        <v>Hypertension routine care, ages 65+</v>
       </c>
       <c r="C22" s="37">
         <v>100</v>
@@ -4572,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F22" s="5">
@@ -4582,38 +4507,43 @@
         <v>0</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I22" s="5">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5">
-        <v>25</v>
-      </c>
-      <c r="K22" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
       <c r="L22" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M22" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(A23,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Disease surveillance for reportable diseases</v>
+        <v>Record keeping</v>
       </c>
       <c r="C23" s="37">
         <v>100</v>
@@ -4622,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F23" s="5">
@@ -4632,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I23" s="5">
@@ -4641,29 +4571,34 @@
       <c r="J23" s="5">
         <v>25</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
       <c r="L23" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M23" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="O23" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(A24,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Overhead 1</v>
+        <v>Disease surveillance for reportable diseases</v>
       </c>
       <c r="C24" s="37">
         <v>100</v>
@@ -4672,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F24" s="5">
@@ -4682,157 +4617,115 @@
         <v>0</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I24" s="5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J24" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K24" s="5">
         <v>0</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="M24" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="O24" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(A25,TaskValues_expanded!B:C,2,FALSE)</f>
-        <v>Overhead 2</v>
-      </c>
-      <c r="C25" s="37">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>100</v>
-      </c>
-      <c r="E25" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>100</v>
-      </c>
-      <c r="H25" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>100</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="23">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="M25" s="5">
-        <v>100</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>321</v>
+        <v>50</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="23">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E23 H2:H23 L2:L23 O2:O23">
+  <conditionalFormatting sqref="E3:E24 H3:H24 L3:L24 P3:P24">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="notEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:O1048576" xr:uid="{4D928B7D-093F-4B6E-8267-5D66ED1FF77C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:P1048576" xr:uid="{4D928B7D-093F-4B6E-8267-5D66ED1FF77C}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5ACBFE4D-B914-4C9B-9679-B01EF108D8C0}">
+          <x14:formula1>
+            <xm:f>Lookup!$L$2:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:D2 F2:G2 I2:K2 M2:O2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
   <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
     <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" s="88" t="s">
-        <v>262</v>
+      <c r="A1" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D2" s="22">
         <v>3</v>
@@ -4846,140 +4739,151 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="D3" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2029</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D4" s="22">
         <v>4</v>
       </c>
       <c r="E4" s="5">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D5" s="22">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>2020</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2034</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="D6" s="22">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E6" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2034</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D7" s="22">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="E7" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2029</v>
-      </c>
+        <v>2035</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D8" s="22">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>2020</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2034</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="D9" s="22">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="22">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
         <v>2035</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>321</v>
-      </c>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4987,12 +4891,24 @@
       <formula1>2020</formula1>
       <formula2>2100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{BA98C55F-F014-4330-9EA6-6C245C37609F}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{BA98C55F-F014-4330-9EA6-6C245C37609F}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E93D8D1-F1CA-4B53-9614-FFCB4AD52B08}">
+          <x14:formula1>
+            <xm:f>Lookup!$L$2:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5013,13 +4929,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -5027,10 +4943,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -5038,10 +4954,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -5049,10 +4965,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -5060,10 +4976,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -5071,10 +4987,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5082,10 +4998,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -5093,10 +5009,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -5104,10 +5020,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -5115,10 +5031,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5128,10 +5044,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
-  <dimension ref="B1:J142"/>
+  <dimension ref="B1:L142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5141,40 +5057,44 @@
     <col min="7" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.54296875" customWidth="1"/>
     <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -5188,16 +5108,19 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -5211,16 +5134,19 @@
       <c r="J3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -5234,16 +5160,19 @@
       <c r="J4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -5257,16 +5186,19 @@
       <c r="J5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -5281,13 +5213,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -5302,13 +5234,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -5323,13 +5255,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -5344,12 +5276,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -5364,12 +5296,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -5384,12 +5316,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -5404,12 +5336,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -5424,12 +5356,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -5444,12 +5376,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -5464,9 +5396,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F16" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -5483,7 +5415,7 @@
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F17" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -5500,7 +5432,7 @@
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F18" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -5517,7 +5449,7 @@
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F19" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -5534,7 +5466,7 @@
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F20" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -5551,7 +5483,7 @@
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F21" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -5568,7 +5500,7 @@
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5585,7 +5517,7 @@
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -5602,7 +5534,7 @@
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -5619,7 +5551,7 @@
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -5633,7 +5565,7 @@
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F26" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -5647,7 +5579,7 @@
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F27" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -5661,7 +5593,7 @@
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F28" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -5675,7 +5607,7 @@
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F29" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -5689,7 +5621,7 @@
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -5703,7 +5635,7 @@
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -5720,7 +5652,7 @@
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F32" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -5737,7 +5669,7 @@
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F33" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -5754,7 +5686,7 @@
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F34" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -5771,7 +5703,7 @@
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F35" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -5788,7 +5720,7 @@
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F36" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -5805,7 +5737,7 @@
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F37" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -5822,7 +5754,7 @@
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F38" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -5839,7 +5771,7 @@
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F39" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -5856,7 +5788,7 @@
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F40" s="4" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -5873,7 +5805,7 @@
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F41" s="4" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -5890,7 +5822,7 @@
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F42" s="4" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -5907,7 +5839,7 @@
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F43" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -5924,7 +5856,7 @@
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F44" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -5935,7 +5867,7 @@
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F45" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -6237,70 +6169,66 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="74.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="90" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:13" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="K1" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="M1" s="91" t="s">
-        <v>16</v>
-      </c>
+      <c r="L1" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B2" s="27">
         <v>48</v>
@@ -6324,24 +6252,21 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="M2" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B3" s="27">
         <v>48</v>
@@ -6365,21 +6290,21 @@
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B4" s="27">
         <v>48</v>
@@ -6403,54 +6328,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="27">
-        <v>48</v>
-      </c>
-      <c r="C5" s="27">
-        <v>32</v>
-      </c>
-      <c r="D5" s="27">
-        <v>5000</v>
-      </c>
-      <c r="E5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -6501,11 +6388,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D5" xr:uid="{51E01DD3-1F4F-4ECB-945C-BF7AC154B4D2}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D4" xr:uid="{51E01DD3-1F4F-4ECB-945C-BF7AC154B4D2}">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5 I2:L5" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:L4 A2:A4" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -6519,7 +6406,7 @@
           <x14:formula1>
             <xm:f>'Read Me'!$P$3:$P$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:H5</xm:sqref>
+          <xm:sqref>E2:H4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6534,7 +6421,7 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6552,42 +6439,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.5">
       <c r="A1" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>206</v>
-      </c>
       <c r="H1" s="32" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -6604,16 +6491,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -6630,16 +6517,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5">
         <v>15</v>
@@ -6656,16 +6543,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="5">
         <v>20</v>
@@ -6682,16 +6569,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5">
         <v>25</v>
@@ -6708,16 +6595,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="5">
         <v>30</v>
@@ -6734,16 +6621,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5">
         <v>35</v>
@@ -6760,16 +6647,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="5">
         <v>40</v>
@@ -6786,16 +6673,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5">
         <v>45</v>
@@ -6812,16 +6699,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -6838,16 +6725,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -6864,16 +6751,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -6890,16 +6777,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="5">
         <v>5</v>
@@ -6916,16 +6803,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="5">
         <v>10</v>
@@ -6942,16 +6829,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="5">
         <v>15</v>
@@ -6968,16 +6855,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="5">
         <v>20</v>
@@ -6994,16 +6881,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="5">
         <v>35</v>
@@ -7020,16 +6907,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="5">
         <v>50</v>
@@ -7046,16 +6933,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="5">
         <v>60</v>
@@ -7072,16 +6959,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="5">
         <v>75</v>
@@ -7098,16 +6985,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -7124,16 +7011,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -7150,16 +7037,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="5">
         <v>5</v>
@@ -7176,16 +7063,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="5">
         <v>10</v>
@@ -7202,16 +7089,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="5">
         <v>15</v>
@@ -7228,16 +7115,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="5">
         <v>20</v>
@@ -7254,16 +7141,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="5">
         <v>35</v>
@@ -7280,16 +7167,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="5">
         <v>50</v>
@@ -7306,16 +7193,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="5">
         <v>60</v>
@@ -7332,16 +7219,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="5">
         <v>75</v>
@@ -7398,7 +7285,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D102"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7410,21 +7297,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="26">
         <v>1814240</v>
@@ -8871,21 +8758,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="26">
         <v>26069</v>
@@ -10330,18 +10217,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="18">
         <v>0.12</v>
@@ -10350,7 +10237,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="18">
         <v>0.12</v>
@@ -10359,7 +10246,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="18">
         <v>0.1</v>
@@ -10368,7 +10255,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="18">
         <v>0.13500000000000001</v>
@@ -10379,7 +10266,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="18">
         <v>0.22</v>
@@ -10390,7 +10277,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="18">
         <v>0.1</v>
@@ -10401,7 +10288,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="18">
         <v>0.25</v>
@@ -10410,7 +10297,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="18">
         <v>0.1</v>
@@ -10419,7 +10306,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="18">
         <f>(32-28)/32</f>
@@ -10444,10 +10331,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10457,26 +10344,23 @@
     <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="29">
         <v>0.16488222698072805</v>
@@ -10488,9 +10372,9 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="29">
         <v>6.852248394004283E-2</v>
@@ -10502,9 +10386,9 @@
         <v>6.4084654318813022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="29">
         <v>1.9271948608137045E-2</v>
@@ -10516,9 +10400,9 @@
         <v>6.0600247743600254E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="29">
         <v>1.9271948608137045E-2</v>
@@ -10530,9 +10414,9 @@
         <v>6.0703878213611638E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="29">
         <v>2.9978586723768741E-2</v>
@@ -10544,9 +10428,9 @@
         <v>6.4051402944234115E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="29">
         <v>2.9978586723768744E-2</v>
@@ -10558,9 +10442,9 @@
         <v>7.8032799832215824E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="29">
         <v>3.8543897216274096E-2</v>
@@ -10572,9 +10456,9 @@
         <v>9.129394265165322E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="29">
         <v>6.852248394004283E-2</v>
@@ -10586,9 +10470,9 @@
         <v>7.2674867820140321E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="29">
         <v>0.10706638115631693</v>
@@ -10600,9 +10484,9 @@
         <v>9.393164701025386E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="29">
         <v>0.15417558886509636</v>
@@ -10614,9 +10498,9 @@
         <v>0.1277403545528342</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="29">
         <v>0.14561027837259102</v>
@@ -10628,9 +10512,9 @@
         <v>0.13255239757366111</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="29">
         <v>0.15417558886509636</v>
@@ -10653,10 +10537,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10669,42 +10553,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5">
         <v>-7</v>
@@ -10723,13 +10607,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5">
         <v>4</v>
@@ -10748,13 +10632,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5">
         <v>15</v>
@@ -10767,13 +10651,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
@@ -10790,13 +10674,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -10811,10 +10695,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -10830,10 +10714,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -10849,10 +10733,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -10865,11 +10749,6 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>321</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10883,448 +10762,449 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
     <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
-    <col min="15" max="16" width="15.1796875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="27.54296875" customWidth="1"/>
+    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="16" customFormat="1" ht="87.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="L1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="N1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="O1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="P1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="Q1" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="C2" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="E2" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="60">
-        <v>1</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="L2" s="61">
-        <v>1</v>
-      </c>
-      <c r="M2" s="62">
+      <c r="H2" s="57">
+        <v>1</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="L2" s="58">
+        <v>1</v>
+      </c>
+      <c r="M2" s="59">
         <v>4</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62">
+      <c r="N2" s="59"/>
+      <c r="O2" s="59">
         <v>10</v>
       </c>
-      <c r="P2" s="62"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="63">
-        <v>1</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>71</v>
+      <c r="H3" s="60">
+        <v>1</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>70</v>
       </c>
       <c r="J3" s="24"/>
       <c r="L3" s="24">
         <v>1</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="62">
         <v>2</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65">
+      <c r="N3" s="62"/>
+      <c r="O3" s="62">
         <v>30</v>
       </c>
-      <c r="P3" s="65"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="63">
+        <v>55</v>
+      </c>
+      <c r="H4" s="60">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="24"/>
-      <c r="K4" s="64"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="24">
         <v>1</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="62">
         <v>3</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="66">
+      <c r="N4" s="62"/>
+      <c r="O4" s="63">
         <v>5</v>
       </c>
-      <c r="P4" s="66"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="60">
+        <v>1</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="24">
+        <v>1</v>
+      </c>
+      <c r="M5" s="62">
+        <v>4</v>
+      </c>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62">
+        <v>5</v>
+      </c>
+      <c r="P5" s="62"/>
+    </row>
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="63">
-        <v>1</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="24">
-        <v>1</v>
-      </c>
-      <c r="M5" s="65">
-        <v>4</v>
-      </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65">
+      <c r="D6" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="69">
+        <v>1</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71">
+        <v>1</v>
+      </c>
+      <c r="M6" s="72">
+        <v>1</v>
+      </c>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72">
         <v>5</v>
       </c>
-      <c r="P5" s="65"/>
-    </row>
-    <row r="6" spans="1:17" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="72">
-        <v>1</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74">
-        <v>1</v>
-      </c>
-      <c r="M6" s="75">
-        <v>1</v>
-      </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75">
-        <v>5</v>
-      </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="40">
+        <v>55</v>
+      </c>
+      <c r="H7" s="39">
         <v>3.0680000000000001</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43">
+      <c r="K7" s="41"/>
+      <c r="L7" s="42">
         <v>0.98</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="40">
         <v>1</v>
       </c>
       <c r="N7" s="8"/>
-      <c r="O7" s="41">
+      <c r="O7" s="40">
         <v>5</v>
       </c>
-      <c r="P7" s="41"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="40">
+        <v>55</v>
+      </c>
+      <c r="H8" s="39">
         <v>0.46090000000000003</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43">
+      <c r="K8" s="41"/>
+      <c r="L8" s="42">
         <v>0.98</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="40">
         <v>2</v>
       </c>
       <c r="N8" s="8"/>
-      <c r="O8" s="41">
+      <c r="O8" s="40">
         <v>5</v>
       </c>
-      <c r="P8" s="41"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="40">
+        <v>55</v>
+      </c>
+      <c r="H9" s="39">
         <v>0.36799999999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43">
+      <c r="K9" s="41"/>
+      <c r="L9" s="42">
         <v>0.98</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="40">
         <v>2</v>
       </c>
       <c r="N9" s="8"/>
-      <c r="O9" s="41">
+      <c r="O9" s="40">
         <v>5</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="40">
+        <v>78</v>
+      </c>
+      <c r="H10" s="39">
         <v>0.27813253012048195</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>114</v>
+      <c r="I10" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="9">
         <v>1</v>
       </c>
@@ -11337,131 +11217,131 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="60">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="57">
         <v>2.0927000000000001E-4</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="J11" s="61">
+      <c r="I11" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="58">
         <v>4</v>
       </c>
-      <c r="K11" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="L11" s="61">
+      <c r="K11" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="58">
         <v>0.90986310592664843</v>
       </c>
-      <c r="M11" s="62">
-        <v>1</v>
-      </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62">
+      <c r="M11" s="59">
+        <v>1</v>
+      </c>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59">
         <v>5</v>
       </c>
-      <c r="P11" s="62"/>
+      <c r="P11" s="59"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="76">
+        <v>70</v>
+      </c>
+      <c r="H12" s="73">
         <v>3.6788000000000001E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="24">
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="L12" s="24">
         <v>1</v>
       </c>
-      <c r="M12" s="65">
-        <v>1</v>
-      </c>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65">
+      <c r="M12" s="62">
+        <v>1</v>
+      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62">
         <v>5</v>
       </c>
-      <c r="P12" s="65"/>
+      <c r="P12" s="62"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="40">
+        <v>165</v>
+      </c>
+      <c r="H13" s="39">
         <v>4.7E-2</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>162</v>
+      <c r="I13" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="J13" s="9">
         <v>0.05</v>
       </c>
-      <c r="K13" s="42" t="s">
-        <v>292</v>
+      <c r="K13" s="41" t="s">
+        <v>277</v>
       </c>
       <c r="L13" s="9">
         <v>1</v>
@@ -11475,94 +11355,100 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="B14" s="56" t="s">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="58" t="s">
+      <c r="B14" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="60">
+      <c r="G14" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="57">
         <v>3.3109200000000005E-2</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="61">
+      <c r="I14" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="58">
         <v>0.87556301899925537</v>
       </c>
-      <c r="M14" s="62">
-        <v>1</v>
-      </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62">
+      <c r="M14" s="59">
+        <v>1</v>
+      </c>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59">
         <v>10</v>
       </c>
-      <c r="P14" s="62"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="63">
+        <v>69</v>
+      </c>
+      <c r="H15" s="60">
         <v>3.3109200000000005E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="24"/>
-      <c r="K15" s="64"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="24">
         <v>0.87556301899925537</v>
       </c>
-      <c r="M15" s="65">
-        <v>1</v>
-      </c>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65">
+      <c r="M15" s="62">
+        <v>1</v>
+      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62">
         <v>10</v>
       </c>
-      <c r="P15" s="65"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>321</v>
-      </c>
+      <c r="B16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="J16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11574,19 +11460,19 @@
           <x14:formula1>
             <xm:f>Lookup!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F9 F11:F332</xm:sqref>
+          <xm:sqref>F2:F9 F11:F15 F17:F332</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{925A0EEB-9365-4265-BCAA-8FCF4189DF40}">
           <x14:formula1>
             <xm:f>Lookup!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E233</xm:sqref>
+          <xm:sqref>E2:E15 E17:E233</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C319048F-06A6-4121-9C15-D4FC96370093}">
           <x14:formula1>
             <xm:f>Lookup!$F$2:$F$45</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>G2:G15 G17:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B8F32DB-1D5E-402A-B88A-5948B528E089}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEDF99A-E92D-48A0-8373-C9503C21A9E8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="5" activeTab="11" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="1425" yWindow="-18705" windowWidth="38100" windowHeight="10560" tabRatio="830" firstSheet="1" activeTab="11" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -24,12 +24,13 @@
     <sheet name="TaskValues_basic" sheetId="83" r:id="rId9"/>
     <sheet name="TaskValues_expanded" sheetId="109" r:id="rId10"/>
     <sheet name="Cadres" sheetId="97" r:id="rId11"/>
-    <sheet name="CadreRoles" sheetId="108" r:id="rId12"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId13"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId14"/>
+    <sheet name="CadreRoles" sheetId="111" r:id="rId12"/>
+    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId13"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId14"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="319">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -4677,14 +4678,250 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266884E-25A4-43DE-83DF-867907ACC671}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="22">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="22">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="22">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="22">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="22">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="22">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="22">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="22">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="22">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
+      <formula1>0</formula1>
+      <formula2>40</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576" xr:uid="{4809985A-DBDE-4FF4-B726-C31CCA271C03}">
+      <formula1>2020</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50580A8F-BA8F-47FA-A58A-5D6991C9C0F0}">
+          <x14:formula1>
+            <xm:f>Lookup!$L$2:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4912,7 +5149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5042,7 +5279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
@@ -6169,12 +6406,12 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
@@ -6319,13 +6556,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>256</v>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEDF99A-E92D-48A0-8373-C9503C21A9E8}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D644CFF-4A1D-4FD1-AE44-D50D53B1EDB9}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="-18705" windowWidth="38100" windowHeight="10560" tabRatio="830" firstSheet="1" activeTab="11" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="4" activeTab="11" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="320">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1127,6 +1127,9 @@
   </si>
   <si>
     <t>OverheadHoursPerWeek</t>
+  </si>
+  <si>
+    <t>Family health professional</t>
   </si>
 </sst>
 </file>
@@ -3304,7 +3307,7 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
@@ -4685,14 +4688,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
@@ -4746,7 +4749,7 @@
         <v>306</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D3" s="22">
         <v>5</v>
@@ -4764,7 +4767,7 @@
         <v>307</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
@@ -4802,7 +4805,7 @@
         <v>306</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D6" s="22">
         <v>5</v>
@@ -4820,7 +4823,7 @@
         <v>307</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D7" s="22">
         <v>5</v>
@@ -4858,7 +4861,7 @@
         <v>306</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D9" s="22">
         <v>5</v>
@@ -4876,7 +4879,7 @@
         <v>307</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D10" s="22">
         <v>5</v>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -8,39 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D644CFF-4A1D-4FD1-AE44-D50D53B1EDB9}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{759DB3FD-D57C-4A43-97B2-53A3A60D15C6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="4" activeTab="11" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="6390" yWindow="-21030" windowWidth="32880" windowHeight="18390" tabRatio="830" activeTab="12" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="53" r:id="rId2"/>
     <sheet name="PopValues" sheetId="102" r:id="rId3"/>
-    <sheet name="TotalPop" sheetId="54" r:id="rId4"/>
-    <sheet name="RuralPop" sheetId="110" r:id="rId5"/>
-    <sheet name="StochasticParameters" sheetId="72" r:id="rId6"/>
-    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId7"/>
-    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId8"/>
-    <sheet name="TaskValues_basic" sheetId="83" r:id="rId9"/>
-    <sheet name="TaskValues_expanded" sheetId="109" r:id="rId10"/>
-    <sheet name="Cadres" sheetId="97" r:id="rId11"/>
-    <sheet name="CadreRoles" sheetId="111" r:id="rId12"/>
-    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId13"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId14"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId15"/>
+    <sheet name="ChangeRateLimits" sheetId="112" r:id="rId4"/>
+    <sheet name="TotalPop" sheetId="54" r:id="rId5"/>
+    <sheet name="RuralPop" sheetId="110" r:id="rId6"/>
+    <sheet name="StochasticParameters" sheetId="72" r:id="rId7"/>
+    <sheet name="SeasonalityCurves" sheetId="58" r:id="rId8"/>
+    <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId9"/>
+    <sheet name="TaskValues_basic" sheetId="83" r:id="rId10"/>
+    <sheet name="TaskValues_expanded" sheetId="109" r:id="rId11"/>
+    <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId12"/>
+    <sheet name="CadreRoles" sheetId="111" r:id="rId13"/>
+    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId14"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId15"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_expanded!$B$1:$P$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TaskValues_expanded!$B$1:$P$22</definedName>
+    <definedName name="hours" localSheetId="3">#REF!</definedName>
     <definedName name="hours">#REF!</definedName>
+    <definedName name="select_pop" localSheetId="3">#REF!</definedName>
     <definedName name="select_pop">#REF!</definedName>
-    <definedName name="total_pop" localSheetId="4">RuralPop!#REF!</definedName>
-    <definedName name="total_pop" localSheetId="3">TotalPop!#REF!</definedName>
+    <definedName name="total_pop" localSheetId="3">#REF!</definedName>
+    <definedName name="total_pop" localSheetId="5">RuralPop!#REF!</definedName>
+    <definedName name="total_pop" localSheetId="4">TotalPop!#REF!</definedName>
     <definedName name="total_pop">#REF!</definedName>
-    <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2" localSheetId="3">[1]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="weeks" localSheetId="3">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -169,8 +176,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Han (AgileOne)</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{15E9D0E6-7E00-496C-82F5-4E3CFF13E51F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The category of rates the limits apply to</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{01EB944C-05CF-4CC3-85DD-3C9FF8700F6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Values are ratio to baseline rates
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="324">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1042,9 +1107,6 @@
     <t>Annualized DHS rate</t>
   </si>
   <si>
-    <t>Cadres</t>
-  </si>
-  <si>
     <t>Hyper1524</t>
   </si>
   <si>
@@ -1117,19 +1179,34 @@
     <t>DESC_col</t>
   </si>
   <si>
-    <t>Format update date: 5/25/2023.</t>
-  </si>
-  <si>
     <t>Version 2.1 of the model_inputs_demo.xlsx file.</t>
   </si>
   <si>
-    <t>Works with code versions up through at least 2.0? Not compatible with pacehrh versions 1.0.6 and earlier.</t>
-  </si>
-  <si>
     <t>OverheadHoursPerWeek</t>
   </si>
   <si>
     <t>Family health professional</t>
+  </si>
+  <si>
+    <t>TaskAllocationByCadre</t>
+  </si>
+  <si>
+    <t>RateCategory</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>Works with code versions up through at least 1.0.7.  Not compatible with pacehrh versions 1.0.6 and earlier.</t>
+  </si>
+  <si>
+    <t>Format update date: 6/2/2023.</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1221,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,6 +1343,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1317,7 +1407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1425,8 +1515,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1440,8 +1581,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1570,9 +1712,27 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="9" xr:uid="{F410D60A-1DC9-43C7-979B-E919CC121327}"/>
     <cellStyle name="Data" xfId="6" xr:uid="{210BAF51-33D3-495B-9156-CBDCF2D0412F}"/>
     <cellStyle name="Header" xfId="5" xr:uid="{3562FB01-884A-4428-8FB5-9312164FC171}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,6 +1820,149 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="To Do or Upgrade"/>
+      <sheetName val="Inputs Assump"/>
+      <sheetName val="C FTE Equiv"/>
+      <sheetName val="C Tot Hrs by Cat"/>
+      <sheetName val="C Variance"/>
+      <sheetName val="Time Summary"/>
+      <sheetName val="C Hrs by Category (3)"/>
+      <sheetName val="C Hrs by Category (2)"/>
+      <sheetName val="C Ratio to Baseline"/>
+      <sheetName val="Pie 2020"/>
+      <sheetName val="Calculations"/>
+      <sheetName val="Demographics_InCalc"/>
+      <sheetName val="Births"/>
+      <sheetName val="Mortality"/>
+      <sheetName val="FH.MC"/>
+      <sheetName val="FH.FP"/>
+      <sheetName val="FH.Im"/>
+      <sheetName val="FH.N"/>
+      <sheetName val="DPC"/>
+      <sheetName val="Other"/>
+      <sheetName val="DATA"/>
+      <sheetName val="Ssn Malaria"/>
+      <sheetName val="Ssn Nutr"/>
+      <sheetName val="Ssn Measles"/>
+      <sheetName val="Demographics_Total"/>
+      <sheetName val="Prevalences"/>
+      <sheetName val="Work time"/>
+      <sheetName val="Sheet21"/>
+      <sheetName val="Services summary"/>
+      <sheetName val="Services ref"/>
+      <sheetName val="Coverage impacts"/>
+      <sheetName val="Pop M"/>
+      <sheetName val="Pop F"/>
+      <sheetName val="TB Incidence"/>
+      <sheetName val="Malaria Incid"/>
+      <sheetName val="C Fertility"/>
+      <sheetName val="fertility"/>
+      <sheetName val="FP mod"/>
+      <sheetName val="unmet need"/>
+      <sheetName val="HIV Prev"/>
+      <sheetName val="HIV Incid"/>
+      <sheetName val="mort infant"/>
+      <sheetName val="mort 1-5"/>
+      <sheetName val="mort 5-9"/>
+      <sheetName val="mort 10-14"/>
+      <sheetName val="mort 15-19"/>
+      <sheetName val="mort 20-24"/>
+      <sheetName val="mort adult f"/>
+      <sheetName val="mort adult m"/>
+      <sheetName val="Staffing Ratios"/>
+      <sheetName val="fertility 15-19"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Ratio max rural</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="V4">
+            <v>105.34416988791497</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24">
+        <row r="3">
+          <cell r="CZ3">
+            <v>115103531.71799999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39">
+        <row r="77">
+          <cell r="BC77">
+            <v>1.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="40">
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Ethiopia</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2149,19 +2452,19 @@
   <dimension ref="B2:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P3" s="28" t="b">
         <v>1</v>
@@ -2175,7 +2478,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P4" s="28" t="b">
         <v>0</v>
@@ -2223,15 +2526,740 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9F8961-463F-4540-AE96-5FF353928741}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="57">
+        <v>1</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="L2" s="58">
+        <v>1</v>
+      </c>
+      <c r="M2" s="59">
+        <v>4</v>
+      </c>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59">
+        <v>10</v>
+      </c>
+      <c r="P2" s="59"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="60">
+        <v>1</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="L3" s="24">
+        <v>1</v>
+      </c>
+      <c r="M3" s="62">
+        <v>2</v>
+      </c>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62">
+        <v>30</v>
+      </c>
+      <c r="P3" s="62"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="60">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="24">
+        <v>1</v>
+      </c>
+      <c r="M4" s="62">
+        <v>3</v>
+      </c>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63">
+        <v>5</v>
+      </c>
+      <c r="P4" s="63"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="60">
+        <v>1</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="24">
+        <v>1</v>
+      </c>
+      <c r="M5" s="62">
+        <v>4</v>
+      </c>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62">
+        <v>5</v>
+      </c>
+      <c r="P5" s="62"/>
+    </row>
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="69">
+        <v>1</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71">
+        <v>1</v>
+      </c>
+      <c r="M6" s="72">
+        <v>1</v>
+      </c>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72">
+        <v>5</v>
+      </c>
+      <c r="P6" s="72"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="39">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="M7" s="40">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="40">
+        <v>5</v>
+      </c>
+      <c r="P7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="39">
+        <v>0.46090000000000003</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="M8" s="40">
+        <v>2</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="40">
+        <v>5</v>
+      </c>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="39">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="M9" s="40">
+        <v>2</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="40">
+        <v>5</v>
+      </c>
+      <c r="P9" s="40"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="39">
+        <v>0.27813253012048195</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8">
+        <v>4</v>
+      </c>
+      <c r="O10" s="8">
+        <v>5</v>
+      </c>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="57">
+        <v>2.0927000000000001E-4</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="58">
+        <v>4</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="L11" s="58">
+        <v>0.90986310592664843</v>
+      </c>
+      <c r="M11" s="59">
+        <v>1</v>
+      </c>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59">
+        <v>5</v>
+      </c>
+      <c r="P11" s="59"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="73">
+        <v>3.6788000000000001E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="24">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>276</v>
+      </c>
+      <c r="L12" s="24">
+        <v>1</v>
+      </c>
+      <c r="M12" s="62">
+        <v>1</v>
+      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62">
+        <v>5</v>
+      </c>
+      <c r="P12" s="62"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="39">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>2</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8">
+        <v>10</v>
+      </c>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="57">
+        <v>3.3109200000000005E-2</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="58">
+        <v>0.87556301899925537</v>
+      </c>
+      <c r="M14" s="59">
+        <v>1</v>
+      </c>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59">
+        <v>10</v>
+      </c>
+      <c r="P14" s="59"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="60">
+        <v>3.3109200000000005E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="24"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="24">
+        <v>0.87556301899925537</v>
+      </c>
+      <c r="M15" s="62">
+        <v>1</v>
+      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62">
+        <v>10</v>
+      </c>
+      <c r="P15" s="62"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="J16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E3EE0E1-6392-4754-984C-80D83AFED092}">
+          <x14:formula1>
+            <xm:f>Lookup!$D$2:$D$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F9 F11:F15 F17:F332</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{925A0EEB-9365-4265-BCAA-8FCF4189DF40}">
+          <x14:formula1>
+            <xm:f>Lookup!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E15 E17:E233</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C319048F-06A6-4121-9C15-D4FC96370093}">
+          <x14:formula1>
+            <xm:f>Lookup!$F$2:$F$45</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G15 G17:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE02F26-882B-45E6-A19E-6B7248DFCF45}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2780,7 +3808,7 @@
         <v>281</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -2910,7 +3938,7 @@
         <v>287</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
         <v>249</v>
@@ -2952,7 +3980,7 @@
         <v>287</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
         <v>250</v>
@@ -2994,7 +4022,7 @@
         <v>287</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
         <v>251</v>
@@ -3036,7 +4064,7 @@
         <v>287</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C19" t="s">
         <v>252</v>
@@ -3078,7 +4106,7 @@
         <v>287</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
         <v>253</v>
@@ -3120,7 +4148,7 @@
         <v>287</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>254</v>
@@ -3300,16 +4328,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04D6E33-24B9-46AB-8C0C-B9AE70A8D6D8}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3317,7 +4345,7 @@
     <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.08984375" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
@@ -3329,10 +4357,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>313</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>314</v>
       </c>
       <c r="C1" s="88" t="str">
         <f>_xlfn.CONCAT("StartYear", 2020)</f>
@@ -3399,43 +4427,43 @@
         <v>37</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K2" s="90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="90" t="s">
+        <v>305</v>
+      </c>
+      <c r="N2" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="N2" s="90" t="s">
-        <v>307</v>
-      </c>
       <c r="O2" s="90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P2" s="91" t="s">
         <v>34</v>
@@ -4048,7 +5076,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(A14,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -4213,7 +5241,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(A17,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -4268,7 +5296,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(A18,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -4323,7 +5351,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(A19,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -4378,7 +5406,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(A20,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -4433,7 +5461,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(A21,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -4488,7 +5516,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(A22,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -4680,15 +5708,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266884E-25A4-43DE-83DF-867907ACC671}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4703,16 +5731,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="C1" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="82" t="s">
-        <v>305</v>
-      </c>
       <c r="D1" s="82" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>247</v>
@@ -4723,13 +5751,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D2" s="22">
         <v>5</v>
@@ -4743,13 +5771,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="22">
         <v>5</v>
@@ -4761,13 +5789,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
@@ -4782,10 +5810,10 @@
         <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="D5" s="22">
         <v>5</v>
@@ -4802,10 +5830,10 @@
         <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D6" s="22">
         <v>5</v>
@@ -4820,10 +5848,10 @@
         <v>258</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D7" s="22">
         <v>5</v>
@@ -4835,13 +5863,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" s="22">
         <v>5</v>
@@ -4855,13 +5883,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D9" s="22">
         <v>5</v>
@@ -4873,13 +5901,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D10" s="22">
         <v>5</v>
@@ -4916,7 +5944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -4939,16 +5967,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="C1" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="82" t="s">
-        <v>305</v>
-      </c>
       <c r="D1" s="82" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>247</v>
@@ -4959,13 +5987,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D2" s="22">
         <v>3</v>
@@ -4979,13 +6007,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="22">
         <v>4</v>
@@ -4997,13 +6025,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="22">
         <v>4</v>
@@ -5018,10 +6046,10 @@
         <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="D5" s="22">
         <v>4.5</v>
@@ -5038,10 +6066,10 @@
         <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" s="22">
         <v>5.5</v>
@@ -5056,10 +6084,10 @@
         <v>258</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="22">
         <v>5.5</v>
@@ -5071,13 +6099,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" s="22">
         <v>3</v>
@@ -5091,13 +6119,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" s="22">
         <v>4</v>
@@ -5109,13 +6137,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D10" s="22">
         <v>4</v>
@@ -5152,7 +6180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -5282,12 +6310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5323,7 +6351,7 @@
         <v>176</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
@@ -5349,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -5375,7 +6403,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -5401,7 +6429,7 @@
         <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -5427,7 +6455,7 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -6409,7 +7437,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6424,7 +7452,7 @@
     <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
@@ -6468,7 +7496,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="27">
         <v>48</v>
@@ -6495,13 +7523,13 @@
         <v>256</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>143</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -6533,18 +7561,18 @@
         <v>257</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>143</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" s="27">
         <v>48</v>
@@ -6571,13 +7599,13 @@
         <v>256</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>143</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -6632,7 +7660,7 @@
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:L4 A2:A4" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 I2:L4" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -7518,6 +8546,73 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5EA865-0CD0-41A0-8D11-2E731D20BD4F}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="96">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="97">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="98">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="99">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="101">
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="102">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F96BBDE-B309-4A5A-8E01-1740FFC9B513}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -7525,7 +8620,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8978,7 +10073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F290AA6-1CD3-431F-9AA8-6DFC42821499}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10439,7 +11534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDCD1CB-9612-4FAF-ACD4-A7C81D8F794C}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10566,7 +11661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1975A502-7E7F-4553-BC06-71CD8A16214F}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10772,7 +11867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FB9B18-434F-4677-A182-407CBC10EA8F}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10993,729 +12088,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9F8961-463F-4540-AE96-5FF353928741}">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:Q16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="57">
-        <v>1</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="L2" s="58">
-        <v>1</v>
-      </c>
-      <c r="M2" s="59">
-        <v>4</v>
-      </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59">
-        <v>10</v>
-      </c>
-      <c r="P2" s="59"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="60">
-        <v>1</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="L3" s="24">
-        <v>1</v>
-      </c>
-      <c r="M3" s="62">
-        <v>2</v>
-      </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62">
-        <v>30</v>
-      </c>
-      <c r="P3" s="62"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="60">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="24">
-        <v>1</v>
-      </c>
-      <c r="M4" s="62">
-        <v>3</v>
-      </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63">
-        <v>5</v>
-      </c>
-      <c r="P4" s="63"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="60">
-        <v>1</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="24">
-        <v>1</v>
-      </c>
-      <c r="M5" s="62">
-        <v>4</v>
-      </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62">
-        <v>5</v>
-      </c>
-      <c r="P5" s="62"/>
-    </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="69">
-        <v>1</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71">
-        <v>1</v>
-      </c>
-      <c r="M6" s="72">
-        <v>1</v>
-      </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72">
-        <v>5</v>
-      </c>
-      <c r="P6" s="72"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="39">
-        <v>3.0680000000000001</v>
-      </c>
-      <c r="I7" t="s">
-        <v>289</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42">
-        <v>0.98</v>
-      </c>
-      <c r="M7" s="40">
-        <v>1</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="40">
-        <v>5</v>
-      </c>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="39">
-        <v>0.46090000000000003</v>
-      </c>
-      <c r="I8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42">
-        <v>0.98</v>
-      </c>
-      <c r="M8" s="40">
-        <v>2</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="40">
-        <v>5</v>
-      </c>
-      <c r="P8" s="40"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="39">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="I9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42">
-        <v>0.98</v>
-      </c>
-      <c r="M9" s="40">
-        <v>2</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="40">
-        <v>5</v>
-      </c>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="39">
-        <v>0.27813253012048195</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="9">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8">
-        <v>4</v>
-      </c>
-      <c r="O10" s="8">
-        <v>5</v>
-      </c>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="57">
-        <v>2.0927000000000001E-4</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="J11" s="58">
-        <v>4</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="L11" s="58">
-        <v>0.90986310592664843</v>
-      </c>
-      <c r="M11" s="59">
-        <v>1</v>
-      </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59">
-        <v>5</v>
-      </c>
-      <c r="P11" s="59"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="73">
-        <v>3.6788000000000001E-2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="24">
-        <v>4</v>
-      </c>
-      <c r="K12" t="s">
-        <v>276</v>
-      </c>
-      <c r="L12" s="24">
-        <v>1</v>
-      </c>
-      <c r="M12" s="62">
-        <v>1</v>
-      </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62">
-        <v>5</v>
-      </c>
-      <c r="P12" s="62"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="39">
-        <v>4.7E-2</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8">
-        <v>2</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8">
-        <v>10</v>
-      </c>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="57">
-        <v>3.3109200000000005E-2</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="58">
-        <v>0.87556301899925537</v>
-      </c>
-      <c r="M14" s="59">
-        <v>1</v>
-      </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59">
-        <v>10</v>
-      </c>
-      <c r="P14" s="59"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="60">
-        <v>3.3109200000000005E-2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="24">
-        <v>0.87556301899925537</v>
-      </c>
-      <c r="M15" s="62">
-        <v>1</v>
-      </c>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62">
-        <v>10</v>
-      </c>
-      <c r="P15" s="62"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="J16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E3EE0E1-6392-4754-984C-80D83AFED092}">
-          <x14:formula1>
-            <xm:f>Lookup!$D$2:$D$15</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F9 F11:F15 F17:F332</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{925A0EEB-9365-4265-BCAA-8FCF4189DF40}">
-          <x14:formula1>
-            <xm:f>Lookup!$B$2:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E15 E17:E233</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C319048F-06A6-4121-9C15-D4FC96370093}">
-          <x14:formula1>
-            <xm:f>Lookup!$F$2:$F$45</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G15 G17:G1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{759DB3FD-D57C-4A43-97B2-53A3A60D15C6}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8628A7B7-DDEA-4CB6-8109-9EB6023E48B4}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="-21030" windowWidth="32880" windowHeight="18390" tabRatio="830" activeTab="12" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="2145" yWindow="-17955" windowWidth="41010" windowHeight="15240" tabRatio="830" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -24,15 +24,16 @@
     <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId9"/>
     <sheet name="TaskValues_basic" sheetId="83" r:id="rId10"/>
     <sheet name="TaskValues_expanded" sheetId="109" r:id="rId11"/>
-    <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId12"/>
-    <sheet name="CadreRoles" sheetId="111" r:id="rId13"/>
-    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId14"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId15"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId16"/>
+    <sheet name="CoverageRates" sheetId="113" r:id="rId12"/>
+    <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId13"/>
+    <sheet name="CadreRoles" sheetId="111" r:id="rId14"/>
+    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId15"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
@@ -82,6 +83,7 @@
     <author>tc={81CABEFC-7899-4C7A-B9AE-4E2D5F662376}</author>
     <author>tc={014F1C08-667B-46ED-851F-81B8588E32D0}</author>
     <author>tc={4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}</author>
+    <author>tc={E0287D98-688F-4109-B85D-5FB1C1026365}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
@@ -172,6 +174,14 @@
     The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</t>
       </text>
     </comment>
+    <comment ref="M1" authorId="11" shapeId="0" xr:uid="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -234,8 +244,42 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Han (AgileOne)</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3AB316E4-10F3-4507-B0EF-A22783A43FA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If these are left blank or a task is not included on this sheet, it will be assumed to be 100% coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="347">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1207,6 +1251,75 @@
   </si>
   <si>
     <t>Format update date: 6/2/2023.</t>
+  </si>
+  <si>
+    <t>sheet_Coverage</t>
+  </si>
+  <si>
+    <t>CoverageRates</t>
+  </si>
+  <si>
+    <t>Year 0</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1334,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,8 +1469,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,6 +1533,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,7 +1725,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1729,6 +1871,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2107,6 +2256,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Rui Han (AgileOne)" id="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" userId="S::rui.han@gatesfoundation.org::8e2486fc-4f63-445b-b2ee-a849708c4214" providerId="AD"/>
   <person displayName="Brittany Hagedorn" id="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" userId="S::Brittany.Hagedorn@gatesfoundation.org::5a602c7b-e691-4c99-b6e7-afdfc0897536" providerId="AD"/>
 </personList>
 </file>
@@ -2441,6 +2591,9 @@
   <threadedComment ref="L1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
+  <threadedComment ref="M1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+    <text>The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2534,7 +2687,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3259,7 +3412,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4329,6 +4482,413 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F852F6A3-2ADB-4C94-AD23-1F9CFA07C02D}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" style="105" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="6" style="105" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="7" style="105" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.7265625" style="105"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" s="103" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" s="103" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:G3" si="0">C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:L3" si="1">0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>0.9</v>
+      </c>
+      <c r="R2">
+        <v>0.95</v>
+      </c>
+      <c r="S2">
+        <v>0.95</v>
+      </c>
+      <c r="T2">
+        <v>0.95</v>
+      </c>
+      <c r="U2">
+        <v>0.95</v>
+      </c>
+      <c r="V2">
+        <v>0.95</v>
+      </c>
+      <c r="W2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0.9</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>0.95</v>
+      </c>
+      <c r="S3">
+        <v>0.95</v>
+      </c>
+      <c r="T3">
+        <v>0.95</v>
+      </c>
+      <c r="U3">
+        <v>0.95</v>
+      </c>
+      <c r="V3">
+        <v>0.95</v>
+      </c>
+      <c r="W3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="105" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="105" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="105" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="105" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:W3" xr:uid="{F44FB59B-9615-4BA6-B156-12EF80F548EA}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04D6E33-24B9-46AB-8C0C-B9AE70A8D6D8}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -5708,14 +6268,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266884E-25A4-43DE-83DF-867907ACC671}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -5944,7 +6504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -6180,7 +6740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6310,7 +6870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
@@ -7436,8 +7996,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7492,7 +8052,9 @@
       <c r="L1" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="M1"/>
+      <c r="M1" s="106" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
@@ -7531,6 +8093,9 @@
       <c r="L2" s="5" t="s">
         <v>317</v>
       </c>
+      <c r="M2" s="107" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -7569,6 +8134,9 @@
       <c r="L3" s="5" t="s">
         <v>317</v>
       </c>
+      <c r="M3" s="107" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -7606,6 +8174,9 @@
       </c>
       <c r="L4" s="5" t="s">
         <v>317</v>
+      </c>
+      <c r="M4" s="107" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{7CCCDFD1-E59D-423C-8BB5-C2031FD3030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{759DB3FD-D57C-4A43-97B2-53A3A60D15C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E62E3C-36BE-4900-900A-DAABC854405E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="-21030" windowWidth="32880" windowHeight="18390" tabRatio="830" activeTab="12" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="1030" yWindow="650" windowWidth="28770" windowHeight="11090" tabRatio="830" activeTab="3" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -5715,7 +5715,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -8552,8 +8552,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8578,10 +8578,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="96">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="97">
-        <v>1.1000000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -8589,22 +8589,18 @@
         <v>180</v>
       </c>
       <c r="B3" s="98">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3" s="99">
-        <v>1.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="101">
-        <v>0.75</v>
-      </c>
-      <c r="C4" s="102">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruiha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E62E3C-36BE-4900-900A-DAABC854405E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11B3F6A-EBF6-413A-8569-5DC70F7A3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1030" yWindow="650" windowWidth="28770" windowHeight="11090" tabRatio="830" activeTab="3" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" activeTab="3" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -24,15 +24,16 @@
     <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId9"/>
     <sheet name="TaskValues_basic" sheetId="83" r:id="rId10"/>
     <sheet name="TaskValues_expanded" sheetId="109" r:id="rId11"/>
-    <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId12"/>
-    <sheet name="CadreRoles" sheetId="111" r:id="rId13"/>
-    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId14"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId15"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId16"/>
+    <sheet name="CoverageRates" sheetId="113" r:id="rId12"/>
+    <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId13"/>
+    <sheet name="CadreRoles" sheetId="111" r:id="rId14"/>
+    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId15"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
@@ -82,6 +83,7 @@
     <author>tc={81CABEFC-7899-4C7A-B9AE-4E2D5F662376}</author>
     <author>tc={014F1C08-667B-46ED-851F-81B8588E32D0}</author>
     <author>tc={4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}</author>
+    <author>tc={E0287D98-688F-4109-B85D-5FB1C1026365}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
@@ -172,6 +174,14 @@
     The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</t>
       </text>
     </comment>
+    <comment ref="M1" authorId="11" shapeId="0" xr:uid="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -234,8 +244,42 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Han (AgileOne)</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3AB316E4-10F3-4507-B0EF-A22783A43FA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If these are left blank or a task is not included on this sheet, it will be assumed to be 100% coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="347">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1207,6 +1251,75 @@
   </si>
   <si>
     <t>Format update date: 6/2/2023.</t>
+  </si>
+  <si>
+    <t>sheet_Coverage</t>
+  </si>
+  <si>
+    <t>CoverageRates</t>
+  </si>
+  <si>
+    <t>Year 0</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1334,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,8 +1469,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,6 +1527,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,7 +1719,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1729,6 +1865,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2107,6 +2249,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Rui Han (AgileOne)" id="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" userId="S::rui.han@gatesfoundation.org::8e2486fc-4f63-445b-b2ee-a849708c4214" providerId="AD"/>
   <person displayName="Brittany Hagedorn" id="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" userId="S::Brittany.Hagedorn@gatesfoundation.org::5a602c7b-e691-4c99-b6e7-afdfc0897536" providerId="AD"/>
 </personList>
 </file>
@@ -2441,6 +2584,9 @@
   <threadedComment ref="L1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
+  <threadedComment ref="M1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+    <text>The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2534,7 +2680,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3259,7 +3405,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4329,6 +4475,412 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F852F6A3-2ADB-4C94-AD23-1F9CFA07C02D}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" s="103" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" s="103" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:G3" si="0">C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:L3" si="1">0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>0.9</v>
+      </c>
+      <c r="R2">
+        <v>0.95</v>
+      </c>
+      <c r="S2">
+        <v>0.95</v>
+      </c>
+      <c r="T2">
+        <v>0.95</v>
+      </c>
+      <c r="U2">
+        <v>0.95</v>
+      </c>
+      <c r="V2">
+        <v>0.95</v>
+      </c>
+      <c r="W2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0.9</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>0.95</v>
+      </c>
+      <c r="S3">
+        <v>0.95</v>
+      </c>
+      <c r="T3">
+        <v>0.95</v>
+      </c>
+      <c r="U3">
+        <v>0.95</v>
+      </c>
+      <c r="V3">
+        <v>0.95</v>
+      </c>
+      <c r="W3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:W3" xr:uid="{F44FB59B-9615-4BA6-B156-12EF80F548EA}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04D6E33-24B9-46AB-8C0C-B9AE70A8D6D8}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -5708,7 +6260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266884E-25A4-43DE-83DF-867907ACC671}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -5944,7 +6496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -6180,7 +6732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6310,7 +6862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
@@ -7437,7 +7989,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7492,7 +8044,9 @@
       <c r="L1" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="M1"/>
+      <c r="M1" s="105" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
@@ -7531,6 +8085,9 @@
       <c r="L2" s="5" t="s">
         <v>317</v>
       </c>
+      <c r="M2" s="106" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -7569,6 +8126,9 @@
       <c r="L3" s="5" t="s">
         <v>317</v>
       </c>
+      <c r="M3" s="106" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -7606,6 +8166,9 @@
       </c>
       <c r="L4" s="5" t="s">
         <v>317</v>
+      </c>
+      <c r="M4" s="106" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -8553,7 +9116,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruiha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11B3F6A-EBF6-413A-8569-5DC70F7A3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" activeTab="3" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -24,16 +24,17 @@
     <sheet name="SeasonalityOffsets" sheetId="66" r:id="rId9"/>
     <sheet name="TaskValues_basic" sheetId="83" r:id="rId10"/>
     <sheet name="TaskValues_expanded" sheetId="109" r:id="rId11"/>
-    <sheet name="CoverageRates" sheetId="113" r:id="rId12"/>
-    <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId13"/>
-    <sheet name="CadreRoles" sheetId="111" r:id="rId14"/>
-    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId15"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId17"/>
+    <sheet name="CoverageRates_step" sheetId="113" r:id="rId12"/>
+    <sheet name="CoverageRates" sheetId="114" r:id="rId13"/>
+    <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId14"/>
+    <sheet name="CadreRoles" sheetId="111" r:id="rId15"/>
+    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId16"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId17"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
@@ -278,8 +279,42 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Han (AgileOne)</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{CA017E4B-2D5B-4FF4-955D-34398DF7F06C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If these are left blank or a task is not included on this sheet, it will be assumed to be 100% coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="349">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1256,70 +1291,76 @@
     <t>sheet_Coverage</t>
   </si>
   <si>
+    <t>Year 0</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
+  </si>
+  <si>
     <t>CoverageRates</t>
   </si>
   <si>
-    <t>Year 0</t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year 3</t>
-  </si>
-  <si>
-    <t>Year 4</t>
-  </si>
-  <si>
-    <t>Year 5</t>
-  </si>
-  <si>
-    <t>Year 6</t>
-  </si>
-  <si>
-    <t>Year 7</t>
-  </si>
-  <si>
-    <t>Year 8</t>
-  </si>
-  <si>
-    <t>Year 9</t>
-  </si>
-  <si>
-    <t>Year 10</t>
-  </si>
-  <si>
-    <t>Year 11</t>
-  </si>
-  <si>
-    <t>Year 12</t>
-  </si>
-  <si>
-    <t>Year 13</t>
-  </si>
-  <si>
-    <t>Year 14</t>
-  </si>
-  <si>
-    <t>Year 15</t>
-  </si>
-  <si>
-    <t>Year 16</t>
-  </si>
-  <si>
-    <t>Year 17</t>
-  </si>
-  <si>
-    <t>Year 18</t>
-  </si>
-  <si>
-    <t>Year 19</t>
-  </si>
-  <si>
-    <t>Year 20</t>
+    <t>StepCoverage</t>
+  </si>
+  <si>
+    <t>CoverageRates_step</t>
   </si>
 </sst>
 </file>
@@ -2678,7 +2719,7 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
@@ -4481,8 +4522,8 @@
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4501,67 +4542,67 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="E1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="V1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>345</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -4572,76 +4613,68 @@
         <v>144</v>
       </c>
       <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>0.25</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2" si="0">F2</f>
+        <v>0.25</v>
+      </c>
+      <c r="H2">
         <v>0.5</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:G3" si="0">C2</f>
+      <c r="I2">
         <v>0.5</v>
       </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
+      <c r="J2">
         <v>0.5</v>
       </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
+      <c r="K2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:L3" si="1">0.75</f>
+      <c r="M2">
         <v>0.75</v>
       </c>
-      <c r="I2">
-        <f t="shared" si="1"/>
+      <c r="N2">
         <v>0.75</v>
       </c>
-      <c r="J2">
-        <f t="shared" si="1"/>
+      <c r="O2">
         <v>0.75</v>
       </c>
-      <c r="K2">
-        <f t="shared" si="1"/>
+      <c r="P2">
         <v>0.75</v>
       </c>
-      <c r="L2">
-        <f t="shared" si="1"/>
+      <c r="Q2">
         <v>0.75</v>
       </c>
-      <c r="M2">
-        <v>0.9</v>
-      </c>
-      <c r="N2">
-        <v>0.9</v>
-      </c>
-      <c r="O2">
-        <v>0.9</v>
-      </c>
-      <c r="P2">
-        <v>0.9</v>
-      </c>
-      <c r="Q2">
-        <v>0.9</v>
-      </c>
       <c r="R2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -4652,76 +4685,67 @@
         <v>99</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -4826,6 +4850,21 @@
       </c>
       <c r="B16" t="s">
         <v>249</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -4881,6 +4920,271 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486908E-A1DC-49FC-8BDF-3898C0F86D25}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="R1" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="S1" s="103" t="s">
+        <v>341</v>
+      </c>
+      <c r="T1" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="U1" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="V1" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="W1" s="103" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:W3" xr:uid="{7DC5F91B-50AD-4CAB-9C06-CFEC5BFD011B}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04D6E33-24B9-46AB-8C0C-B9AE70A8D6D8}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -6260,7 +6564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266884E-25A4-43DE-83DF-867907ACC671}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -6496,7 +6800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -6732,7 +7036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6862,7 +7166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
@@ -7988,8 +8292,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8086,7 +8390,7 @@
         <v>317</v>
       </c>
       <c r="M2" s="106" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -8127,7 +8431,7 @@
         <v>317</v>
       </c>
       <c r="M3" s="106" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -8168,7 +8472,48 @@
         <v>317</v>
       </c>
       <c r="M4" s="106" t="s">
-        <v>325</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="27">
+        <v>48</v>
+      </c>
+      <c r="C5" s="27">
+        <v>32</v>
+      </c>
+      <c r="D5" s="27">
+        <v>5000</v>
+      </c>
+      <c r="E5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="M5" s="106" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -9115,7 +9460,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/brittany_hagedorn_gatesfoundation_org/Documents/Documents/GitHub/PACE-HRH/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72427F04-C22B-45A4-9B74-DF5D38A44693}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" tabRatio="830" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -111,7 +111,7 @@
     Should typically be &lt;= 40</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +119,7 @@
     Typically TRUE except for scenario analysis</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
+    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +127,7 @@
     Typically TRUE except for scenario analysis</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
+    <comment ref="H1" authorId="5" shapeId="0" xr:uid="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +135,7 @@
     Typically TRUE except for scenario analysis</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
+    <comment ref="I1" authorId="6" shapeId="0" xr:uid="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +143,7 @@
     Typically TRUE except for scenario analysis</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
+    <comment ref="J1" authorId="7" shapeId="0" xr:uid="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +151,7 @@
     The exact name (including capitalization) of a tab in this workbook that contains the task values information.</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="8" shapeId="0" xr:uid="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
+    <comment ref="K1" authorId="8" shapeId="0" xr:uid="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +159,7 @@
     The exact name (including capitalization) of a tab in this workbook that contains the initial population demographics.</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="9" shapeId="0" xr:uid="{014F1C08-667B-46ED-851F-81B8588E32D0}">
+    <comment ref="L1" authorId="9" shapeId="0" xr:uid="{014F1C08-667B-46ED-851F-81B8588E32D0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +167,7 @@
     The exact name (including capitalization) of a tab in this workbook that contains the seasonality information. Can be one or multiple tabs, but only one is used per scenario run.</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="10" shapeId="0" xr:uid="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
+    <comment ref="M1" authorId="10" shapeId="0" xr:uid="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +175,7 @@
     The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="11" shapeId="0" xr:uid="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+    <comment ref="N1" authorId="11" shapeId="0" xr:uid="{E0287D98-688F-4109-B85D-5FB1C1026365}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="350">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1361,6 +1361,9 @@
   </si>
   <si>
     <t>CoverageRates_step</t>
+  </si>
+  <si>
+    <t>MaxUtilization</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1525,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1575,12 +1578,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1760,7 +1757,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1908,10 +1905,6 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2601,31 +2594,31 @@
   <threadedComment ref="C1" dT="2022-11-12T18:34:11.60" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{FEADEA4A-B72E-4A9D-858D-15AEFC2C5D84}">
     <text>Should typically be &lt;= 40</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2022-11-12T18:34:44.31" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
+  <threadedComment ref="F1" dT="2022-11-12T18:34:44.31" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2022-11-12T18:34:48.58" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
+  <threadedComment ref="G1" dT="2022-11-12T18:34:48.58" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2022-11-12T18:34:52.99" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
+  <threadedComment ref="H1" dT="2022-11-12T18:34:52.99" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-11-12T18:34:57.44" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
+  <threadedComment ref="I1" dT="2022-11-12T18:34:57.44" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2022-11-12T18:36:24.37" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
+  <threadedComment ref="J1" dT="2022-11-12T18:36:24.37" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task values information.</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2022-11-12T18:36:40.56" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
+  <threadedComment ref="K1" dT="2022-11-12T18:36:40.56" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the initial population demographics.</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2022-11-12T18:37:20.11" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
+  <threadedComment ref="L1" dT="2022-11-12T18:37:20.11" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the seasonality information. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
+  <threadedComment ref="M1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+  <threadedComment ref="N1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2642,14 +2635,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>314</v>
       </c>
@@ -2663,7 +2656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>322</v>
       </c>
@@ -2677,7 +2670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
         <v>259</v>
       </c>
@@ -2686,22 +2679,22 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" t="s">
         <v>139</v>
       </c>
@@ -2724,28 +2717,28 @@
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26171875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.89453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.3671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.47265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.47265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -2798,7 +2791,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52" t="s">
         <v>279</v>
       </c>
@@ -2839,7 +2832,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -2880,7 +2873,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>279</v>
       </c>
@@ -2922,7 +2915,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -2964,7 +2957,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="64" t="s">
         <v>279</v>
       </c>
@@ -3006,7 +2999,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -3048,7 +3041,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -3090,7 +3083,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3132,7 +3125,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3174,7 +3167,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="52" t="s">
         <v>281</v>
       </c>
@@ -3220,7 +3213,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>281</v>
       </c>
@@ -3266,7 +3259,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -3312,7 +3305,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
@@ -3354,7 +3347,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -3396,7 +3389,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -3449,27 +3442,27 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1015625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.47265625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="25.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1015625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -3522,7 +3515,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52" t="s">
         <v>279</v>
       </c>
@@ -3563,7 +3556,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -3604,7 +3597,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>279</v>
       </c>
@@ -3646,7 +3639,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -3688,7 +3681,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="64" t="s">
         <v>279</v>
       </c>
@@ -3730,7 +3723,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -3772,7 +3765,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -3814,7 +3807,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3856,7 +3849,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3898,7 +3891,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="52" t="s">
         <v>281</v>
       </c>
@@ -3944,7 +3937,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>281</v>
       </c>
@@ -3990,7 +3983,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -4036,7 +4029,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
@@ -4078,7 +4071,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -4120,7 +4113,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>287</v>
       </c>
@@ -4162,7 +4155,7 @@
       </c>
       <c r="P16" s="62"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>287</v>
       </c>
@@ -4204,7 +4197,7 @@
       </c>
       <c r="P17" s="62"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>287</v>
       </c>
@@ -4246,7 +4239,7 @@
       </c>
       <c r="P18" s="62"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>287</v>
       </c>
@@ -4288,7 +4281,7 @@
       </c>
       <c r="P19" s="62"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>287</v>
       </c>
@@ -4330,7 +4323,7 @@
       </c>
       <c r="P20" s="62"/>
     </row>
-    <row r="21" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="64" t="s">
         <v>287</v>
       </c>
@@ -4372,7 +4365,7 @@
       </c>
       <c r="P21" s="72"/>
     </row>
-    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="52" t="s">
         <v>283</v>
       </c>
@@ -4414,7 +4407,7 @@
       </c>
       <c r="P22" s="59"/>
     </row>
-    <row r="23" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="64" t="s">
         <v>283</v>
       </c>
@@ -4455,7 +4448,7 @@
       </c>
       <c r="P23" s="72"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -4465,7 +4458,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -4475,7 +4468,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -4526,15 +4519,15 @@
       <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4605,7 +4598,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4677,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -4748,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4756,7 +4749,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -4764,7 +4757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -4772,7 +4765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -4780,7 +4773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -4788,7 +4781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -4796,7 +4789,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -4804,7 +4797,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -4812,7 +4805,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -4820,7 +4813,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -4828,7 +4821,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -4836,7 +4829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -4844,7 +4837,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -4867,7 +4860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -4875,7 +4868,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -4883,7 +4876,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -4891,7 +4884,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -4899,7 +4892,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -4930,15 +4923,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -5009,7 +5002,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -5017,7 +5010,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5028,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -5036,7 +5029,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -5044,7 +5037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -5052,7 +5045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -5060,7 +5053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -5068,7 +5061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -5076,7 +5069,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -5084,7 +5077,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -5092,7 +5085,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -5100,7 +5093,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -5108,7 +5101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -5116,7 +5109,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -5124,7 +5117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -5132,7 +5125,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -5140,7 +5133,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -5148,7 +5141,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -5156,7 +5149,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -5164,7 +5157,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -5196,22 +5189,22 @@
       <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1015625" customWidth="1"/>
+    <col min="3" max="3" width="12.7890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="85" t="s">
         <v>312</v>
       </c>
@@ -5275,7 +5268,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="86" t="s">
         <v>36</v>
       </c>
@@ -5325,7 +5318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37" t="s">
         <v>51</v>
       </c>
@@ -5380,7 +5373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
@@ -5435,7 +5428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37" t="s">
         <v>264</v>
       </c>
@@ -5490,7 +5483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37" t="s">
         <v>265</v>
       </c>
@@ -5545,7 +5538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="37" t="s">
         <v>266</v>
       </c>
@@ -5600,7 +5593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37" t="s">
         <v>270</v>
       </c>
@@ -5655,7 +5648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="37" t="s">
         <v>271</v>
       </c>
@@ -5710,7 +5703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="37" t="s">
         <v>269</v>
       </c>
@@ -5765,7 +5758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="37" t="s">
         <v>267</v>
       </c>
@@ -5820,7 +5813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="37" t="s">
         <v>268</v>
       </c>
@@ -5875,7 +5868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="37" t="s">
         <v>284</v>
       </c>
@@ -5930,7 +5923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="37" t="s">
         <v>297</v>
       </c>
@@ -5985,7 +5978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="37" t="s">
         <v>272</v>
       </c>
@@ -6040,7 +6033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="37" t="s">
         <v>273</v>
       </c>
@@ -6095,7 +6088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>290</v>
       </c>
@@ -6150,7 +6143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>291</v>
       </c>
@@ -6205,7 +6198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>292</v>
       </c>
@@ -6260,7 +6253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>294</v>
       </c>
@@ -6315,7 +6308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>295</v>
       </c>
@@ -6370,7 +6363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>293</v>
       </c>
@@ -6425,7 +6418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>263</v>
       </c>
@@ -6480,7 +6473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
@@ -6575,17 +6568,17 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="82" t="s">
         <v>302</v>
       </c>
@@ -6605,7 +6598,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>298</v>
       </c>
@@ -6625,7 +6618,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>298</v>
       </c>
@@ -6643,7 +6636,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>298</v>
       </c>
@@ -6661,7 +6654,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>258</v>
       </c>
@@ -6681,7 +6674,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>258</v>
       </c>
@@ -6699,7 +6692,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>258</v>
       </c>
@@ -6717,7 +6710,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>296</v>
       </c>
@@ -6737,7 +6730,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>296</v>
       </c>
@@ -6755,7 +6748,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>296</v>
       </c>
@@ -6811,17 +6804,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.89453125" customWidth="1"/>
+    <col min="3" max="3" width="24.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="82" t="s">
         <v>302</v>
       </c>
@@ -6841,7 +6834,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>298</v>
       </c>
@@ -6861,7 +6854,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>298</v>
       </c>
@@ -6879,7 +6872,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>298</v>
       </c>
@@ -6897,7 +6890,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>258</v>
       </c>
@@ -6917,7 +6910,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>258</v>
       </c>
@@ -6935,7 +6928,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>258</v>
       </c>
@@ -6953,7 +6946,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>296</v>
       </c>
@@ -6973,7 +6966,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>296</v>
       </c>
@@ -6991,7 +6984,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>296</v>
       </c>
@@ -7044,14 +7037,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="77.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.15625" customWidth="1"/>
+    <col min="2" max="2" width="77.7890625" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -7062,7 +7055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7073,7 +7066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7084,7 +7077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7106,7 +7099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7117,7 +7110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7128,7 +7121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7139,7 +7132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7150,7 +7143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7174,17 +7167,17 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7890625" customWidth="1"/>
     <col min="6" max="6" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5234375" customWidth="1"/>
+    <col min="10" max="10" width="12.734375" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="17" t="s">
         <v>145</v>
       </c>
@@ -7210,7 +7203,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>171</v>
       </c>
@@ -7236,7 +7229,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>172</v>
       </c>
@@ -7262,7 +7255,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>173</v>
       </c>
@@ -7288,7 +7281,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
@@ -7314,7 +7307,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
@@ -7337,7 +7330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>65</v>
@@ -7358,7 +7351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>66</v>
@@ -7379,7 +7372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>4</v>
@@ -7400,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
@@ -7420,7 +7413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
@@ -7440,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
@@ -7460,7 +7453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="4" t="s">
         <v>100</v>
       </c>
@@ -7480,7 +7473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
@@ -7500,7 +7493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7520,7 +7513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="4" t="s">
         <v>227</v>
       </c>
@@ -7537,7 +7530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="4" t="s">
         <v>228</v>
       </c>
@@ -7554,7 +7547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="4" t="s">
         <v>229</v>
       </c>
@@ -7571,7 +7564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="4" t="s">
         <v>233</v>
       </c>
@@ -7588,7 +7581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" s="4" t="s">
         <v>234</v>
       </c>
@@ -7605,7 +7598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" s="4" t="s">
         <v>160</v>
       </c>
@@ -7622,7 +7615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" s="4" t="s">
         <v>77</v>
       </c>
@@ -7639,7 +7632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
@@ -7656,7 +7649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="4" t="s">
         <v>73</v>
       </c>
@@ -7673,7 +7666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="4" t="s">
         <v>67</v>
       </c>
@@ -7687,7 +7680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" s="4" t="s">
         <v>174</v>
       </c>
@@ -7701,7 +7694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="4" t="s">
         <v>235</v>
       </c>
@@ -7715,7 +7708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="4" t="s">
         <v>230</v>
       </c>
@@ -7729,7 +7722,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="4" t="s">
         <v>226</v>
       </c>
@@ -7743,7 +7736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="4" t="s">
         <v>165</v>
       </c>
@@ -7757,7 +7750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="4" t="s">
         <v>78</v>
       </c>
@@ -7774,7 +7767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="4" t="s">
         <v>163</v>
       </c>
@@ -7791,7 +7784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="4" t="s">
         <v>236</v>
       </c>
@@ -7808,7 +7801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="4" t="s">
         <v>237</v>
       </c>
@@ -7825,7 +7818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="4" t="s">
         <v>238</v>
       </c>
@@ -7842,7 +7835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="4" t="s">
         <v>239</v>
       </c>
@@ -7859,7 +7852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="4" t="s">
         <v>240</v>
       </c>
@@ -7876,7 +7869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="4" t="s">
         <v>241</v>
       </c>
@@ -7893,7 +7886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="4" t="s">
         <v>242</v>
       </c>
@@ -7910,7 +7903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="4" t="s">
         <v>243</v>
       </c>
@@ -7927,7 +7920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="4" t="s">
         <v>244</v>
       </c>
@@ -7944,7 +7937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" s="4" t="s">
         <v>245</v>
       </c>
@@ -7961,7 +7954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="4" t="s">
         <v>164</v>
       </c>
@@ -7978,7 +7971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" s="4" t="s">
         <v>70</v>
       </c>
@@ -7989,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" s="4" t="s">
         <v>65</v>
       </c>
@@ -8000,283 +7993,283 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -8290,28 +8283,29 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
@@ -8322,37 +8316,40 @@
         <v>8</v>
       </c>
       <c r="D1" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="F1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="H1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="I1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="J1" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="K1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="L1" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="M1" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="N1" s="83" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>298</v>
       </c>
@@ -8363,11 +8360,11 @@
         <v>32</v>
       </c>
       <c r="D2" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E2" s="27">
         <v>5000</v>
       </c>
-      <c r="E2" s="27" t="b">
-        <v>1</v>
-      </c>
       <c r="F2" s="27" t="b">
         <v>1</v>
       </c>
@@ -8377,23 +8374,26 @@
       <c r="H2" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="N2" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>258</v>
       </c>
@@ -8404,11 +8404,11 @@
         <v>32</v>
       </c>
       <c r="D3" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="27">
         <v>5000</v>
       </c>
-      <c r="E3" s="27" t="b">
-        <v>1</v>
-      </c>
       <c r="F3" s="27" t="b">
         <v>1</v>
       </c>
@@ -8418,23 +8418,26 @@
       <c r="H3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="106" t="s">
+      <c r="N3" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>296</v>
       </c>
@@ -8445,38 +8448,41 @@
         <v>32</v>
       </c>
       <c r="D4" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="27">
         <v>5000</v>
       </c>
-      <c r="E4" s="27" t="b">
-        <v>1</v>
-      </c>
       <c r="F4" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="N4" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B5" s="27">
@@ -8486,11 +8492,11 @@
         <v>32</v>
       </c>
       <c r="D5" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="27">
         <v>5000</v>
       </c>
-      <c r="E5" s="27" t="b">
-        <v>1</v>
-      </c>
       <c r="F5" s="27" t="b">
         <v>1</v>
       </c>
@@ -8500,23 +8506,26 @@
       <c r="H5" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="M5" s="106" t="s">
+      <c r="N5" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -8524,8 +8533,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -8533,8 +8543,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8543,8 +8554,9 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8552,8 +8564,9 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8561,16 +8574,21 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D4" xr:uid="{51E01DD3-1F4F-4ECB-945C-BF7AC154B4D2}">
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C4 E2:E4" xr:uid="{51E01DD3-1F4F-4ECB-945C-BF7AC154B4D2}">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 I2:L4" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5 J2:M4 J5" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
       <formula1>1</formula1>
       <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{D796A398-092D-4D10-BA3C-34FA2CA6C0CE}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8582,7 +8600,7 @@
           <x14:formula1>
             <xm:f>'Read Me'!$P$3:$P$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:H4</xm:sqref>
+          <xm:sqref>F2:I4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8601,19 +8619,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="15"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.734375" style="15"/>
+    <col min="8" max="8" width="11.5234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.85">
       <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
@@ -8639,7 +8657,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -8665,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -8691,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -8717,7 +8735,7 @@
         <v>0.98846927759109204</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -8743,7 +8761,7 @@
         <v>0.99316389691241536</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -8769,7 +8787,7 @@
         <v>0.98022410443373342</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -8795,7 +8813,7 @@
         <v>0.97771923789514636</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -8821,7 +8839,7 @@
         <v>0.97393215219000295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -8847,7 +8865,7 @@
         <v>0.95811661983967134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8873,7 +8891,7 @@
         <v>0.91700404320467122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -8899,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -8925,7 +8943,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -8951,7 +8969,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -8977,7 +8995,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -9003,7 +9021,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -9029,7 +9047,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -9055,7 +9073,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -9081,7 +9099,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -9107,7 +9125,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -9133,7 +9151,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -9159,7 +9177,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -9185,7 +9203,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -9211,7 +9229,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -9237,7 +9255,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -9263,7 +9281,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -9289,7 +9307,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -9315,7 +9333,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -9341,7 +9359,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -9367,7 +9385,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -9393,7 +9411,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -9456,21 +9474,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5EA865-0CD0-41A0-8D11-2E731D20BD4F}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.89453125" customWidth="1"/>
+    <col min="2" max="3" width="5.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="92" t="s">
         <v>318</v>
       </c>
@@ -9481,7 +9499,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="95" t="s">
         <v>103</v>
       </c>
@@ -9492,7 +9510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="95" t="s">
         <v>180</v>
       </c>
@@ -9503,7 +9521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="100" t="s">
         <v>321</v>
       </c>
@@ -9527,14 +9545,14 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26171875" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -9548,7 +9566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -9562,7 +9580,7 @@
         <v>3575570</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -9577,7 +9595,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -9592,7 +9610,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -9607,7 +9625,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -9621,7 +9639,7 @@
         <v>3155986</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -9635,7 +9653,7 @@
         <v>3116265</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -9649,7 +9667,7 @@
         <v>3084419</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -9663,7 +9681,7 @@
         <v>3049213</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -9677,7 +9695,7 @@
         <v>3002143</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -9691,7 +9709,7 @@
         <v>2945614</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -9705,7 +9723,7 @@
         <v>2884765</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -9720,7 +9738,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -9734,7 +9752,7 @@
         <v>2770640</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -9748,7 +9766,7 @@
         <v>2726244</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -9762,7 +9780,7 @@
         <v>2689714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -9776,7 +9794,7 @@
         <v>2657834</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -9790,7 +9808,7 @@
         <v>2627389</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -9804,7 +9822,7 @@
         <v>2595159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -9818,7 +9836,7 @@
         <v>2558367</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -9832,7 +9850,7 @@
         <v>2515982</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -9846,7 +9864,7 @@
         <v>2467416</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -9860,7 +9878,7 @@
         <v>2412076</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -9874,7 +9892,7 @@
         <v>2349372</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -9888,7 +9906,7 @@
         <v>2278980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -9902,7 +9920,7 @@
         <v>2201663</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -9916,7 +9934,7 @@
         <v>2118447</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -9930,7 +9948,7 @@
         <v>2030363</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -9944,7 +9962,7 @@
         <v>1938438</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -9958,7 +9976,7 @@
         <v>1844075</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -9972,7 +9990,7 @@
         <v>1750163</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -9986,7 +10004,7 @@
         <v>1659968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -10000,7 +10018,7 @@
         <v>1576752</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -10014,7 +10032,7 @@
         <v>1503779</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -10028,7 +10046,7 @@
         <v>1443096</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -10042,7 +10060,7 @@
         <v>1391888</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -10056,7 +10074,7 @@
         <v>1346124</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -10070,7 +10088,7 @@
         <v>1301771</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -10084,7 +10102,7 @@
         <v>1254797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -10098,7 +10116,7 @@
         <v>1202349</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -10112,7 +10130,7 @@
         <v>1146286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -10126,7 +10144,7 @@
         <v>1089647</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -10140,7 +10158,7 @@
         <v>1035469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -10154,7 +10172,7 @@
         <v>986789</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -10168,7 +10186,7 @@
         <v>945756</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -10182,7 +10200,7 @@
         <v>910958</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -10196,7 +10214,7 @@
         <v>880091</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -10210,7 +10228,7 @@
         <v>850854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -10224,7 +10242,7 @@
         <v>820942</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -10238,7 +10256,7 @@
         <v>788573</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -10252,7 +10270,7 @@
         <v>754051</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -10266,7 +10284,7 @@
         <v>718191</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -10280,7 +10298,7 @@
         <v>681818</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -10294,7 +10312,7 @@
         <v>645749</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -10308,7 +10326,7 @@
         <v>610778</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -10322,7 +10340,7 @@
         <v>577578</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -10336,7 +10354,7 @@
         <v>546796</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -10350,7 +10368,7 @@
         <v>519076</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -10364,7 +10382,7 @@
         <v>495064</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -10378,7 +10396,7 @@
         <v>475071</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -10392,7 +10410,7 @@
         <v>458062</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -10406,7 +10424,7 @@
         <v>442669</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -10420,7 +10438,7 @@
         <v>427522</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -10434,7 +10452,7 @@
         <v>411253</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -10448,7 +10466,7 @@
         <v>392879</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -10462,7 +10480,7 @@
         <v>372973</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -10476,7 +10494,7 @@
         <v>352494</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -10490,7 +10508,7 @@
         <v>332403</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -10504,7 +10522,7 @@
         <v>313658</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -10518,7 +10536,7 @@
         <v>296932</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -10532,7 +10550,7 @@
         <v>281741</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -10546,7 +10564,7 @@
         <v>267317</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -10560,7 +10578,7 @@
         <v>252889</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -10574,7 +10592,7 @@
         <v>237687</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -10588,7 +10606,7 @@
         <v>221142</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -10602,7 +10620,7 @@
         <v>203487</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -10616,7 +10634,7 @@
         <v>185155</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -10630,7 +10648,7 @@
         <v>166577</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -10644,7 +10662,7 @@
         <v>148186</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -10658,7 +10676,7 @@
         <v>130387</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -10672,7 +10690,7 @@
         <v>113452</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -10686,7 +10704,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -10700,7 +10718,7 @@
         <v>83166</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -10714,7 +10732,7 @@
         <v>70305</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -10728,7 +10746,7 @@
         <v>59208</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -10742,7 +10760,7 @@
         <v>49694</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -10756,7 +10774,7 @@
         <v>41497</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -10770,7 +10788,7 @@
         <v>34350</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -10784,7 +10802,7 @@
         <v>27988</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -10798,7 +10816,7 @@
         <v>22203</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -10812,7 +10830,7 @@
         <v>17007</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -10826,7 +10844,7 @@
         <v>12474</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -10840,7 +10858,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -10854,7 +10872,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -10868,7 +10886,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -10882,7 +10900,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -10896,7 +10914,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -10910,7 +10928,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -10924,7 +10942,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -10938,7 +10956,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -10952,7 +10970,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -10988,14 +11006,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26171875" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -11009,7 +11027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -11023,7 +11041,7 @@
         <v>48809</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -11038,7 +11056,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -11053,7 +11071,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -11068,7 +11086,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -11082,7 +11100,7 @@
         <v>47623</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -11096,7 +11114,7 @@
         <v>50657</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -11110,7 +11128,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -11124,7 +11142,7 @@
         <v>57562</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -11138,7 +11156,7 @@
         <v>60434</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -11152,7 +11170,7 @@
         <v>62648</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -11166,7 +11184,7 @@
         <v>64171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -11181,7 +11199,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -11195,7 +11213,7 @@
         <v>65009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -11209,7 +11227,7 @@
         <v>64277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -11223,7 +11241,7 @@
         <v>62842</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -11237,7 +11255,7 @@
         <v>60798</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -11251,7 +11269,7 @@
         <v>58233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -11265,7 +11283,7 @@
         <v>55238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -11279,7 +11297,7 @@
         <v>51920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -11293,7 +11311,7 @@
         <v>48445</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -11307,7 +11325,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -11321,7 +11339,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -11335,7 +11353,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -11349,7 +11367,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -11363,7 +11381,7 @@
         <v>34692</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -11377,7 +11395,7 @@
         <v>33142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -11391,7 +11409,7 @@
         <v>31801</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -11405,7 +11423,7 @@
         <v>30547</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -11419,7 +11437,7 @@
         <v>29292</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -11433,7 +11451,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -11447,7 +11465,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -11461,7 +11479,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -11475,7 +11493,7 @@
         <v>25540</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -11489,7 +11507,7 @@
         <v>25287</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -11503,7 +11521,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -11517,7 +11535,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -11531,7 +11549,7 @@
         <v>25525</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -11545,7 +11563,7 @@
         <v>25534</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -11559,7 +11577,7 @@
         <v>25328</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -11573,7 +11591,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -11587,7 +11605,7 @@
         <v>24209</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -11601,7 +11619,7 @@
         <v>23299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -11615,7 +11633,7 @@
         <v>22156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -11629,7 +11647,7 @@
         <v>20797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -11643,7 +11661,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -11657,7 +11675,7 @@
         <v>17771</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -11671,7 +11689,7 @@
         <v>16299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -11685,7 +11703,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -11699,7 +11717,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -11713,7 +11731,7 @@
         <v>12985</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -11727,7 +11745,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -11741,7 +11759,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -11755,7 +11773,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -11769,7 +11787,7 @@
         <v>9830</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -11783,7 +11801,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -11797,7 +11815,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -11811,7 +11829,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -11825,7 +11843,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -11839,7 +11857,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -11853,7 +11871,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -11867,7 +11885,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -11881,7 +11899,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -11895,7 +11913,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -11909,7 +11927,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -11923,7 +11941,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -11937,7 +11955,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -11951,7 +11969,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -11965,7 +11983,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -11979,7 +11997,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -11993,7 +12011,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -12007,7 +12025,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -12021,7 +12039,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -12035,7 +12053,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -12049,7 +12067,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -12063,7 +12081,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -12077,7 +12095,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -12091,7 +12109,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -12105,7 +12123,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -12119,7 +12137,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -12133,7 +12151,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -12147,7 +12165,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -12161,7 +12179,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -12175,7 +12193,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -12189,7 +12207,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -12203,7 +12221,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -12217,7 +12235,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -12231,7 +12249,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -12245,7 +12263,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -12259,7 +12277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -12273,7 +12291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -12287,7 +12305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -12301,7 +12319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -12315,7 +12333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -12329,7 +12347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -12343,7 +12361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -12357,7 +12375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -12371,7 +12389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -12385,7 +12403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -12399,7 +12417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -12413,7 +12431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -12449,12 +12467,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>115</v>
       </c>
@@ -12465,7 +12483,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>117</v>
       </c>
@@ -12474,7 +12492,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35" t="s">
         <v>118</v>
       </c>
@@ -12483,7 +12501,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="35" t="s">
         <v>119</v>
       </c>
@@ -12492,7 +12510,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35" t="s">
         <v>120</v>
       </c>
@@ -12503,7 +12521,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35" t="s">
         <v>121</v>
       </c>
@@ -12514,7 +12532,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35" t="s">
         <v>122</v>
       </c>
@@ -12525,7 +12543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
         <v>123</v>
       </c>
@@ -12534,7 +12552,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35" t="s">
         <v>124</v>
       </c>
@@ -12543,7 +12561,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="35" t="s">
         <v>125</v>
       </c>
@@ -12576,14 +12594,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7890625" customWidth="1"/>
+    <col min="2" max="4" width="12.7890625" customWidth="1"/>
+    <col min="5" max="5" width="20.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -12597,7 +12615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>80</v>
       </c>
@@ -12611,7 +12629,7 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35" t="s">
         <v>81</v>
       </c>
@@ -12625,7 +12643,7 @@
         <v>6.4084654318813022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="35" t="s">
         <v>82</v>
       </c>
@@ -12639,7 +12657,7 @@
         <v>6.0600247743600254E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35" t="s">
         <v>83</v>
       </c>
@@ -12653,7 +12671,7 @@
         <v>6.0703878213611638E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35" t="s">
         <v>84</v>
       </c>
@@ -12667,7 +12685,7 @@
         <v>6.4051402944234115E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35" t="s">
         <v>85</v>
       </c>
@@ -12681,7 +12699,7 @@
         <v>7.8032799832215824E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
         <v>86</v>
       </c>
@@ -12695,7 +12713,7 @@
         <v>9.129394265165322E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35" t="s">
         <v>87</v>
       </c>
@@ -12709,7 +12727,7 @@
         <v>7.2674867820140321E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="35" t="s">
         <v>88</v>
       </c>
@@ -12723,7 +12741,7 @@
         <v>9.393164701025386E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35" t="s">
         <v>89</v>
       </c>
@@ -12737,7 +12755,7 @@
         <v>0.1277403545528342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="35" t="s">
         <v>90</v>
       </c>
@@ -12751,7 +12769,7 @@
         <v>0.13255239757366111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35" t="s">
         <v>91</v>
       </c>
@@ -12782,15 +12800,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>92</v>
       </c>
@@ -12819,7 +12837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
@@ -12844,7 +12862,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>265</v>
       </c>
@@ -12869,7 +12887,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>266</v>
       </c>
@@ -12888,7 +12906,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>264</v>
       </c>
@@ -12911,7 +12929,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>269</v>
       </c>
@@ -12932,7 +12950,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
@@ -12951,7 +12969,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
@@ -12970,7 +12988,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>284</v>
       </c>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/brittany_hagedorn_gatesfoundation_org/Documents/Documents/GitHub/PACE-HRH/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72427F04-C22B-45A4-9B74-DF5D38A44693}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB5603E7-7369-4D7E-B9FE-FA8CF642DFD8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" tabRatio="830" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="10" activeTab="14" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -28,13 +28,11 @@
     <sheet name="CoverageRates" sheetId="114" r:id="rId13"/>
     <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId14"/>
     <sheet name="CadreRoles" sheetId="111" r:id="rId15"/>
-    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId16"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId17"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId18"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
@@ -48,7 +46,7 @@
     <definedName name="total_pop" localSheetId="4">TotalPop!#REF!</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop2" localSheetId="3">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
     <definedName name="weeks" localSheetId="3">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
@@ -314,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="348">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1214,12 +1212,6 @@
   </si>
   <si>
     <t>PopValues</t>
-  </si>
-  <si>
-    <t>Family health professional 1</t>
-  </si>
-  <si>
-    <t>Family health professional 2</t>
   </si>
   <si>
     <t>ScenarioID</t>
@@ -2138,149 +2130,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="To Do or Upgrade"/>
-      <sheetName val="Inputs Assump"/>
-      <sheetName val="C FTE Equiv"/>
-      <sheetName val="C Tot Hrs by Cat"/>
-      <sheetName val="C Variance"/>
-      <sheetName val="Time Summary"/>
-      <sheetName val="C Hrs by Category (3)"/>
-      <sheetName val="C Hrs by Category (2)"/>
-      <sheetName val="C Ratio to Baseline"/>
-      <sheetName val="Pie 2020"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="Demographics_InCalc"/>
-      <sheetName val="Births"/>
-      <sheetName val="Mortality"/>
-      <sheetName val="FH.MC"/>
-      <sheetName val="FH.FP"/>
-      <sheetName val="FH.Im"/>
-      <sheetName val="FH.N"/>
-      <sheetName val="DPC"/>
-      <sheetName val="Other"/>
-      <sheetName val="DATA"/>
-      <sheetName val="Ssn Malaria"/>
-      <sheetName val="Ssn Nutr"/>
-      <sheetName val="Ssn Measles"/>
-      <sheetName val="Demographics_Total"/>
-      <sheetName val="Prevalences"/>
-      <sheetName val="Work time"/>
-      <sheetName val="Sheet21"/>
-      <sheetName val="Services summary"/>
-      <sheetName val="Services ref"/>
-      <sheetName val="Coverage impacts"/>
-      <sheetName val="Pop M"/>
-      <sheetName val="Pop F"/>
-      <sheetName val="TB Incidence"/>
-      <sheetName val="Malaria Incid"/>
-      <sheetName val="C Fertility"/>
-      <sheetName val="fertility"/>
-      <sheetName val="FP mod"/>
-      <sheetName val="unmet need"/>
-      <sheetName val="HIV Prev"/>
-      <sheetName val="HIV Incid"/>
-      <sheetName val="mort infant"/>
-      <sheetName val="mort 1-5"/>
-      <sheetName val="mort 5-9"/>
-      <sheetName val="mort 10-14"/>
-      <sheetName val="mort 15-19"/>
-      <sheetName val="mort 20-24"/>
-      <sheetName val="mort adult f"/>
-      <sheetName val="mort adult m"/>
-      <sheetName val="Staffing Ratios"/>
-      <sheetName val="fertility 15-19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Ratio max rural</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="V4">
-            <v>105.34416988791497</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24">
-        <row r="3">
-          <cell r="CZ3">
-            <v>115103531.71799999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39">
-        <row r="77">
-          <cell r="BC77">
-            <v>1.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="40">
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>Ethiopia</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Rui Han (AgileOne)" id="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" userId="S::rui.han@gatesfoundation.org::8e2486fc-4f63-445b-b2ee-a849708c4214" providerId="AD"/>
@@ -2635,16 +2484,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P3" s="28" t="b">
         <v>1</v>
@@ -2656,9 +2505,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P4" s="28" t="b">
         <v>0</v>
@@ -2670,7 +2519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>259</v>
       </c>
@@ -2679,22 +2528,22 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H12" t="s">
         <v>139</v>
       </c>
@@ -2717,28 +2566,28 @@
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26171875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.89453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.3671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.47265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.47265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -2791,7 +2640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>279</v>
       </c>
@@ -2832,7 +2681,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -2873,7 +2722,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>279</v>
       </c>
@@ -2915,7 +2764,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -2957,7 +2806,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="64" t="s">
         <v>279</v>
       </c>
@@ -2999,7 +2848,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -3041,7 +2890,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -3083,7 +2932,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3125,7 +2974,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3167,7 +3016,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
         <v>281</v>
       </c>
@@ -3213,7 +3062,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>281</v>
       </c>
@@ -3259,7 +3108,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -3305,7 +3154,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
@@ -3347,7 +3196,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -3389,7 +3238,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -3442,27 +3291,27 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.3671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.47265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.47265625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="25.1015625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.7890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1015625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -3515,7 +3364,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>279</v>
       </c>
@@ -3556,7 +3405,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -3597,7 +3446,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>279</v>
       </c>
@@ -3639,7 +3488,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -3681,7 +3530,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="64" t="s">
         <v>279</v>
       </c>
@@ -3723,7 +3572,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -3765,7 +3614,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -3807,7 +3656,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3849,7 +3698,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3891,7 +3740,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
         <v>281</v>
       </c>
@@ -3937,7 +3786,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>281</v>
       </c>
@@ -3983,7 +3832,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -4029,7 +3878,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
@@ -4071,7 +3920,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -4113,7 +3962,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>287</v>
       </c>
@@ -4155,7 +4004,7 @@
       </c>
       <c r="P16" s="62"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>287</v>
       </c>
@@ -4197,7 +4046,7 @@
       </c>
       <c r="P17" s="62"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>287</v>
       </c>
@@ -4239,7 +4088,7 @@
       </c>
       <c r="P18" s="62"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>287</v>
       </c>
@@ -4281,7 +4130,7 @@
       </c>
       <c r="P19" s="62"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>287</v>
       </c>
@@ -4323,7 +4172,7 @@
       </c>
       <c r="P20" s="62"/>
     </row>
-    <row r="21" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="64" t="s">
         <v>287</v>
       </c>
@@ -4365,7 +4214,7 @@
       </c>
       <c r="P21" s="72"/>
     </row>
-    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
         <v>283</v>
       </c>
@@ -4407,7 +4256,7 @@
       </c>
       <c r="P22" s="59"/>
     </row>
-    <row r="23" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="64" t="s">
         <v>283</v>
       </c>
@@ -4448,7 +4297,7 @@
       </c>
       <c r="P23" s="72"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -4458,7 +4307,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -4468,7 +4317,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -4519,15 +4368,15 @@
       <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4535,70 +4384,70 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="V1" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4670,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -4741,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4749,7 +4598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -4757,7 +4606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -4765,7 +4614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -4773,7 +4622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -4781,7 +4630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -4789,7 +4638,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -4797,7 +4646,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -4805,7 +4654,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -4813,7 +4662,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -4821,7 +4670,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -4829,7 +4678,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -4837,7 +4686,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -4860,7 +4709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -4868,7 +4717,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -4876,7 +4725,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -4884,7 +4733,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -4892,7 +4741,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -4923,15 +4772,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4939,70 +4788,70 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="V1" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -5010,7 +4859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5021,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -5029,7 +4878,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -5037,7 +4886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -5045,7 +4894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -5053,7 +4902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -5061,7 +4910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -5069,7 +4918,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -5077,7 +4926,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -5085,7 +4934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -5093,7 +4942,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -5101,7 +4950,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -5109,7 +4958,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -5117,7 +4966,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -5125,7 +4974,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -5133,7 +4982,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -5141,7 +4990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -5149,7 +4998,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -5157,7 +5006,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -5189,27 +5038,27 @@
       <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1015625" customWidth="1"/>
-    <col min="3" max="3" width="12.7890625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" s="88" t="str">
         <f>_xlfn.CONCAT("StartYear", 2020)</f>
@@ -5268,7 +5117,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>36</v>
       </c>
@@ -5276,49 +5125,49 @@
         <v>37</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N2" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="O2" s="90" t="s">
         <v>306</v>
-      </c>
-      <c r="O2" s="90" t="s">
-        <v>308</v>
       </c>
       <c r="P2" s="91" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>51</v>
       </c>
@@ -5373,7 +5222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
@@ -5428,7 +5277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>264</v>
       </c>
@@ -5483,7 +5332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>265</v>
       </c>
@@ -5538,7 +5387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>266</v>
       </c>
@@ -5593,7 +5442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>270</v>
       </c>
@@ -5648,7 +5497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>271</v>
       </c>
@@ -5703,7 +5552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>269</v>
       </c>
@@ -5758,7 +5607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>267</v>
       </c>
@@ -5813,7 +5662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>268</v>
       </c>
@@ -5868,7 +5717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>284</v>
       </c>
@@ -5923,7 +5772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>297</v>
       </c>
@@ -5978,7 +5827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>272</v>
       </c>
@@ -6033,7 +5882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>273</v>
       </c>
@@ -6088,7 +5937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>290</v>
       </c>
@@ -6143,7 +5992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>291</v>
       </c>
@@ -6198,7 +6047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>292</v>
       </c>
@@ -6253,7 +6102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>294</v>
       </c>
@@ -6308,7 +6157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>295</v>
       </c>
@@ -6363,7 +6212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>293</v>
       </c>
@@ -6418,7 +6267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>263</v>
       </c>
@@ -6473,7 +6322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
@@ -6562,34 +6411,34 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>304</v>
-      </c>
       <c r="D1" s="82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>247</v>
@@ -6598,15 +6447,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2" s="22">
         <v>5</v>
@@ -6618,15 +6467,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="22">
         <v>5</v>
@@ -6636,15 +6485,15 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
@@ -6654,15 +6503,15 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D5" s="22">
         <v>5</v>
@@ -6674,15 +6523,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" s="22">
         <v>5</v>
@@ -6692,15 +6541,15 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D7" s="22">
         <v>5</v>
@@ -6710,15 +6559,15 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D8" s="22">
         <v>5</v>
@@ -6730,15 +6579,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D9" s="22">
         <v>5</v>
@@ -6748,15 +6597,15 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D10" s="22">
         <v>5</v>
@@ -6766,9 +6615,65 @@
       </c>
       <c r="F10" s="5"/>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
@@ -6785,7 +6690,7 @@
           <x14:formula1>
             <xm:f>Lookup!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6794,242 +6699,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.89453125" customWidth="1"/>
-    <col min="3" max="3" width="24.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="22">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="22">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="22">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="22">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="22">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="22">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576" xr:uid="{84C800FA-7F8B-4EE2-8398-AA95BB3DDFEE}">
-      <formula1>2020</formula1>
-      <formula2>2100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{BA98C55F-F014-4330-9EA6-6C245C37609F}">
-      <formula1>0</formula1>
-      <formula2>40</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E93D8D1-F1CA-4B53-9614-FFCB4AD52B08}">
-          <x14:formula1>
-            <xm:f>Lookup!$L$2:$L$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7037,14 +6706,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.15625" customWidth="1"/>
-    <col min="2" max="2" width="77.7890625" customWidth="1"/>
-    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="77.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -7055,7 +6724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7066,7 +6735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7077,7 +6746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7088,7 +6757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7099,7 +6768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7110,7 +6779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7121,7 +6790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7132,7 +6801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7143,7 +6812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7159,7 +6828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
@@ -7167,17 +6836,17 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.7890625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
     <col min="6" max="6" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5234375" customWidth="1"/>
-    <col min="10" max="10" width="12.734375" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>145</v>
       </c>
@@ -7200,10 +6869,10 @@
         <v>176</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>171</v>
       </c>
@@ -7226,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>172</v>
       </c>
@@ -7252,10 +6921,10 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>173</v>
       </c>
@@ -7278,10 +6947,10 @@
         <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
@@ -7304,10 +6973,10 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
@@ -7330,7 +6999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>65</v>
@@ -7351,7 +7020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>66</v>
@@ -7372,7 +7041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>4</v>
@@ -7393,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
@@ -7413,7 +7082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
@@ -7433,7 +7102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
@@ -7453,7 +7122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D13" s="4" t="s">
         <v>100</v>
       </c>
@@ -7473,7 +7142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
@@ -7493,7 +7162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7513,7 +7182,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F16" s="4" t="s">
         <v>227</v>
       </c>
@@ -7530,7 +7199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F17" s="4" t="s">
         <v>228</v>
       </c>
@@ -7547,7 +7216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F18" s="4" t="s">
         <v>229</v>
       </c>
@@ -7564,7 +7233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F19" s="4" t="s">
         <v>233</v>
       </c>
@@ -7581,7 +7250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F20" s="4" t="s">
         <v>234</v>
       </c>
@@ -7598,7 +7267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F21" s="4" t="s">
         <v>160</v>
       </c>
@@ -7615,7 +7284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F22" s="4" t="s">
         <v>77</v>
       </c>
@@ -7632,7 +7301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
@@ -7649,7 +7318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F24" s="4" t="s">
         <v>73</v>
       </c>
@@ -7666,7 +7335,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F25" s="4" t="s">
         <v>67</v>
       </c>
@@ -7680,7 +7349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F26" s="4" t="s">
         <v>174</v>
       </c>
@@ -7694,7 +7363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F27" s="4" t="s">
         <v>235</v>
       </c>
@@ -7708,7 +7377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F28" s="4" t="s">
         <v>230</v>
       </c>
@@ -7722,7 +7391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F29" s="4" t="s">
         <v>226</v>
       </c>
@@ -7736,7 +7405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F30" s="4" t="s">
         <v>165</v>
       </c>
@@ -7750,7 +7419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F31" s="4" t="s">
         <v>78</v>
       </c>
@@ -7767,7 +7436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F32" s="4" t="s">
         <v>163</v>
       </c>
@@ -7784,7 +7453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F33" s="4" t="s">
         <v>236</v>
       </c>
@@ -7801,7 +7470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F34" s="4" t="s">
         <v>237</v>
       </c>
@@ -7818,7 +7487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F35" s="4" t="s">
         <v>238</v>
       </c>
@@ -7835,7 +7504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F36" s="4" t="s">
         <v>239</v>
       </c>
@@ -7852,7 +7521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F37" s="4" t="s">
         <v>240</v>
       </c>
@@ -7869,7 +7538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F38" s="4" t="s">
         <v>241</v>
       </c>
@@ -7886,7 +7555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F39" s="4" t="s">
         <v>242</v>
       </c>
@@ -7903,7 +7572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F40" s="4" t="s">
         <v>243</v>
       </c>
@@ -7920,7 +7589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F41" s="4" t="s">
         <v>244</v>
       </c>
@@ -7937,7 +7606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F42" s="4" t="s">
         <v>245</v>
       </c>
@@ -7954,7 +7623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F43" s="4" t="s">
         <v>164</v>
       </c>
@@ -7971,7 +7640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F44" s="4" t="s">
         <v>70</v>
       </c>
@@ -7982,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F45" s="4" t="s">
         <v>65</v>
       </c>
@@ -7993,283 +7662,283 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -8285,27 +7954,27 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.89453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.89453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
@@ -8316,7 +7985,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>9</v>
@@ -8346,10 +8015,10 @@
         <v>170</v>
       </c>
       <c r="N1" s="83" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>298</v>
       </c>
@@ -8387,13 +8056,13 @@
         <v>143</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>258</v>
       </c>
@@ -8431,13 +8100,13 @@
         <v>143</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>296</v>
       </c>
@@ -8475,15 +8144,15 @@
         <v>143</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" s="27">
         <v>48</v>
@@ -8519,13 +8188,13 @@
         <v>143</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -8535,7 +8204,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -8545,7 +8214,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8556,7 +8225,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8566,7 +8235,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8619,19 +8288,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.734375" style="15"/>
-    <col min="8" max="8" width="11.5234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="15"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.5">
       <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
@@ -8657,7 +8326,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -8683,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -8709,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -8735,7 +8404,7 @@
         <v>0.98846927759109204</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -8761,7 +8430,7 @@
         <v>0.99316389691241536</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -8787,7 +8456,7 @@
         <v>0.98022410443373342</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -8813,7 +8482,7 @@
         <v>0.97771923789514636</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -8839,7 +8508,7 @@
         <v>0.97393215219000295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -8865,7 +8534,7 @@
         <v>0.95811661983967134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8891,7 +8560,7 @@
         <v>0.91700404320467122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -8917,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -8943,7 +8612,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -8969,7 +8638,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -8995,7 +8664,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -9021,7 +8690,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -9047,7 +8716,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -9073,7 +8742,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -9099,7 +8768,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -9125,7 +8794,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -9151,7 +8820,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -9177,7 +8846,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -9203,7 +8872,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -9229,7 +8898,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -9255,7 +8924,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -9281,7 +8950,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -9307,7 +8976,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -9333,7 +9002,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -9359,7 +9028,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -9385,7 +9054,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -9411,7 +9080,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -9482,24 +9151,24 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.89453125" customWidth="1"/>
-    <col min="2" max="3" width="5.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
         <v>103</v>
       </c>
@@ -9510,7 +9179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="95" t="s">
         <v>180</v>
       </c>
@@ -9521,9 +9190,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
@@ -9545,14 +9214,14 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.26171875" customWidth="1"/>
-    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -9566,7 +9235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -9580,7 +9249,7 @@
         <v>3575570</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -9595,7 +9264,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -9610,7 +9279,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -9625,7 +9294,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -9639,7 +9308,7 @@
         <v>3155986</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -9653,7 +9322,7 @@
         <v>3116265</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -9667,7 +9336,7 @@
         <v>3084419</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -9681,7 +9350,7 @@
         <v>3049213</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -9695,7 +9364,7 @@
         <v>3002143</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -9709,7 +9378,7 @@
         <v>2945614</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -9723,7 +9392,7 @@
         <v>2884765</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -9738,7 +9407,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -9752,7 +9421,7 @@
         <v>2770640</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -9766,7 +9435,7 @@
         <v>2726244</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -9780,7 +9449,7 @@
         <v>2689714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -9794,7 +9463,7 @@
         <v>2657834</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -9808,7 +9477,7 @@
         <v>2627389</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -9822,7 +9491,7 @@
         <v>2595159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -9836,7 +9505,7 @@
         <v>2558367</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -9850,7 +9519,7 @@
         <v>2515982</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -9864,7 +9533,7 @@
         <v>2467416</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -9878,7 +9547,7 @@
         <v>2412076</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -9892,7 +9561,7 @@
         <v>2349372</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -9906,7 +9575,7 @@
         <v>2278980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -9920,7 +9589,7 @@
         <v>2201663</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -9934,7 +9603,7 @@
         <v>2118447</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -9948,7 +9617,7 @@
         <v>2030363</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -9962,7 +9631,7 @@
         <v>1938438</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -9976,7 +9645,7 @@
         <v>1844075</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -9990,7 +9659,7 @@
         <v>1750163</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -10004,7 +9673,7 @@
         <v>1659968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -10018,7 +9687,7 @@
         <v>1576752</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -10032,7 +9701,7 @@
         <v>1503779</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -10046,7 +9715,7 @@
         <v>1443096</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -10060,7 +9729,7 @@
         <v>1391888</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -10074,7 +9743,7 @@
         <v>1346124</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -10088,7 +9757,7 @@
         <v>1301771</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -10102,7 +9771,7 @@
         <v>1254797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -10116,7 +9785,7 @@
         <v>1202349</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -10130,7 +9799,7 @@
         <v>1146286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -10144,7 +9813,7 @@
         <v>1089647</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -10158,7 +9827,7 @@
         <v>1035469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -10172,7 +9841,7 @@
         <v>986789</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -10186,7 +9855,7 @@
         <v>945756</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -10200,7 +9869,7 @@
         <v>910958</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -10214,7 +9883,7 @@
         <v>880091</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -10228,7 +9897,7 @@
         <v>850854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -10242,7 +9911,7 @@
         <v>820942</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -10256,7 +9925,7 @@
         <v>788573</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -10270,7 +9939,7 @@
         <v>754051</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -10284,7 +9953,7 @@
         <v>718191</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -10298,7 +9967,7 @@
         <v>681818</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -10312,7 +9981,7 @@
         <v>645749</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -10326,7 +9995,7 @@
         <v>610778</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -10340,7 +10009,7 @@
         <v>577578</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -10354,7 +10023,7 @@
         <v>546796</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -10368,7 +10037,7 @@
         <v>519076</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -10382,7 +10051,7 @@
         <v>495064</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -10396,7 +10065,7 @@
         <v>475071</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -10410,7 +10079,7 @@
         <v>458062</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -10424,7 +10093,7 @@
         <v>442669</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -10438,7 +10107,7 @@
         <v>427522</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -10452,7 +10121,7 @@
         <v>411253</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -10466,7 +10135,7 @@
         <v>392879</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -10480,7 +10149,7 @@
         <v>372973</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -10494,7 +10163,7 @@
         <v>352494</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -10508,7 +10177,7 @@
         <v>332403</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -10522,7 +10191,7 @@
         <v>313658</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -10536,7 +10205,7 @@
         <v>296932</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -10550,7 +10219,7 @@
         <v>281741</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -10564,7 +10233,7 @@
         <v>267317</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -10578,7 +10247,7 @@
         <v>252889</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -10592,7 +10261,7 @@
         <v>237687</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -10606,7 +10275,7 @@
         <v>221142</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -10620,7 +10289,7 @@
         <v>203487</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -10634,7 +10303,7 @@
         <v>185155</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -10648,7 +10317,7 @@
         <v>166577</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -10662,7 +10331,7 @@
         <v>148186</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -10676,7 +10345,7 @@
         <v>130387</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -10690,7 +10359,7 @@
         <v>113452</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -10704,7 +10373,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -10718,7 +10387,7 @@
         <v>83166</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -10732,7 +10401,7 @@
         <v>70305</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -10746,7 +10415,7 @@
         <v>59208</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -10760,7 +10429,7 @@
         <v>49694</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -10774,7 +10443,7 @@
         <v>41497</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -10788,7 +10457,7 @@
         <v>34350</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -10802,7 +10471,7 @@
         <v>27988</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -10816,7 +10485,7 @@
         <v>22203</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -10830,7 +10499,7 @@
         <v>17007</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -10844,7 +10513,7 @@
         <v>12474</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -10858,7 +10527,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -10872,7 +10541,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -10886,7 +10555,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -10900,7 +10569,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -10914,7 +10583,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -10928,7 +10597,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -10942,7 +10611,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -10956,7 +10625,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -10970,7 +10639,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -11006,14 +10675,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.26171875" customWidth="1"/>
-    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -11027,7 +10696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -11041,7 +10710,7 @@
         <v>48809</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -11056,7 +10725,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -11071,7 +10740,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -11086,7 +10755,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -11100,7 +10769,7 @@
         <v>47623</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -11114,7 +10783,7 @@
         <v>50657</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -11128,7 +10797,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -11142,7 +10811,7 @@
         <v>57562</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -11156,7 +10825,7 @@
         <v>60434</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -11170,7 +10839,7 @@
         <v>62648</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -11184,7 +10853,7 @@
         <v>64171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -11199,7 +10868,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -11213,7 +10882,7 @@
         <v>65009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -11227,7 +10896,7 @@
         <v>64277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -11241,7 +10910,7 @@
         <v>62842</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -11255,7 +10924,7 @@
         <v>60798</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -11269,7 +10938,7 @@
         <v>58233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -11283,7 +10952,7 @@
         <v>55238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -11297,7 +10966,7 @@
         <v>51920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -11311,7 +10980,7 @@
         <v>48445</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -11325,7 +10994,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -11339,7 +11008,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -11353,7 +11022,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -11367,7 +11036,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -11381,7 +11050,7 @@
         <v>34692</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -11395,7 +11064,7 @@
         <v>33142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -11409,7 +11078,7 @@
         <v>31801</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -11423,7 +11092,7 @@
         <v>30547</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -11437,7 +11106,7 @@
         <v>29292</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -11451,7 +11120,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -11465,7 +11134,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -11479,7 +11148,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -11493,7 +11162,7 @@
         <v>25540</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -11507,7 +11176,7 @@
         <v>25287</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -11521,7 +11190,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -11535,7 +11204,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -11549,7 +11218,7 @@
         <v>25525</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -11563,7 +11232,7 @@
         <v>25534</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -11577,7 +11246,7 @@
         <v>25328</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -11591,7 +11260,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -11605,7 +11274,7 @@
         <v>24209</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -11619,7 +11288,7 @@
         <v>23299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -11633,7 +11302,7 @@
         <v>22156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -11647,7 +11316,7 @@
         <v>20797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -11661,7 +11330,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -11675,7 +11344,7 @@
         <v>17771</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -11689,7 +11358,7 @@
         <v>16299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -11703,7 +11372,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -11717,7 +11386,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -11731,7 +11400,7 @@
         <v>12985</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -11745,7 +11414,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -11759,7 +11428,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -11773,7 +11442,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -11787,7 +11456,7 @@
         <v>9830</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -11801,7 +11470,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -11815,7 +11484,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -11829,7 +11498,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -11843,7 +11512,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -11857,7 +11526,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -11871,7 +11540,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -11885,7 +11554,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -11899,7 +11568,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -11913,7 +11582,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -11927,7 +11596,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -11941,7 +11610,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -11955,7 +11624,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -11969,7 +11638,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -11983,7 +11652,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -11997,7 +11666,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -12011,7 +11680,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -12025,7 +11694,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -12039,7 +11708,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -12053,7 +11722,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -12067,7 +11736,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -12081,7 +11750,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -12095,7 +11764,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -12109,7 +11778,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -12123,7 +11792,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -12137,7 +11806,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -12151,7 +11820,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -12165,7 +11834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -12179,7 +11848,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -12193,7 +11862,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -12207,7 +11876,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -12221,7 +11890,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -12235,7 +11904,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -12249,7 +11918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -12263,7 +11932,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -12277,7 +11946,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -12291,7 +11960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -12305,7 +11974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -12319,7 +11988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -12333,7 +12002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -12347,7 +12016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -12361,7 +12030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -12375,7 +12044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -12389,7 +12058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -12403,7 +12072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -12417,7 +12086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -12431,7 +12100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -12467,12 +12136,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5234375" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>115</v>
       </c>
@@ -12483,7 +12152,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>117</v>
       </c>
@@ -12492,7 +12161,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>118</v>
       </c>
@@ -12501,7 +12170,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>119</v>
       </c>
@@ -12510,7 +12179,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>120</v>
       </c>
@@ -12521,7 +12190,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>121</v>
       </c>
@@ -12532,7 +12201,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>122</v>
       </c>
@@ -12543,7 +12212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>123</v>
       </c>
@@ -12552,7 +12221,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>124</v>
       </c>
@@ -12561,7 +12230,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>125</v>
       </c>
@@ -12594,14 +12263,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7890625" customWidth="1"/>
-    <col min="2" max="4" width="12.7890625" customWidth="1"/>
-    <col min="5" max="5" width="20.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -12615,7 +12284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>80</v>
       </c>
@@ -12629,7 +12298,7 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>81</v>
       </c>
@@ -12643,7 +12312,7 @@
         <v>6.4084654318813022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>82</v>
       </c>
@@ -12657,7 +12326,7 @@
         <v>6.0600247743600254E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>83</v>
       </c>
@@ -12671,7 +12340,7 @@
         <v>6.0703878213611638E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>84</v>
       </c>
@@ -12685,7 +12354,7 @@
         <v>6.4051402944234115E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>85</v>
       </c>
@@ -12699,7 +12368,7 @@
         <v>7.8032799832215824E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>86</v>
       </c>
@@ -12713,7 +12382,7 @@
         <v>9.129394265165322E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>87</v>
       </c>
@@ -12727,7 +12396,7 @@
         <v>7.2674867820140321E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>88</v>
       </c>
@@ -12741,7 +12410,7 @@
         <v>9.393164701025386E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>89</v>
       </c>
@@ -12755,7 +12424,7 @@
         <v>0.1277403545528342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>90</v>
       </c>
@@ -12769,7 +12438,7 @@
         <v>0.13255239757366111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>91</v>
       </c>
@@ -12800,15 +12469,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.47265625" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>92</v>
       </c>
@@ -12837,7 +12506,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
@@ -12862,7 +12531,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>265</v>
       </c>
@@ -12887,7 +12556,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>266</v>
       </c>
@@ -12906,7 +12575,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>264</v>
       </c>
@@ -12929,7 +12598,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>269</v>
       </c>
@@ -12950,7 +12619,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
@@ -12969,7 +12638,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
@@ -12988,7 +12657,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>284</v>
       </c>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/brittany_hagedorn_gatesfoundation_org/Documents/Documents/GitHub/PACE-HRH/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB5603E7-7369-4D7E-B9FE-FA8CF642DFD8}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72427F04-C22B-45A4-9B74-DF5D38A44693}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="10" activeTab="14" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" tabRatio="830" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -28,11 +28,13 @@
     <sheet name="CoverageRates" sheetId="114" r:id="rId13"/>
     <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId14"/>
     <sheet name="CadreRoles" sheetId="111" r:id="rId15"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId17"/>
+    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId16"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId17"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
@@ -46,7 +48,7 @@
     <definedName name="total_pop" localSheetId="4">TotalPop!#REF!</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop2" localSheetId="3">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2">[2]Demographics_Total!$CZ$3</definedName>
     <definedName name="weeks" localSheetId="3">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
@@ -312,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="350">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1212,6 +1214,12 @@
   </si>
   <si>
     <t>PopValues</t>
+  </si>
+  <si>
+    <t>Family health professional 1</t>
+  </si>
+  <si>
+    <t>Family health professional 2</t>
   </si>
   <si>
     <t>ScenarioID</t>
@@ -2130,6 +2138,149 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="To Do or Upgrade"/>
+      <sheetName val="Inputs Assump"/>
+      <sheetName val="C FTE Equiv"/>
+      <sheetName val="C Tot Hrs by Cat"/>
+      <sheetName val="C Variance"/>
+      <sheetName val="Time Summary"/>
+      <sheetName val="C Hrs by Category (3)"/>
+      <sheetName val="C Hrs by Category (2)"/>
+      <sheetName val="C Ratio to Baseline"/>
+      <sheetName val="Pie 2020"/>
+      <sheetName val="Calculations"/>
+      <sheetName val="Demographics_InCalc"/>
+      <sheetName val="Births"/>
+      <sheetName val="Mortality"/>
+      <sheetName val="FH.MC"/>
+      <sheetName val="FH.FP"/>
+      <sheetName val="FH.Im"/>
+      <sheetName val="FH.N"/>
+      <sheetName val="DPC"/>
+      <sheetName val="Other"/>
+      <sheetName val="DATA"/>
+      <sheetName val="Ssn Malaria"/>
+      <sheetName val="Ssn Nutr"/>
+      <sheetName val="Ssn Measles"/>
+      <sheetName val="Demographics_Total"/>
+      <sheetName val="Prevalences"/>
+      <sheetName val="Work time"/>
+      <sheetName val="Sheet21"/>
+      <sheetName val="Services summary"/>
+      <sheetName val="Services ref"/>
+      <sheetName val="Coverage impacts"/>
+      <sheetName val="Pop M"/>
+      <sheetName val="Pop F"/>
+      <sheetName val="TB Incidence"/>
+      <sheetName val="Malaria Incid"/>
+      <sheetName val="C Fertility"/>
+      <sheetName val="fertility"/>
+      <sheetName val="FP mod"/>
+      <sheetName val="unmet need"/>
+      <sheetName val="HIV Prev"/>
+      <sheetName val="HIV Incid"/>
+      <sheetName val="mort infant"/>
+      <sheetName val="mort 1-5"/>
+      <sheetName val="mort 5-9"/>
+      <sheetName val="mort 10-14"/>
+      <sheetName val="mort 15-19"/>
+      <sheetName val="mort 20-24"/>
+      <sheetName val="mort adult f"/>
+      <sheetName val="mort adult m"/>
+      <sheetName val="Staffing Ratios"/>
+      <sheetName val="fertility 15-19"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Ratio max rural</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="V4">
+            <v>105.34416988791497</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24">
+        <row r="3">
+          <cell r="CZ3">
+            <v>115103531.71799999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39">
+        <row r="77">
+          <cell r="BC77">
+            <v>1.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="40">
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Ethiopia</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Rui Han (AgileOne)" id="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" userId="S::rui.han@gatesfoundation.org::8e2486fc-4f63-445b-b2ee-a849708c4214" providerId="AD"/>
@@ -2484,16 +2635,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P3" s="28" t="b">
         <v>1</v>
@@ -2505,9 +2656,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P4" s="28" t="b">
         <v>0</v>
@@ -2519,7 +2670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
         <v>259</v>
       </c>
@@ -2528,22 +2679,22 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" t="s">
         <v>139</v>
       </c>
@@ -2566,28 +2717,28 @@
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26171875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.89453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.3671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.47265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.47265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -2640,7 +2791,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52" t="s">
         <v>279</v>
       </c>
@@ -2681,7 +2832,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -2722,7 +2873,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>279</v>
       </c>
@@ -2764,7 +2915,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -2806,7 +2957,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="64" t="s">
         <v>279</v>
       </c>
@@ -2848,7 +2999,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -2890,7 +3041,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -2932,7 +3083,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -2974,7 +3125,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3016,7 +3167,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="52" t="s">
         <v>281</v>
       </c>
@@ -3062,7 +3213,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>281</v>
       </c>
@@ -3108,7 +3259,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -3154,7 +3305,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
@@ -3196,7 +3347,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -3238,7 +3389,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -3291,27 +3442,27 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1015625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.47265625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="25.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1015625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -3364,7 +3515,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52" t="s">
         <v>279</v>
       </c>
@@ -3405,7 +3556,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -3446,7 +3597,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>279</v>
       </c>
@@ -3488,7 +3639,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -3530,7 +3681,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="64" t="s">
         <v>279</v>
       </c>
@@ -3572,7 +3723,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -3614,7 +3765,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -3656,7 +3807,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3698,7 +3849,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3740,7 +3891,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="52" t="s">
         <v>281</v>
       </c>
@@ -3786,7 +3937,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>281</v>
       </c>
@@ -3832,7 +3983,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -3878,7 +4029,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
@@ -3920,7 +4071,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -3962,7 +4113,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>287</v>
       </c>
@@ -4004,7 +4155,7 @@
       </c>
       <c r="P16" s="62"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>287</v>
       </c>
@@ -4046,7 +4197,7 @@
       </c>
       <c r="P17" s="62"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>287</v>
       </c>
@@ -4088,7 +4239,7 @@
       </c>
       <c r="P18" s="62"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>287</v>
       </c>
@@ -4130,7 +4281,7 @@
       </c>
       <c r="P19" s="62"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>287</v>
       </c>
@@ -4172,7 +4323,7 @@
       </c>
       <c r="P20" s="62"/>
     </row>
-    <row r="21" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="64" t="s">
         <v>287</v>
       </c>
@@ -4214,7 +4365,7 @@
       </c>
       <c r="P21" s="72"/>
     </row>
-    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="52" t="s">
         <v>283</v>
       </c>
@@ -4256,7 +4407,7 @@
       </c>
       <c r="P22" s="59"/>
     </row>
-    <row r="23" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="64" t="s">
         <v>283</v>
       </c>
@@ -4297,7 +4448,7 @@
       </c>
       <c r="P23" s="72"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -4307,7 +4458,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -4317,7 +4468,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -4368,15 +4519,15 @@
       <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4384,70 +4535,70 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P1" s="103" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="103" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="R1" s="103" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="S1" s="103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="T1" s="103" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U1" s="103" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="V1" s="103" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="W1" s="103" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4519,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -4590,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4598,7 +4749,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -4606,7 +4757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -4614,7 +4765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -4622,7 +4773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -4630,7 +4781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -4638,7 +4789,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -4646,7 +4797,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -4654,7 +4805,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -4662,7 +4813,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -4670,7 +4821,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -4678,7 +4829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -4686,7 +4837,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -4709,7 +4860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -4717,7 +4868,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -4725,7 +4876,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -4733,7 +4884,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -4741,7 +4892,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -4772,15 +4923,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4788,70 +4939,70 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P1" s="103" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="103" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="R1" s="103" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="S1" s="103" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="T1" s="103" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U1" s="103" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="V1" s="103" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="W1" s="103" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4859,7 +5010,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -4870,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4878,7 +5029,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -4886,7 +5037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -4894,7 +5045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -4902,7 +5053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -4910,7 +5061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -4918,7 +5069,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -4926,7 +5077,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -4934,7 +5085,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -4942,7 +5093,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -4950,7 +5101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -4958,7 +5109,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -4966,7 +5117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -4974,7 +5125,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -4982,7 +5133,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -4990,7 +5141,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -4998,7 +5149,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -5006,7 +5157,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -5038,27 +5189,27 @@
       <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1015625" customWidth="1"/>
+    <col min="3" max="3" width="12.7890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="85" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C1" s="88" t="str">
         <f>_xlfn.CONCAT("StartYear", 2020)</f>
@@ -5117,7 +5268,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="86" t="s">
         <v>36</v>
       </c>
@@ -5125,49 +5276,49 @@
         <v>37</v>
       </c>
       <c r="C2" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="90" t="s">
         <v>308</v>
-      </c>
-      <c r="D2" s="90" t="s">
-        <v>306</v>
       </c>
       <c r="E2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="90" t="s">
         <v>308</v>
-      </c>
-      <c r="G2" s="90" t="s">
-        <v>306</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>305</v>
+      </c>
+      <c r="K2" s="90" t="s">
         <v>308</v>
-      </c>
-      <c r="J2" s="90" t="s">
-        <v>303</v>
-      </c>
-      <c r="K2" s="90" t="s">
-        <v>306</v>
       </c>
       <c r="L2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N2" s="90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O2" s="90" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P2" s="91" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37" t="s">
         <v>51</v>
       </c>
@@ -5222,7 +5373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
@@ -5277,7 +5428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37" t="s">
         <v>264</v>
       </c>
@@ -5332,7 +5483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37" t="s">
         <v>265</v>
       </c>
@@ -5387,7 +5538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="37" t="s">
         <v>266</v>
       </c>
@@ -5442,7 +5593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37" t="s">
         <v>270</v>
       </c>
@@ -5497,7 +5648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="37" t="s">
         <v>271</v>
       </c>
@@ -5552,7 +5703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="37" t="s">
         <v>269</v>
       </c>
@@ -5607,7 +5758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="37" t="s">
         <v>267</v>
       </c>
@@ -5662,7 +5813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="37" t="s">
         <v>268</v>
       </c>
@@ -5717,7 +5868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="37" t="s">
         <v>284</v>
       </c>
@@ -5772,7 +5923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="37" t="s">
         <v>297</v>
       </c>
@@ -5827,7 +5978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="37" t="s">
         <v>272</v>
       </c>
@@ -5882,7 +6033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="37" t="s">
         <v>273</v>
       </c>
@@ -5937,7 +6088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>290</v>
       </c>
@@ -5992,7 +6143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>291</v>
       </c>
@@ -6047,7 +6198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>292</v>
       </c>
@@ -6102,7 +6253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>294</v>
       </c>
@@ -6157,7 +6308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>295</v>
       </c>
@@ -6212,7 +6363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>293</v>
       </c>
@@ -6267,7 +6418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>263</v>
       </c>
@@ -6322,7 +6473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
@@ -6411,34 +6562,34 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="82" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>247</v>
@@ -6447,15 +6598,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D2" s="22">
         <v>5</v>
@@ -6467,15 +6618,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D3" s="22">
         <v>5</v>
@@ -6485,15 +6636,15 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
@@ -6503,15 +6654,15 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D5" s="22">
         <v>5</v>
@@ -6523,15 +6674,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D6" s="22">
         <v>5</v>
@@ -6541,15 +6692,15 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D7" s="22">
         <v>5</v>
@@ -6559,15 +6710,15 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D8" s="22">
         <v>5</v>
@@ -6579,15 +6730,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D9" s="22">
         <v>5</v>
@@ -6597,15 +6748,15 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D10" s="22">
         <v>5</v>
@@ -6615,65 +6766,9 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" s="22">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="22">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D13" s="22">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
@@ -6690,7 +6785,7 @@
           <x14:formula1>
             <xm:f>Lookup!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B13</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6699,6 +6794,242 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.89453125" customWidth="1"/>
+    <col min="3" max="3" width="24.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="22">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="22">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="22">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="22">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576" xr:uid="{84C800FA-7F8B-4EE2-8398-AA95BB3DDFEE}">
+      <formula1>2020</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{BA98C55F-F014-4330-9EA6-6C245C37609F}">
+      <formula1>0</formula1>
+      <formula2>40</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E93D8D1-F1CA-4B53-9614-FFCB4AD52B08}">
+          <x14:formula1>
+            <xm:f>Lookup!$L$2:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6706,14 +7037,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="77.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.15625" customWidth="1"/>
+    <col min="2" max="2" width="77.7890625" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -6724,7 +7055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6735,7 +7066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6746,7 +7077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6757,7 +7088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6768,7 +7099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6779,7 +7110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6790,7 +7121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6801,7 +7132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6812,7 +7143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6828,7 +7159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
@@ -6836,17 +7167,17 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7890625" customWidth="1"/>
     <col min="6" max="6" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5234375" customWidth="1"/>
+    <col min="10" max="10" width="12.734375" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="17" t="s">
         <v>145</v>
       </c>
@@ -6869,10 +7200,10 @@
         <v>176</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>171</v>
       </c>
@@ -6895,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>172</v>
       </c>
@@ -6921,10 +7252,10 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>173</v>
       </c>
@@ -6947,10 +7278,10 @@
         <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
@@ -6973,10 +7304,10 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6999,7 +7330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>65</v>
@@ -7020,7 +7351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>66</v>
@@ -7041,7 +7372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>4</v>
@@ -7062,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
@@ -7082,7 +7413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
@@ -7102,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
@@ -7122,7 +7453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="4" t="s">
         <v>100</v>
       </c>
@@ -7142,7 +7473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
@@ -7162,7 +7493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7182,7 +7513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="4" t="s">
         <v>227</v>
       </c>
@@ -7199,7 +7530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="4" t="s">
         <v>228</v>
       </c>
@@ -7216,7 +7547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="4" t="s">
         <v>229</v>
       </c>
@@ -7233,7 +7564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="4" t="s">
         <v>233</v>
       </c>
@@ -7250,7 +7581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" s="4" t="s">
         <v>234</v>
       </c>
@@ -7267,7 +7598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" s="4" t="s">
         <v>160</v>
       </c>
@@ -7284,7 +7615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" s="4" t="s">
         <v>77</v>
       </c>
@@ -7301,7 +7632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
@@ -7318,7 +7649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="4" t="s">
         <v>73</v>
       </c>
@@ -7335,7 +7666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="4" t="s">
         <v>67</v>
       </c>
@@ -7349,7 +7680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" s="4" t="s">
         <v>174</v>
       </c>
@@ -7363,7 +7694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="4" t="s">
         <v>235</v>
       </c>
@@ -7377,7 +7708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="4" t="s">
         <v>230</v>
       </c>
@@ -7391,7 +7722,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="4" t="s">
         <v>226</v>
       </c>
@@ -7405,7 +7736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="4" t="s">
         <v>165</v>
       </c>
@@ -7419,7 +7750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="4" t="s">
         <v>78</v>
       </c>
@@ -7436,7 +7767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="4" t="s">
         <v>163</v>
       </c>
@@ -7453,7 +7784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="4" t="s">
         <v>236</v>
       </c>
@@ -7470,7 +7801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="4" t="s">
         <v>237</v>
       </c>
@@ -7487,7 +7818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="4" t="s">
         <v>238</v>
       </c>
@@ -7504,7 +7835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="4" t="s">
         <v>239</v>
       </c>
@@ -7521,7 +7852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="4" t="s">
         <v>240</v>
       </c>
@@ -7538,7 +7869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="4" t="s">
         <v>241</v>
       </c>
@@ -7555,7 +7886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="4" t="s">
         <v>242</v>
       </c>
@@ -7572,7 +7903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="4" t="s">
         <v>243</v>
       </c>
@@ -7589,7 +7920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="4" t="s">
         <v>244</v>
       </c>
@@ -7606,7 +7937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" s="4" t="s">
         <v>245</v>
       </c>
@@ -7623,7 +7954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="4" t="s">
         <v>164</v>
       </c>
@@ -7640,7 +7971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" s="4" t="s">
         <v>70</v>
       </c>
@@ -7651,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" s="4" t="s">
         <v>65</v>
       </c>
@@ -7662,283 +7993,283 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -7954,27 +8285,27 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
@@ -7985,7 +8316,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>9</v>
@@ -8015,10 +8346,10 @@
         <v>170</v>
       </c>
       <c r="N1" s="83" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>298</v>
       </c>
@@ -8056,13 +8387,13 @@
         <v>143</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>258</v>
       </c>
@@ -8100,13 +8431,13 @@
         <v>143</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>296</v>
       </c>
@@ -8144,15 +8475,15 @@
         <v>143</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B5" s="27">
         <v>48</v>
@@ -8188,13 +8519,13 @@
         <v>143</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -8204,7 +8535,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -8214,7 +8545,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8225,7 +8556,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8235,7 +8566,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8288,19 +8619,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="15"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.734375" style="15"/>
+    <col min="8" max="8" width="11.5234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.85">
       <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
@@ -8326,7 +8657,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -8352,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -8378,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -8404,7 +8735,7 @@
         <v>0.98846927759109204</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -8430,7 +8761,7 @@
         <v>0.99316389691241536</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -8456,7 +8787,7 @@
         <v>0.98022410443373342</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -8482,7 +8813,7 @@
         <v>0.97771923789514636</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -8508,7 +8839,7 @@
         <v>0.97393215219000295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -8534,7 +8865,7 @@
         <v>0.95811661983967134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8560,7 +8891,7 @@
         <v>0.91700404320467122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -8586,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -8612,7 +8943,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -8638,7 +8969,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -8664,7 +8995,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -8690,7 +9021,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -8716,7 +9047,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -8742,7 +9073,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8768,7 +9099,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -8794,7 +9125,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -8820,7 +9151,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -8846,7 +9177,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -8872,7 +9203,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -8898,7 +9229,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -8924,7 +9255,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -8950,7 +9281,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -8976,7 +9307,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -9002,7 +9333,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -9028,7 +9359,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -9054,7 +9385,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -9080,7 +9411,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -9151,24 +9482,24 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.89453125" customWidth="1"/>
+    <col min="2" max="3" width="5.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="92" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="95" t="s">
         <v>103</v>
       </c>
@@ -9179,7 +9510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="95" t="s">
         <v>180</v>
       </c>
@@ -9190,9 +9521,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="100" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
@@ -9214,14 +9545,14 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26171875" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -9235,7 +9566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -9249,7 +9580,7 @@
         <v>3575570</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -9264,7 +9595,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -9279,7 +9610,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -9294,7 +9625,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -9308,7 +9639,7 @@
         <v>3155986</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -9322,7 +9653,7 @@
         <v>3116265</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -9336,7 +9667,7 @@
         <v>3084419</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -9350,7 +9681,7 @@
         <v>3049213</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -9364,7 +9695,7 @@
         <v>3002143</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -9378,7 +9709,7 @@
         <v>2945614</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -9392,7 +9723,7 @@
         <v>2884765</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -9407,7 +9738,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -9421,7 +9752,7 @@
         <v>2770640</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -9435,7 +9766,7 @@
         <v>2726244</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -9449,7 +9780,7 @@
         <v>2689714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -9463,7 +9794,7 @@
         <v>2657834</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -9477,7 +9808,7 @@
         <v>2627389</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -9491,7 +9822,7 @@
         <v>2595159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -9505,7 +9836,7 @@
         <v>2558367</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -9519,7 +9850,7 @@
         <v>2515982</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -9533,7 +9864,7 @@
         <v>2467416</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -9547,7 +9878,7 @@
         <v>2412076</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -9561,7 +9892,7 @@
         <v>2349372</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -9575,7 +9906,7 @@
         <v>2278980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -9589,7 +9920,7 @@
         <v>2201663</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -9603,7 +9934,7 @@
         <v>2118447</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -9617,7 +9948,7 @@
         <v>2030363</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -9631,7 +9962,7 @@
         <v>1938438</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -9645,7 +9976,7 @@
         <v>1844075</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -9659,7 +9990,7 @@
         <v>1750163</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -9673,7 +10004,7 @@
         <v>1659968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -9687,7 +10018,7 @@
         <v>1576752</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -9701,7 +10032,7 @@
         <v>1503779</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -9715,7 +10046,7 @@
         <v>1443096</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -9729,7 +10060,7 @@
         <v>1391888</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -9743,7 +10074,7 @@
         <v>1346124</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -9757,7 +10088,7 @@
         <v>1301771</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -9771,7 +10102,7 @@
         <v>1254797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -9785,7 +10116,7 @@
         <v>1202349</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -9799,7 +10130,7 @@
         <v>1146286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -9813,7 +10144,7 @@
         <v>1089647</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -9827,7 +10158,7 @@
         <v>1035469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -9841,7 +10172,7 @@
         <v>986789</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -9855,7 +10186,7 @@
         <v>945756</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -9869,7 +10200,7 @@
         <v>910958</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -9883,7 +10214,7 @@
         <v>880091</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -9897,7 +10228,7 @@
         <v>850854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -9911,7 +10242,7 @@
         <v>820942</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -9925,7 +10256,7 @@
         <v>788573</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -9939,7 +10270,7 @@
         <v>754051</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -9953,7 +10284,7 @@
         <v>718191</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -9967,7 +10298,7 @@
         <v>681818</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -9981,7 +10312,7 @@
         <v>645749</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -9995,7 +10326,7 @@
         <v>610778</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -10009,7 +10340,7 @@
         <v>577578</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -10023,7 +10354,7 @@
         <v>546796</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -10037,7 +10368,7 @@
         <v>519076</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -10051,7 +10382,7 @@
         <v>495064</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -10065,7 +10396,7 @@
         <v>475071</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -10079,7 +10410,7 @@
         <v>458062</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -10093,7 +10424,7 @@
         <v>442669</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -10107,7 +10438,7 @@
         <v>427522</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -10121,7 +10452,7 @@
         <v>411253</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -10135,7 +10466,7 @@
         <v>392879</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -10149,7 +10480,7 @@
         <v>372973</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -10163,7 +10494,7 @@
         <v>352494</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -10177,7 +10508,7 @@
         <v>332403</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -10191,7 +10522,7 @@
         <v>313658</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -10205,7 +10536,7 @@
         <v>296932</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -10219,7 +10550,7 @@
         <v>281741</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -10233,7 +10564,7 @@
         <v>267317</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -10247,7 +10578,7 @@
         <v>252889</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -10261,7 +10592,7 @@
         <v>237687</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -10275,7 +10606,7 @@
         <v>221142</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -10289,7 +10620,7 @@
         <v>203487</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -10303,7 +10634,7 @@
         <v>185155</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -10317,7 +10648,7 @@
         <v>166577</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -10331,7 +10662,7 @@
         <v>148186</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -10345,7 +10676,7 @@
         <v>130387</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -10359,7 +10690,7 @@
         <v>113452</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -10373,7 +10704,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -10387,7 +10718,7 @@
         <v>83166</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -10401,7 +10732,7 @@
         <v>70305</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -10415,7 +10746,7 @@
         <v>59208</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -10429,7 +10760,7 @@
         <v>49694</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -10443,7 +10774,7 @@
         <v>41497</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -10457,7 +10788,7 @@
         <v>34350</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -10471,7 +10802,7 @@
         <v>27988</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -10485,7 +10816,7 @@
         <v>22203</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -10499,7 +10830,7 @@
         <v>17007</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -10513,7 +10844,7 @@
         <v>12474</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -10527,7 +10858,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -10541,7 +10872,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -10555,7 +10886,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -10569,7 +10900,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -10583,7 +10914,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -10597,7 +10928,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -10611,7 +10942,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -10625,7 +10956,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -10639,7 +10970,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -10675,14 +11006,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26171875" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -10696,7 +11027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -10710,7 +11041,7 @@
         <v>48809</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -10725,7 +11056,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -10740,7 +11071,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -10755,7 +11086,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -10769,7 +11100,7 @@
         <v>47623</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -10783,7 +11114,7 @@
         <v>50657</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -10797,7 +11128,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -10811,7 +11142,7 @@
         <v>57562</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -10825,7 +11156,7 @@
         <v>60434</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -10839,7 +11170,7 @@
         <v>62648</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -10853,7 +11184,7 @@
         <v>64171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -10868,7 +11199,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -10882,7 +11213,7 @@
         <v>65009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -10896,7 +11227,7 @@
         <v>64277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -10910,7 +11241,7 @@
         <v>62842</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -10924,7 +11255,7 @@
         <v>60798</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -10938,7 +11269,7 @@
         <v>58233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -10952,7 +11283,7 @@
         <v>55238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -10966,7 +11297,7 @@
         <v>51920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -10980,7 +11311,7 @@
         <v>48445</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -10994,7 +11325,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -11008,7 +11339,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -11022,7 +11353,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -11036,7 +11367,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -11050,7 +11381,7 @@
         <v>34692</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -11064,7 +11395,7 @@
         <v>33142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -11078,7 +11409,7 @@
         <v>31801</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -11092,7 +11423,7 @@
         <v>30547</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -11106,7 +11437,7 @@
         <v>29292</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -11120,7 +11451,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -11134,7 +11465,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -11148,7 +11479,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -11162,7 +11493,7 @@
         <v>25540</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -11176,7 +11507,7 @@
         <v>25287</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -11190,7 +11521,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -11204,7 +11535,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -11218,7 +11549,7 @@
         <v>25525</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -11232,7 +11563,7 @@
         <v>25534</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -11246,7 +11577,7 @@
         <v>25328</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -11260,7 +11591,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -11274,7 +11605,7 @@
         <v>24209</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -11288,7 +11619,7 @@
         <v>23299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -11302,7 +11633,7 @@
         <v>22156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -11316,7 +11647,7 @@
         <v>20797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -11330,7 +11661,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -11344,7 +11675,7 @@
         <v>17771</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -11358,7 +11689,7 @@
         <v>16299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -11372,7 +11703,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -11386,7 +11717,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -11400,7 +11731,7 @@
         <v>12985</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -11414,7 +11745,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -11428,7 +11759,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -11442,7 +11773,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -11456,7 +11787,7 @@
         <v>9830</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -11470,7 +11801,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -11484,7 +11815,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -11498,7 +11829,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -11512,7 +11843,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -11526,7 +11857,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -11540,7 +11871,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -11554,7 +11885,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -11568,7 +11899,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -11582,7 +11913,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -11596,7 +11927,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -11610,7 +11941,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -11624,7 +11955,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -11638,7 +11969,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -11652,7 +11983,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -11666,7 +11997,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -11680,7 +12011,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -11694,7 +12025,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -11708,7 +12039,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -11722,7 +12053,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -11736,7 +12067,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -11750,7 +12081,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -11764,7 +12095,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -11778,7 +12109,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -11792,7 +12123,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -11806,7 +12137,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -11820,7 +12151,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -11834,7 +12165,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -11848,7 +12179,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -11862,7 +12193,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -11876,7 +12207,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -11890,7 +12221,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -11904,7 +12235,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -11918,7 +12249,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -11932,7 +12263,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -11946,7 +12277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -11960,7 +12291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -11974,7 +12305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -11988,7 +12319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -12002,7 +12333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -12016,7 +12347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -12030,7 +12361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -12044,7 +12375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -12058,7 +12389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -12072,7 +12403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -12086,7 +12417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -12100,7 +12431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -12136,12 +12467,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>115</v>
       </c>
@@ -12152,7 +12483,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>117</v>
       </c>
@@ -12161,7 +12492,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35" t="s">
         <v>118</v>
       </c>
@@ -12170,7 +12501,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="35" t="s">
         <v>119</v>
       </c>
@@ -12179,7 +12510,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35" t="s">
         <v>120</v>
       </c>
@@ -12190,7 +12521,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35" t="s">
         <v>121</v>
       </c>
@@ -12201,7 +12532,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35" t="s">
         <v>122</v>
       </c>
@@ -12212,7 +12543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
         <v>123</v>
       </c>
@@ -12221,7 +12552,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35" t="s">
         <v>124</v>
       </c>
@@ -12230,7 +12561,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="35" t="s">
         <v>125</v>
       </c>
@@ -12263,14 +12594,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7890625" customWidth="1"/>
+    <col min="2" max="4" width="12.7890625" customWidth="1"/>
+    <col min="5" max="5" width="20.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -12284,7 +12615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>80</v>
       </c>
@@ -12298,7 +12629,7 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35" t="s">
         <v>81</v>
       </c>
@@ -12312,7 +12643,7 @@
         <v>6.4084654318813022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="35" t="s">
         <v>82</v>
       </c>
@@ -12326,7 +12657,7 @@
         <v>6.0600247743600254E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35" t="s">
         <v>83</v>
       </c>
@@ -12340,7 +12671,7 @@
         <v>6.0703878213611638E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35" t="s">
         <v>84</v>
       </c>
@@ -12354,7 +12685,7 @@
         <v>6.4051402944234115E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35" t="s">
         <v>85</v>
       </c>
@@ -12368,7 +12699,7 @@
         <v>7.8032799832215824E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
         <v>86</v>
       </c>
@@ -12382,7 +12713,7 @@
         <v>9.129394265165322E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35" t="s">
         <v>87</v>
       </c>
@@ -12396,7 +12727,7 @@
         <v>7.2674867820140321E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="35" t="s">
         <v>88</v>
       </c>
@@ -12410,7 +12741,7 @@
         <v>9.393164701025386E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35" t="s">
         <v>89</v>
       </c>
@@ -12424,7 +12755,7 @@
         <v>0.1277403545528342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="35" t="s">
         <v>90</v>
       </c>
@@ -12438,7 +12769,7 @@
         <v>0.13255239757366111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35" t="s">
         <v>91</v>
       </c>
@@ -12469,15 +12800,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>92</v>
       </c>
@@ -12506,7 +12837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
@@ -12531,7 +12862,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>265</v>
       </c>
@@ -12556,7 +12887,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>266</v>
       </c>
@@ -12575,7 +12906,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>264</v>
       </c>
@@ -12598,7 +12929,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>269</v>
       </c>
@@ -12619,7 +12950,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
@@ -12638,7 +12969,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
@@ -12657,7 +12988,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>284</v>
       </c>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/brittany_hagedorn_gatesfoundation_org/Documents/Documents/GitHub/PACE-HRH/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72427F04-C22B-45A4-9B74-DF5D38A44693}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21957F5-7A38-405E-98F2-26B417677D3E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" tabRatio="830" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="8" activeTab="14" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -28,13 +28,11 @@
     <sheet name="CoverageRates" sheetId="114" r:id="rId13"/>
     <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId14"/>
     <sheet name="CadreRoles" sheetId="111" r:id="rId15"/>
-    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId16"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId17"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId18"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
@@ -48,7 +46,7 @@
     <definedName name="total_pop" localSheetId="4">TotalPop!#REF!</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop2" localSheetId="3">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
     <definedName name="weeks" localSheetId="3">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
@@ -314,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="348">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1214,12 +1212,6 @@
   </si>
   <si>
     <t>PopValues</t>
-  </si>
-  <si>
-    <t>Family health professional 1</t>
-  </si>
-  <si>
-    <t>Family health professional 2</t>
   </si>
   <si>
     <t>ScenarioID</t>
@@ -2138,149 +2130,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="To Do or Upgrade"/>
-      <sheetName val="Inputs Assump"/>
-      <sheetName val="C FTE Equiv"/>
-      <sheetName val="C Tot Hrs by Cat"/>
-      <sheetName val="C Variance"/>
-      <sheetName val="Time Summary"/>
-      <sheetName val="C Hrs by Category (3)"/>
-      <sheetName val="C Hrs by Category (2)"/>
-      <sheetName val="C Ratio to Baseline"/>
-      <sheetName val="Pie 2020"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="Demographics_InCalc"/>
-      <sheetName val="Births"/>
-      <sheetName val="Mortality"/>
-      <sheetName val="FH.MC"/>
-      <sheetName val="FH.FP"/>
-      <sheetName val="FH.Im"/>
-      <sheetName val="FH.N"/>
-      <sheetName val="DPC"/>
-      <sheetName val="Other"/>
-      <sheetName val="DATA"/>
-      <sheetName val="Ssn Malaria"/>
-      <sheetName val="Ssn Nutr"/>
-      <sheetName val="Ssn Measles"/>
-      <sheetName val="Demographics_Total"/>
-      <sheetName val="Prevalences"/>
-      <sheetName val="Work time"/>
-      <sheetName val="Sheet21"/>
-      <sheetName val="Services summary"/>
-      <sheetName val="Services ref"/>
-      <sheetName val="Coverage impacts"/>
-      <sheetName val="Pop M"/>
-      <sheetName val="Pop F"/>
-      <sheetName val="TB Incidence"/>
-      <sheetName val="Malaria Incid"/>
-      <sheetName val="C Fertility"/>
-      <sheetName val="fertility"/>
-      <sheetName val="FP mod"/>
-      <sheetName val="unmet need"/>
-      <sheetName val="HIV Prev"/>
-      <sheetName val="HIV Incid"/>
-      <sheetName val="mort infant"/>
-      <sheetName val="mort 1-5"/>
-      <sheetName val="mort 5-9"/>
-      <sheetName val="mort 10-14"/>
-      <sheetName val="mort 15-19"/>
-      <sheetName val="mort 20-24"/>
-      <sheetName val="mort adult f"/>
-      <sheetName val="mort adult m"/>
-      <sheetName val="Staffing Ratios"/>
-      <sheetName val="fertility 15-19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Ratio max rural</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="V4">
-            <v>105.34416988791497</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24">
-        <row r="3">
-          <cell r="CZ3">
-            <v>115103531.71799999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39">
-        <row r="77">
-          <cell r="BC77">
-            <v>1.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="40">
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>Ethiopia</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Rui Han (AgileOne)" id="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" userId="S::rui.han@gatesfoundation.org::8e2486fc-4f63-445b-b2ee-a849708c4214" providerId="AD"/>
@@ -2635,16 +2484,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P3" s="28" t="b">
         <v>1</v>
@@ -2656,9 +2505,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P4" s="28" t="b">
         <v>0</v>
@@ -2670,7 +2519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>259</v>
       </c>
@@ -2679,22 +2528,22 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H12" t="s">
         <v>139</v>
       </c>
@@ -2717,28 +2566,28 @@
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26171875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.89453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.3671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.47265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.47265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -2791,7 +2640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>279</v>
       </c>
@@ -2832,7 +2681,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -2873,7 +2722,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>279</v>
       </c>
@@ -2915,7 +2764,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -2957,7 +2806,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="64" t="s">
         <v>279</v>
       </c>
@@ -2999,7 +2848,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -3041,7 +2890,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -3083,7 +2932,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3125,7 +2974,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3167,7 +3016,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
         <v>281</v>
       </c>
@@ -3213,7 +3062,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>281</v>
       </c>
@@ -3259,7 +3108,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -3305,7 +3154,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
@@ -3347,7 +3196,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -3389,7 +3238,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -3442,27 +3291,27 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.3671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.47265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.47265625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="25.1015625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.7890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1015625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -3515,7 +3364,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>279</v>
       </c>
@@ -3556,7 +3405,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>279</v>
       </c>
@@ -3597,7 +3446,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>279</v>
       </c>
@@ -3639,7 +3488,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>279</v>
       </c>
@@ -3681,7 +3530,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="64" t="s">
         <v>279</v>
       </c>
@@ -3723,7 +3572,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -3765,7 +3614,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -3807,7 +3656,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -3849,7 +3698,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3891,7 +3740,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
         <v>281</v>
       </c>
@@ -3937,7 +3786,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>281</v>
       </c>
@@ -3983,7 +3832,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -4029,7 +3878,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>287</v>
       </c>
@@ -4071,7 +3920,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>287</v>
       </c>
@@ -4113,7 +3962,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>287</v>
       </c>
@@ -4155,7 +4004,7 @@
       </c>
       <c r="P16" s="62"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>287</v>
       </c>
@@ -4197,7 +4046,7 @@
       </c>
       <c r="P17" s="62"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>287</v>
       </c>
@@ -4239,7 +4088,7 @@
       </c>
       <c r="P18" s="62"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>287</v>
       </c>
@@ -4281,7 +4130,7 @@
       </c>
       <c r="P19" s="62"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>287</v>
       </c>
@@ -4323,7 +4172,7 @@
       </c>
       <c r="P20" s="62"/>
     </row>
-    <row r="21" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="64" t="s">
         <v>287</v>
       </c>
@@ -4365,7 +4214,7 @@
       </c>
       <c r="P21" s="72"/>
     </row>
-    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
         <v>283</v>
       </c>
@@ -4407,7 +4256,7 @@
       </c>
       <c r="P22" s="59"/>
     </row>
-    <row r="23" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="64" t="s">
         <v>283</v>
       </c>
@@ -4448,7 +4297,7 @@
       </c>
       <c r="P23" s="72"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -4458,7 +4307,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -4468,7 +4317,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -4519,15 +4368,15 @@
       <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4535,70 +4384,70 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="V1" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4670,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -4741,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -4749,7 +4598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -4757,7 +4606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -4765,7 +4614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -4773,7 +4622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -4781,7 +4630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -4789,7 +4638,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -4797,7 +4646,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -4805,7 +4654,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -4813,7 +4662,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -4821,7 +4670,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -4829,7 +4678,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -4837,7 +4686,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -4860,7 +4709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -4868,7 +4717,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -4876,7 +4725,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -4884,7 +4733,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -4892,7 +4741,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -4923,15 +4772,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4939,70 +4788,70 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="V1" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -5010,7 +4859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5021,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -5029,7 +4878,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -5037,7 +4886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -5045,7 +4894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -5053,7 +4902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -5061,7 +4910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>269</v>
       </c>
@@ -5069,7 +4918,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -5077,7 +4926,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>268</v>
       </c>
@@ -5085,7 +4934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -5093,7 +4942,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>297</v>
       </c>
@@ -5101,7 +4950,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>272</v>
       </c>
@@ -5109,7 +4958,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>273</v>
       </c>
@@ -5117,7 +4966,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>290</v>
       </c>
@@ -5125,7 +4974,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -5133,7 +4982,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>292</v>
       </c>
@@ -5141,7 +4990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -5149,7 +4998,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -5157,7 +5006,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -5189,27 +5038,27 @@
       <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1015625" customWidth="1"/>
-    <col min="3" max="3" width="12.7890625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.7890625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" s="88" t="str">
         <f>_xlfn.CONCAT("StartYear", 2020)</f>
@@ -5268,7 +5117,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>36</v>
       </c>
@@ -5276,49 +5125,49 @@
         <v>37</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N2" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="O2" s="90" t="s">
         <v>306</v>
-      </c>
-      <c r="O2" s="90" t="s">
-        <v>308</v>
       </c>
       <c r="P2" s="91" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>51</v>
       </c>
@@ -5373,7 +5222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
@@ -5428,7 +5277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>264</v>
       </c>
@@ -5483,7 +5332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>265</v>
       </c>
@@ -5538,7 +5387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>266</v>
       </c>
@@ -5593,7 +5442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>270</v>
       </c>
@@ -5648,7 +5497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>271</v>
       </c>
@@ -5703,7 +5552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>269</v>
       </c>
@@ -5758,7 +5607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>267</v>
       </c>
@@ -5813,7 +5662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>268</v>
       </c>
@@ -5868,7 +5717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>284</v>
       </c>
@@ -5923,7 +5772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>297</v>
       </c>
@@ -5978,7 +5827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>272</v>
       </c>
@@ -6033,7 +5882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>273</v>
       </c>
@@ -6088,7 +5937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>290</v>
       </c>
@@ -6143,7 +5992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>291</v>
       </c>
@@ -6198,7 +6047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>292</v>
       </c>
@@ -6253,7 +6102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>294</v>
       </c>
@@ -6308,7 +6157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>295</v>
       </c>
@@ -6363,7 +6212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>293</v>
       </c>
@@ -6418,7 +6267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>263</v>
       </c>
@@ -6473,7 +6322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
@@ -6562,34 +6411,34 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>304</v>
-      </c>
       <c r="D1" s="82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>247</v>
@@ -6598,15 +6447,15 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2" s="22">
         <v>5</v>
@@ -6618,15 +6467,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="22">
         <v>5</v>
@@ -6636,15 +6485,15 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
@@ -6654,15 +6503,15 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D5" s="22">
         <v>5</v>
@@ -6674,15 +6523,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" s="22">
         <v>5</v>
@@ -6692,15 +6541,15 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D7" s="22">
         <v>5</v>
@@ -6710,15 +6559,15 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D8" s="22">
         <v>5</v>
@@ -6730,15 +6579,15 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D9" s="22">
         <v>5</v>
@@ -6748,15 +6597,15 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>296</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D10" s="22">
         <v>5</v>
@@ -6766,15 +6615,75 @@
       </c>
       <c r="F10" s="5"/>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576" xr:uid="{4809985A-DBDE-4FF4-B726-C31CCA271C03}">
       <formula1>2020</formula1>
       <formula2>2100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13" xr:uid="{AFAFA493-D467-4415-882D-EABA7141BA33}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6785,7 +6694,7 @@
           <x14:formula1>
             <xm:f>Lookup!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6794,257 +6703,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.89453125" customWidth="1"/>
-    <col min="3" max="3" width="24.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="22">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="22">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="22">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="22">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="22">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="22">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576" xr:uid="{84C800FA-7F8B-4EE2-8398-AA95BB3DDFEE}">
-      <formula1>2020</formula1>
-      <formula2>2100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{BA98C55F-F014-4330-9EA6-6C245C37609F}">
-      <formula1>0</formula1>
-      <formula2>40</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E93D8D1-F1CA-4B53-9614-FFCB4AD52B08}">
-          <x14:formula1>
-            <xm:f>Lookup!$L$2:$L$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.15625" customWidth="1"/>
-    <col min="2" max="2" width="77.7890625" customWidth="1"/>
-    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="77.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -7055,7 +6728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7066,7 +6739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7077,7 +6750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7088,7 +6761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7099,7 +6772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7110,7 +6783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7121,7 +6794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7132,7 +6805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7143,7 +6816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7159,7 +6832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
@@ -7167,17 +6840,17 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.7890625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
     <col min="6" max="6" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5234375" customWidth="1"/>
-    <col min="10" max="10" width="12.734375" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="17" t="s">
         <v>145</v>
       </c>
@@ -7200,10 +6873,10 @@
         <v>176</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>171</v>
       </c>
@@ -7226,10 +6899,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>172</v>
       </c>
@@ -7252,10 +6925,10 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>173</v>
       </c>
@@ -7278,10 +6951,10 @@
         <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
@@ -7304,10 +6977,10 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
@@ -7330,7 +7003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>65</v>
@@ -7351,7 +7024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>66</v>
@@ -7372,7 +7045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>4</v>
@@ -7393,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
@@ -7413,7 +7086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
@@ -7433,7 +7106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
@@ -7453,7 +7126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D13" s="4" t="s">
         <v>100</v>
       </c>
@@ -7473,7 +7146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
@@ -7493,7 +7166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7513,7 +7186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F16" s="4" t="s">
         <v>227</v>
       </c>
@@ -7530,7 +7203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F17" s="4" t="s">
         <v>228</v>
       </c>
@@ -7547,7 +7220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F18" s="4" t="s">
         <v>229</v>
       </c>
@@ -7564,7 +7237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F19" s="4" t="s">
         <v>233</v>
       </c>
@@ -7581,7 +7254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F20" s="4" t="s">
         <v>234</v>
       </c>
@@ -7598,7 +7271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F21" s="4" t="s">
         <v>160</v>
       </c>
@@ -7615,7 +7288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F22" s="4" t="s">
         <v>77</v>
       </c>
@@ -7632,7 +7305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
@@ -7649,7 +7322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F24" s="4" t="s">
         <v>73</v>
       </c>
@@ -7666,7 +7339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F25" s="4" t="s">
         <v>67</v>
       </c>
@@ -7680,7 +7353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F26" s="4" t="s">
         <v>174</v>
       </c>
@@ -7694,7 +7367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F27" s="4" t="s">
         <v>235</v>
       </c>
@@ -7708,7 +7381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F28" s="4" t="s">
         <v>230</v>
       </c>
@@ -7722,7 +7395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F29" s="4" t="s">
         <v>226</v>
       </c>
@@ -7736,7 +7409,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F30" s="4" t="s">
         <v>165</v>
       </c>
@@ -7750,7 +7423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F31" s="4" t="s">
         <v>78</v>
       </c>
@@ -7767,7 +7440,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F32" s="4" t="s">
         <v>163</v>
       </c>
@@ -7784,7 +7457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F33" s="4" t="s">
         <v>236</v>
       </c>
@@ -7801,7 +7474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F34" s="4" t="s">
         <v>237</v>
       </c>
@@ -7818,7 +7491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F35" s="4" t="s">
         <v>238</v>
       </c>
@@ -7835,7 +7508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F36" s="4" t="s">
         <v>239</v>
       </c>
@@ -7852,7 +7525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F37" s="4" t="s">
         <v>240</v>
       </c>
@@ -7869,7 +7542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F38" s="4" t="s">
         <v>241</v>
       </c>
@@ -7886,7 +7559,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F39" s="4" t="s">
         <v>242</v>
       </c>
@@ -7903,7 +7576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F40" s="4" t="s">
         <v>243</v>
       </c>
@@ -7920,7 +7593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F41" s="4" t="s">
         <v>244</v>
       </c>
@@ -7937,7 +7610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F42" s="4" t="s">
         <v>245</v>
       </c>
@@ -7954,7 +7627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F43" s="4" t="s">
         <v>164</v>
       </c>
@@ -7971,7 +7644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F44" s="4" t="s">
         <v>70</v>
       </c>
@@ -7982,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F45" s="4" t="s">
         <v>65</v>
       </c>
@@ -7993,283 +7666,283 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -8285,27 +7958,27 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.89453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.89453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
@@ -8316,7 +7989,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>9</v>
@@ -8346,10 +8019,10 @@
         <v>170</v>
       </c>
       <c r="N1" s="83" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>298</v>
       </c>
@@ -8387,13 +8060,13 @@
         <v>143</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>258</v>
       </c>
@@ -8431,13 +8104,13 @@
         <v>143</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>296</v>
       </c>
@@ -8475,15 +8148,15 @@
         <v>143</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" s="27">
         <v>48</v>
@@ -8519,13 +8192,13 @@
         <v>143</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -8535,7 +8208,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -8545,7 +8218,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8556,7 +8229,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8566,7 +8239,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8619,19 +8292,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.734375" style="15"/>
-    <col min="8" max="8" width="11.5234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="15"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.5">
       <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
@@ -8657,7 +8330,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -8683,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -8709,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -8735,7 +8408,7 @@
         <v>0.98846927759109204</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -8761,7 +8434,7 @@
         <v>0.99316389691241536</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -8787,7 +8460,7 @@
         <v>0.98022410443373342</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -8813,7 +8486,7 @@
         <v>0.97771923789514636</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -8839,7 +8512,7 @@
         <v>0.97393215219000295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -8865,7 +8538,7 @@
         <v>0.95811661983967134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8891,7 +8564,7 @@
         <v>0.91700404320467122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -8917,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -8943,7 +8616,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -8969,7 +8642,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -8995,7 +8668,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -9021,7 +8694,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -9047,7 +8720,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -9073,7 +8746,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -9099,7 +8772,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -9125,7 +8798,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -9151,7 +8824,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -9177,7 +8850,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -9203,7 +8876,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -9229,7 +8902,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -9255,7 +8928,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -9281,7 +8954,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -9307,7 +8980,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -9333,7 +9006,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -9359,7 +9032,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -9385,7 +9058,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -9411,7 +9084,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -9482,24 +9155,24 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.89453125" customWidth="1"/>
-    <col min="2" max="3" width="5.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
+    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
         <v>103</v>
       </c>
@@ -9510,7 +9183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="95" t="s">
         <v>180</v>
       </c>
@@ -9521,9 +9194,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
@@ -9545,14 +9218,14 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.26171875" customWidth="1"/>
-    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -9566,7 +9239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -9580,7 +9253,7 @@
         <v>3575570</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -9595,7 +9268,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -9610,7 +9283,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -9625,7 +9298,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -9639,7 +9312,7 @@
         <v>3155986</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -9653,7 +9326,7 @@
         <v>3116265</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -9667,7 +9340,7 @@
         <v>3084419</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -9681,7 +9354,7 @@
         <v>3049213</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -9695,7 +9368,7 @@
         <v>3002143</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -9709,7 +9382,7 @@
         <v>2945614</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -9723,7 +9396,7 @@
         <v>2884765</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -9738,7 +9411,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -9752,7 +9425,7 @@
         <v>2770640</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -9766,7 +9439,7 @@
         <v>2726244</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -9780,7 +9453,7 @@
         <v>2689714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -9794,7 +9467,7 @@
         <v>2657834</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -9808,7 +9481,7 @@
         <v>2627389</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -9822,7 +9495,7 @@
         <v>2595159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -9836,7 +9509,7 @@
         <v>2558367</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -9850,7 +9523,7 @@
         <v>2515982</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -9864,7 +9537,7 @@
         <v>2467416</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -9878,7 +9551,7 @@
         <v>2412076</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -9892,7 +9565,7 @@
         <v>2349372</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -9906,7 +9579,7 @@
         <v>2278980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -9920,7 +9593,7 @@
         <v>2201663</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -9934,7 +9607,7 @@
         <v>2118447</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -9948,7 +9621,7 @@
         <v>2030363</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -9962,7 +9635,7 @@
         <v>1938438</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -9976,7 +9649,7 @@
         <v>1844075</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -9990,7 +9663,7 @@
         <v>1750163</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -10004,7 +9677,7 @@
         <v>1659968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -10018,7 +9691,7 @@
         <v>1576752</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -10032,7 +9705,7 @@
         <v>1503779</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -10046,7 +9719,7 @@
         <v>1443096</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -10060,7 +9733,7 @@
         <v>1391888</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -10074,7 +9747,7 @@
         <v>1346124</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -10088,7 +9761,7 @@
         <v>1301771</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -10102,7 +9775,7 @@
         <v>1254797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -10116,7 +9789,7 @@
         <v>1202349</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -10130,7 +9803,7 @@
         <v>1146286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -10144,7 +9817,7 @@
         <v>1089647</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -10158,7 +9831,7 @@
         <v>1035469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -10172,7 +9845,7 @@
         <v>986789</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -10186,7 +9859,7 @@
         <v>945756</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -10200,7 +9873,7 @@
         <v>910958</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -10214,7 +9887,7 @@
         <v>880091</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -10228,7 +9901,7 @@
         <v>850854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -10242,7 +9915,7 @@
         <v>820942</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -10256,7 +9929,7 @@
         <v>788573</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -10270,7 +9943,7 @@
         <v>754051</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -10284,7 +9957,7 @@
         <v>718191</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -10298,7 +9971,7 @@
         <v>681818</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -10312,7 +9985,7 @@
         <v>645749</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -10326,7 +9999,7 @@
         <v>610778</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -10340,7 +10013,7 @@
         <v>577578</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -10354,7 +10027,7 @@
         <v>546796</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -10368,7 +10041,7 @@
         <v>519076</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -10382,7 +10055,7 @@
         <v>495064</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -10396,7 +10069,7 @@
         <v>475071</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -10410,7 +10083,7 @@
         <v>458062</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -10424,7 +10097,7 @@
         <v>442669</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -10438,7 +10111,7 @@
         <v>427522</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -10452,7 +10125,7 @@
         <v>411253</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -10466,7 +10139,7 @@
         <v>392879</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -10480,7 +10153,7 @@
         <v>372973</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -10494,7 +10167,7 @@
         <v>352494</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -10508,7 +10181,7 @@
         <v>332403</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -10522,7 +10195,7 @@
         <v>313658</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -10536,7 +10209,7 @@
         <v>296932</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -10550,7 +10223,7 @@
         <v>281741</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -10564,7 +10237,7 @@
         <v>267317</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -10578,7 +10251,7 @@
         <v>252889</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -10592,7 +10265,7 @@
         <v>237687</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -10606,7 +10279,7 @@
         <v>221142</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -10620,7 +10293,7 @@
         <v>203487</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -10634,7 +10307,7 @@
         <v>185155</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -10648,7 +10321,7 @@
         <v>166577</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -10662,7 +10335,7 @@
         <v>148186</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -10676,7 +10349,7 @@
         <v>130387</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -10690,7 +10363,7 @@
         <v>113452</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -10704,7 +10377,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -10718,7 +10391,7 @@
         <v>83166</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -10732,7 +10405,7 @@
         <v>70305</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -10746,7 +10419,7 @@
         <v>59208</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -10760,7 +10433,7 @@
         <v>49694</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -10774,7 +10447,7 @@
         <v>41497</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -10788,7 +10461,7 @@
         <v>34350</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -10802,7 +10475,7 @@
         <v>27988</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -10816,7 +10489,7 @@
         <v>22203</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -10830,7 +10503,7 @@
         <v>17007</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -10844,7 +10517,7 @@
         <v>12474</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -10858,7 +10531,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -10872,7 +10545,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -10886,7 +10559,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -10900,7 +10573,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -10914,7 +10587,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -10928,7 +10601,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -10942,7 +10615,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -10956,7 +10629,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -10970,7 +10643,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -11006,14 +10679,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.26171875" customWidth="1"/>
-    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -11027,7 +10700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -11041,7 +10714,7 @@
         <v>48809</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -11056,7 +10729,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -11071,7 +10744,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -11086,7 +10759,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -11100,7 +10773,7 @@
         <v>47623</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -11114,7 +10787,7 @@
         <v>50657</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -11128,7 +10801,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -11142,7 +10815,7 @@
         <v>57562</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -11156,7 +10829,7 @@
         <v>60434</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -11170,7 +10843,7 @@
         <v>62648</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -11184,7 +10857,7 @@
         <v>64171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -11199,7 +10872,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -11213,7 +10886,7 @@
         <v>65009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -11227,7 +10900,7 @@
         <v>64277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -11241,7 +10914,7 @@
         <v>62842</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -11255,7 +10928,7 @@
         <v>60798</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -11269,7 +10942,7 @@
         <v>58233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -11283,7 +10956,7 @@
         <v>55238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -11297,7 +10970,7 @@
         <v>51920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -11311,7 +10984,7 @@
         <v>48445</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -11325,7 +10998,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -11339,7 +11012,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -11353,7 +11026,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -11367,7 +11040,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -11381,7 +11054,7 @@
         <v>34692</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -11395,7 +11068,7 @@
         <v>33142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -11409,7 +11082,7 @@
         <v>31801</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -11423,7 +11096,7 @@
         <v>30547</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -11437,7 +11110,7 @@
         <v>29292</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -11451,7 +11124,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -11465,7 +11138,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -11479,7 +11152,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -11493,7 +11166,7 @@
         <v>25540</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -11507,7 +11180,7 @@
         <v>25287</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -11521,7 +11194,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -11535,7 +11208,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -11549,7 +11222,7 @@
         <v>25525</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -11563,7 +11236,7 @@
         <v>25534</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -11577,7 +11250,7 @@
         <v>25328</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -11591,7 +11264,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -11605,7 +11278,7 @@
         <v>24209</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -11619,7 +11292,7 @@
         <v>23299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -11633,7 +11306,7 @@
         <v>22156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -11647,7 +11320,7 @@
         <v>20797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -11661,7 +11334,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -11675,7 +11348,7 @@
         <v>17771</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -11689,7 +11362,7 @@
         <v>16299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -11703,7 +11376,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -11717,7 +11390,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -11731,7 +11404,7 @@
         <v>12985</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -11745,7 +11418,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -11759,7 +11432,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -11773,7 +11446,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -11787,7 +11460,7 @@
         <v>9830</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -11801,7 +11474,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -11815,7 +11488,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -11829,7 +11502,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -11843,7 +11516,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -11857,7 +11530,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -11871,7 +11544,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -11885,7 +11558,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -11899,7 +11572,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -11913,7 +11586,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -11927,7 +11600,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -11941,7 +11614,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -11955,7 +11628,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -11969,7 +11642,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -11983,7 +11656,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -11997,7 +11670,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -12011,7 +11684,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -12025,7 +11698,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -12039,7 +11712,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -12053,7 +11726,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -12067,7 +11740,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -12081,7 +11754,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -12095,7 +11768,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -12109,7 +11782,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -12123,7 +11796,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -12137,7 +11810,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -12151,7 +11824,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -12165,7 +11838,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -12179,7 +11852,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -12193,7 +11866,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -12207,7 +11880,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -12221,7 +11894,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -12235,7 +11908,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -12249,7 +11922,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -12263,7 +11936,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -12277,7 +11950,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -12291,7 +11964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -12305,7 +11978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -12319,7 +11992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -12333,7 +12006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -12347,7 +12020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -12361,7 +12034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -12375,7 +12048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -12389,7 +12062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -12403,7 +12076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -12417,7 +12090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -12431,7 +12104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -12467,12 +12140,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5234375" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>115</v>
       </c>
@@ -12483,7 +12156,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>117</v>
       </c>
@@ -12492,7 +12165,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>118</v>
       </c>
@@ -12501,7 +12174,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>119</v>
       </c>
@@ -12510,7 +12183,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>120</v>
       </c>
@@ -12521,7 +12194,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>121</v>
       </c>
@@ -12532,7 +12205,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>122</v>
       </c>
@@ -12543,7 +12216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>123</v>
       </c>
@@ -12552,7 +12225,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>124</v>
       </c>
@@ -12561,7 +12234,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>125</v>
       </c>
@@ -12594,14 +12267,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7890625" customWidth="1"/>
-    <col min="2" max="4" width="12.7890625" customWidth="1"/>
-    <col min="5" max="5" width="20.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -12615,7 +12288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>80</v>
       </c>
@@ -12629,7 +12302,7 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>81</v>
       </c>
@@ -12643,7 +12316,7 @@
         <v>6.4084654318813022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>82</v>
       </c>
@@ -12657,7 +12330,7 @@
         <v>6.0600247743600254E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>83</v>
       </c>
@@ -12671,7 +12344,7 @@
         <v>6.0703878213611638E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>84</v>
       </c>
@@ -12685,7 +12358,7 @@
         <v>6.4051402944234115E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>85</v>
       </c>
@@ -12699,7 +12372,7 @@
         <v>7.8032799832215824E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>86</v>
       </c>
@@ -12713,7 +12386,7 @@
         <v>9.129394265165322E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>87</v>
       </c>
@@ -12727,7 +12400,7 @@
         <v>7.2674867820140321E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>88</v>
       </c>
@@ -12741,7 +12414,7 @@
         <v>9.393164701025386E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>89</v>
       </c>
@@ -12755,7 +12428,7 @@
         <v>0.1277403545528342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>90</v>
       </c>
@@ -12769,7 +12442,7 @@
         <v>0.13255239757366111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>91</v>
       </c>
@@ -12800,15 +12473,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.47265625" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>92</v>
       </c>
@@ -12837,7 +12510,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
@@ -12862,7 +12535,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>265</v>
       </c>
@@ -12887,7 +12560,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>266</v>
       </c>
@@ -12906,7 +12579,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>264</v>
       </c>
@@ -12929,7 +12602,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>269</v>
       </c>
@@ -12950,7 +12623,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>272</v>
       </c>
@@ -12969,7 +12642,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>273</v>
       </c>
@@ -12988,7 +12661,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>284</v>
       </c>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21957F5-7A38-405E-98F2-26B417677D3E}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="8" activeTab="14" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -28,13 +28,11 @@
     <sheet name="CoverageRates" sheetId="114" r:id="rId13"/>
     <sheet name="TaskAllocationByCadre" sheetId="97" r:id="rId14"/>
     <sheet name="CadreRoles" sheetId="111" r:id="rId15"/>
-    <sheet name="CadreRoles_v0" sheetId="108" r:id="rId16"/>
-    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId17"/>
-    <sheet name="Lookup" sheetId="84" r:id="rId18"/>
+    <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
+    <sheet name="Lookup" sheetId="84" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
@@ -48,7 +46,7 @@
     <definedName name="total_pop" localSheetId="4">TotalPop!#REF!</definedName>
     <definedName name="total_pop">#REF!</definedName>
     <definedName name="total_pop2" localSheetId="3">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2">[2]Demographics_Total!$CZ$3</definedName>
+    <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
     <definedName name="weeks" localSheetId="3">#REF!</definedName>
     <definedName name="weeks">#REF!</definedName>
   </definedNames>
@@ -111,7 +109,7 @@
     Should typically be &lt;= 40</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +117,7 @@
     Typically TRUE except for scenario analysis</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
+    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +125,7 @@
     Typically TRUE except for scenario analysis</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
+    <comment ref="H1" authorId="5" shapeId="0" xr:uid="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +133,7 @@
     Typically TRUE except for scenario analysis</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
+    <comment ref="I1" authorId="6" shapeId="0" xr:uid="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +141,7 @@
     Typically TRUE except for scenario analysis</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
+    <comment ref="J1" authorId="7" shapeId="0" xr:uid="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +149,7 @@
     The exact name (including capitalization) of a tab in this workbook that contains the task values information.</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="8" shapeId="0" xr:uid="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
+    <comment ref="K1" authorId="8" shapeId="0" xr:uid="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +157,7 @@
     The exact name (including capitalization) of a tab in this workbook that contains the initial population demographics.</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="9" shapeId="0" xr:uid="{014F1C08-667B-46ED-851F-81B8588E32D0}">
+    <comment ref="L1" authorId="9" shapeId="0" xr:uid="{014F1C08-667B-46ED-851F-81B8588E32D0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +165,7 @@
     The exact name (including capitalization) of a tab in this workbook that contains the seasonality information. Can be one or multiple tabs, but only one is used per scenario run.</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="10" shapeId="0" xr:uid="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
+    <comment ref="M1" authorId="10" shapeId="0" xr:uid="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +173,7 @@
     The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</t>
       </text>
     </comment>
-    <comment ref="M1" authorId="11" shapeId="0" xr:uid="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+    <comment ref="N1" authorId="11" shapeId="0" xr:uid="{E0287D98-688F-4109-B85D-5FB1C1026365}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -314,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="348">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1216,12 +1214,6 @@
     <t>PopValues</t>
   </si>
   <si>
-    <t>Family health professional 1</t>
-  </si>
-  <si>
-    <t>Family health professional 2</t>
-  </si>
-  <si>
     <t>ScenarioID</t>
   </si>
   <si>
@@ -1361,6 +1353,9 @@
   </si>
   <si>
     <t>CoverageRates_step</t>
+  </si>
+  <si>
+    <t>MaxUtilization</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1517,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1575,12 +1570,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1760,7 +1749,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1908,10 +1897,6 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="60" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2003,149 +1988,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="To Do or Upgrade"/>
-      <sheetName val="Inputs Assump"/>
-      <sheetName val="C FTE Equiv"/>
-      <sheetName val="C Tot Hrs by Cat"/>
-      <sheetName val="C Variance"/>
-      <sheetName val="Time Summary"/>
-      <sheetName val="C Hrs by Category (3)"/>
-      <sheetName val="C Hrs by Category (2)"/>
-      <sheetName val="C Ratio to Baseline"/>
-      <sheetName val="Pie 2020"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="Demographics_InCalc"/>
-      <sheetName val="Births"/>
-      <sheetName val="Mortality"/>
-      <sheetName val="FH.MC"/>
-      <sheetName val="FH.FP"/>
-      <sheetName val="FH.Im"/>
-      <sheetName val="FH.N"/>
-      <sheetName val="DPC"/>
-      <sheetName val="Other"/>
-      <sheetName val="DATA"/>
-      <sheetName val="Ssn Malaria"/>
-      <sheetName val="Ssn Nutr"/>
-      <sheetName val="Ssn Measles"/>
-      <sheetName val="Demographics_Total"/>
-      <sheetName val="Prevalences"/>
-      <sheetName val="Work time"/>
-      <sheetName val="Sheet21"/>
-      <sheetName val="Services summary"/>
-      <sheetName val="Services ref"/>
-      <sheetName val="Coverage impacts"/>
-      <sheetName val="Pop M"/>
-      <sheetName val="Pop F"/>
-      <sheetName val="TB Incidence"/>
-      <sheetName val="Malaria Incid"/>
-      <sheetName val="C Fertility"/>
-      <sheetName val="fertility"/>
-      <sheetName val="FP mod"/>
-      <sheetName val="unmet need"/>
-      <sheetName val="HIV Prev"/>
-      <sheetName val="HIV Incid"/>
-      <sheetName val="mort infant"/>
-      <sheetName val="mort 1-5"/>
-      <sheetName val="mort 5-9"/>
-      <sheetName val="mort 10-14"/>
-      <sheetName val="mort 15-19"/>
-      <sheetName val="mort 20-24"/>
-      <sheetName val="mort adult f"/>
-      <sheetName val="mort adult m"/>
-      <sheetName val="Staffing Ratios"/>
-      <sheetName val="fertility 15-19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Ratio max rural</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="V4">
-            <v>105.34416988791497</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24">
-        <row r="3">
-          <cell r="CZ3">
-            <v>115103531.71799999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39">
-        <row r="77">
-          <cell r="BC77">
-            <v>1.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="40">
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>Ethiopia</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2601,31 +2443,31 @@
   <threadedComment ref="C1" dT="2022-11-12T18:34:11.60" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{FEADEA4A-B72E-4A9D-858D-15AEFC2C5D84}">
     <text>Should typically be &lt;= 40</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2022-11-12T18:34:44.31" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
+  <threadedComment ref="F1" dT="2022-11-12T18:34:44.31" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2022-11-12T18:34:48.58" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
+  <threadedComment ref="G1" dT="2022-11-12T18:34:48.58" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2022-11-12T18:34:52.99" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
+  <threadedComment ref="H1" dT="2022-11-12T18:34:52.99" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-11-12T18:34:57.44" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
+  <threadedComment ref="I1" dT="2022-11-12T18:34:57.44" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2022-11-12T18:36:24.37" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
+  <threadedComment ref="J1" dT="2022-11-12T18:36:24.37" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task values information.</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2022-11-12T18:36:40.56" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
+  <threadedComment ref="K1" dT="2022-11-12T18:36:40.56" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the initial population demographics.</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2022-11-12T18:37:20.11" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
+  <threadedComment ref="L1" dT="2022-11-12T18:37:20.11" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the seasonality information. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
+  <threadedComment ref="M1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+  <threadedComment ref="N1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2646,12 +2488,12 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P3" s="28" t="b">
         <v>1</v>
@@ -2665,7 +2507,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P4" s="28" t="b">
         <v>0</v>
@@ -2745,7 +2587,7 @@
     <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -3469,7 +3311,7 @@
     <col min="16" max="16" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
         <v>278</v>
       </c>
@@ -4542,67 +4384,67 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>343</v>
-      </c>
-      <c r="V1" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -4946,67 +4788,67 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>343</v>
-      </c>
-      <c r="V1" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -5213,10 +5055,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C1" s="88" t="str">
         <f>_xlfn.CONCAT("StartYear", 2020)</f>
@@ -5283,43 +5125,43 @@
         <v>37</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N2" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="O2" s="90" t="s">
         <v>306</v>
-      </c>
-      <c r="O2" s="90" t="s">
-        <v>308</v>
       </c>
       <c r="P2" s="91" t="s">
         <v>34</v>
@@ -6569,10 +6411,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6587,16 +6429,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>304</v>
-      </c>
       <c r="D1" s="82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>247</v>
@@ -6610,10 +6452,10 @@
         <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2" s="22">
         <v>5</v>
@@ -6630,10 +6472,10 @@
         <v>298</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="22">
         <v>5</v>
@@ -6648,10 +6490,10 @@
         <v>298</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
@@ -6666,10 +6508,10 @@
         <v>258</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D5" s="22">
         <v>5</v>
@@ -6686,10 +6528,10 @@
         <v>258</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D6" s="22">
         <v>5</v>
@@ -6704,10 +6546,10 @@
         <v>258</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D7" s="22">
         <v>5</v>
@@ -6722,10 +6564,10 @@
         <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D8" s="22">
         <v>5</v>
@@ -6742,10 +6584,10 @@
         <v>296</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D9" s="22">
         <v>5</v>
@@ -6760,10 +6602,10 @@
         <v>296</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D10" s="22">
         <v>5</v>
@@ -6773,15 +6615,75 @@
       </c>
       <c r="F10" s="5"/>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2030</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2035</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13" xr:uid="{71076C72-AED2-4FA3-A792-40EFFD887371}">
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576" xr:uid="{4809985A-DBDE-4FF4-B726-C31CCA271C03}">
       <formula1>2020</formula1>
       <formula2>2100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13" xr:uid="{AFAFA493-D467-4415-882D-EABA7141BA33}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6792,7 +6694,7 @@
           <x14:formula1>
             <xm:f>Lookup!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6801,247 +6703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54E086A-5AFA-4FBE-A195-2972B691F429}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="22">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="22">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="22">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="22">
-        <v>5.5</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="22">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="22">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2030</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="22">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2035</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576" xr:uid="{84C800FA-7F8B-4EE2-8398-AA95BB3DDFEE}">
-      <formula1>2020</formula1>
-      <formula2>2100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{BA98C55F-F014-4330-9EA6-6C245C37609F}">
-      <formula1>0</formula1>
-      <formula2>40</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E93D8D1-F1CA-4B53-9614-FFCB4AD52B08}">
-          <x14:formula1>
-            <xm:f>Lookup!$L$2:$L$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F02ED-B255-4EEF-8CAA-1A7122B8C9FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7166,7 +6832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681DF91-CB0A-43E1-9090-E7803F99E625}">
   <dimension ref="B1:L142"/>
   <sheetViews>
@@ -7207,7 +6873,7 @@
         <v>176</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
@@ -7233,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -7259,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -7285,7 +6951,7 @@
         <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -7311,7 +6977,7 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -8290,9 +7956,9 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8301,17 +7967,18 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
@@ -8322,37 +7989,40 @@
         <v>8</v>
       </c>
       <c r="D1" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="F1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="H1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="I1" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="J1" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="K1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="L1" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="M1" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="105" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>298</v>
       </c>
@@ -8363,11 +8033,11 @@
         <v>32</v>
       </c>
       <c r="D2" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E2" s="27">
         <v>5000</v>
       </c>
-      <c r="E2" s="27" t="b">
-        <v>1</v>
-      </c>
       <c r="F2" s="27" t="b">
         <v>1</v>
       </c>
@@ -8377,23 +8047,26 @@
       <c r="H2" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="M2" s="106" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>258</v>
       </c>
@@ -8404,11 +8077,11 @@
         <v>32</v>
       </c>
       <c r="D3" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="27">
         <v>5000</v>
       </c>
-      <c r="E3" s="27" t="b">
-        <v>1</v>
-      </c>
       <c r="F3" s="27" t="b">
         <v>1</v>
       </c>
@@ -8418,23 +8091,26 @@
       <c r="H3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="M3" s="106" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M3" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>296</v>
       </c>
@@ -8445,39 +8121,42 @@
         <v>32</v>
       </c>
       <c r="D4" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="27">
         <v>5000</v>
       </c>
-      <c r="E4" s="27" t="b">
-        <v>1</v>
-      </c>
       <c r="F4" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="M4" s="106" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>347</v>
+      <c r="M4" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="B5" s="27">
         <v>48</v>
@@ -8486,11 +8165,11 @@
         <v>32</v>
       </c>
       <c r="D5" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="27">
         <v>5000</v>
       </c>
-      <c r="E5" s="27" t="b">
-        <v>1</v>
-      </c>
       <c r="F5" s="27" t="b">
         <v>1</v>
       </c>
@@ -8500,23 +8179,26 @@
       <c r="H5" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="M5" s="106" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M5" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -8524,8 +8206,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -8533,8 +8216,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8543,8 +8227,9 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8552,8 +8237,9 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8561,16 +8247,21 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D4" xr:uid="{51E01DD3-1F4F-4ECB-945C-BF7AC154B4D2}">
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C4 E2:E4" xr:uid="{51E01DD3-1F4F-4ECB-945C-BF7AC154B4D2}">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 I2:L4" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5 J2:M4 J5" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
       <formula1>1</formula1>
       <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{D796A398-092D-4D10-BA3C-34FA2CA6C0CE}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8582,7 +8273,7 @@
           <x14:formula1>
             <xm:f>'Read Me'!$P$3:$P$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:H4</xm:sqref>
+          <xm:sqref>F2:I4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9456,12 +9147,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5EA865-0CD0-41A0-8D11-2E731D20BD4F}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9472,13 +9163,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>318</v>
-      </c>
-      <c r="B1" s="93" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -9505,7 +9196,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
